--- a/benchmark/parallel_benchmark.xlsx
+++ b/benchmark/parallel_benchmark.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\egaroucid\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07551FA4-87E4-4717-9B43-790AF3E3498E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368A4B8B-960B-4FB2-943A-070C376702EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9912" yWindow="5196" windowWidth="34560" windowHeight="18600" xr2:uid="{75C047C0-BFEA-499F-BA8B-EB1F29873334}"/>
   </bookViews>
   <sheets>
-    <sheet name="20220920" sheetId="1" r:id="rId1"/>
+    <sheet name="20220920_edax" sheetId="2" r:id="rId1"/>
+    <sheet name="20220920" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>スレッド数 p(個)</t>
     <rPh sb="4" eb="5">
@@ -259,7 +260,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20220920'!$D$1</c:f>
+              <c:f>'20220920_edax'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -292,7 +293,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20220920'!$A$2:$A$24</c:f>
+              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -370,7 +371,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20220920'!$D$2:$D$24</c:f>
+              <c:f>'20220920_edax'!$D$2:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -378,61 +379,61 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52886781587721632</c:v>
+                  <c:v>0.94277078116373902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43624154990062708</c:v>
+                  <c:v>0.71616179871083741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54682990405286869</c:v>
+                  <c:v>0.64226257018065158</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41180572937056503</c:v>
+                  <c:v>0.80073054155926582</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41428960048070756</c:v>
+                  <c:v>0.76922349474648222</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39106736551275795</c:v>
+                  <c:v>0.75433120443968282</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3678069952859318</c:v>
+                  <c:v>0.57917478638884734</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3604785382135452</c:v>
+                  <c:v>0.63295418825786776</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.40395818119244875</c:v>
+                  <c:v>0.51976088181137914</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3675974090454257</c:v>
+                  <c:v>0.52711155677430799</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30507263143548119</c:v>
+                  <c:v>0.45056974637285041</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2894840210005582</c:v>
+                  <c:v>0.41600807537012113</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.28504232271163876</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2782324271822208</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -441,7 +442,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.25270600306556945</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -449,7 +450,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C23-469D-BED1-1EFA08E7E3D3}"/>
+              <c16:uniqueId val="{00000000-D193-4EC3-8279-581B25A09EA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -695,6 +696,1578 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'20220920_edax'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPS並列化効率 en(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$H$2:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96369713476684427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73022296752522475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67062323587942341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84187687171045833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82062423567551812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77713722261918661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61029408607533309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65080942340465542</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54248781779989164</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56841722420266816</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48571912532573924</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45255273958713005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04AB-434F-A7C0-19B19BD4BAC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1312555520"/>
+        <c:axId val="1312551776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1312555520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312551776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1312551776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312555520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Edax4.4 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+              <a:t>並列化効率 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>2022/09/20</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20220920_edax'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>時間並列化効率 e(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94277078116373902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71616179871083741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64226257018065158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80073054155926582</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76922349474648222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75433120443968282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57917478638884734</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63295418825786776</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51976088181137914</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52711155677430799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45056974637285041</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41600807537012113</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D90-4605-BB63-578A75AE5B98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20220920_edax'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPS並列化効率 en(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$H$2:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96369713476684427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73022296752522475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67062323587942341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84187687171045833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82062423567551812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77713722261918661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61029408607533309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65080942340465542</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54248781779989164</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56841722420266816</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48571912532573924</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45255273958713005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D90-4605-BB63-578A75AE5B98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="833067248"/>
+        <c:axId val="833064336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="833067248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833064336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="833064336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833067248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20220920'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>時間並列化効率 e(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220920'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220920'!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52886781587721632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43624154990062708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54682990405286869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41180572937056503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41428960048070756</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39106736551275795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3678069952859318</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3604785382135452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40395818119244875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3675974090454257</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30507263143548119</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2894840210005582</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28504232271163876</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2782324271822208</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.25270600306556945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C23-469D-BED1-1EFA08E7E3D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1477077008"/>
+        <c:axId val="1477077840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1477077008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1477077840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1477077840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1477077008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'20220920'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1076,7 +2649,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1900,6 +3473,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3448,7 +5141,1674 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>560070</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A931184C-5680-4A34-8230-78D68C9C004A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3DEE192-BCC9-438B-8BCA-DD0486EC3854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9133F202-B78B-482C-8FA3-F034BEBB1EC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3857,10 +7217,736 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1584DABB-DA59-4F6D-AEA3-5CC171009C00}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>618.18799999999999</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C24" si="0">$K$2/B2</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>C2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>25882524709</v>
+      </c>
+      <c r="F2">
+        <f>E2/B2</f>
+        <v>41868371.286728308</v>
+      </c>
+      <c r="G2">
+        <f>F2/$K$3</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>G2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>B2</f>
+        <v>618.18799999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>327.85700000000003</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>1.885541562327478</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D24" si="1">C3/A3</f>
+        <v>0.94277078116373902</v>
+      </c>
+      <c r="E3">
+        <v>26457030066</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F22" si="2">E3/B3</f>
+        <v>80696858.892748967</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G24" si="3">F3/$K$3</f>
+        <v>1.9273942695336885</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H24" si="4">G3/A3</f>
+        <v>0.96369713476684427</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <f>F2</f>
+        <v>41868371.286728308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>287.73200000000003</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2.1484853961325121</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.71616179871083741</v>
+      </c>
+      <c r="E4">
+        <v>26390703936</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>91719738.979327977</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>2.1906689025756743</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>0.73022296752522475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>240.62899999999999</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2.5690502807226063</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.64226257018065158</v>
+      </c>
+      <c r="E5">
+        <v>27025430531</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>112311610.5332275</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>2.6824929435176936</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>0.67062323587942341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>154.40600000000001</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4.0036527077963289</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.80073054155926582</v>
+      </c>
+      <c r="E6">
+        <v>27212523818</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>176240067.21241403</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>4.2093843585522919</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>0.84187687171045833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>133.94200000000001</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>4.6153409684788933</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.76922349474648222</v>
+      </c>
+      <c r="E7">
+        <v>27612036296</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>206149201.11690134</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>4.9237454140531085</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>0.82062423567551812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>117.074</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>5.28031843107778</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.75433120443968282</v>
+      </c>
+      <c r="E8">
+        <v>26665042157</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>227762288.44149855</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>5.439960558334306</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>0.77713722261918661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>133.41999999999999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>4.6333982911107787</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.57917478638884734</v>
+      </c>
+      <c r="E9">
+        <v>27273203416</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>204416155.11917254</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>4.8823526886026647</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>0.61029408607533309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>108.51900000000001</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>5.6965876943208098</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.63295418825786776</v>
+      </c>
+      <c r="E10">
+        <v>26612654272</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>245234975.18406913</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>5.8572848106418984</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>0.65080942340465542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>118.937</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>5.1976088181137916</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.51976088181137914</v>
+      </c>
+      <c r="E11">
+        <v>27014257594</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>227130813.74172881</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>5.4248781779989166</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0.54248781779989164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>97.731999999999999</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>6.3253386812916954</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.52711155677430799</v>
+      </c>
+      <c r="E13">
+        <v>27910738555</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>285584440.66426557</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>6.8210066904320179</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0.56841722420266816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>98.001000000000005</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>6.3079764492199057</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.45056974637285041</v>
+      </c>
+      <c r="E15">
+        <v>27901645337</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>284707761.52284157</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>6.8000677545603496</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>0.48571912532573924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>92.875</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>6.6561292059219381</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.41600807537012113</v>
+      </c>
+      <c r="E17">
+        <v>28156202146</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>303162338.04576045</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>7.2408438333940808</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>0.45255273958713005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" t="e">
+        <f>E23/B23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" t="e">
+        <f>E24/B24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A6F068-9D13-45DA-910B-7CFD747A89D6}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -3916,7 +8002,7 @@
         <v>962.495</v>
       </c>
       <c r="C2">
-        <f>$K$2/B2</f>
+        <f t="shared" ref="C2:C24" si="0">$K$2/B2</f>
         <v>1</v>
       </c>
       <c r="D2">
@@ -3954,26 +8040,26 @@
         <v>909.95799999999997</v>
       </c>
       <c r="C3">
-        <f>$K$2/B3</f>
+        <f t="shared" si="0"/>
         <v>1.0577356317544326</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D23" si="0">C3/A3</f>
+        <f t="shared" ref="D3:D23" si="1">C3/A3</f>
         <v>0.52886781587721632</v>
       </c>
       <c r="E3">
         <v>30516756772</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F23" si="1">E3/B3</f>
+        <f t="shared" ref="F3:F22" si="2">E3/B3</f>
         <v>33536445.387589317</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G24" si="2">F3/$K$3</f>
+        <f t="shared" ref="G3:G24" si="3">F3/$K$3</f>
         <v>1.0523476109062917</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H24" si="3">G3/A3</f>
+        <f t="shared" ref="H3:H24" si="4">G3/A3</f>
         <v>0.52617380545314585</v>
       </c>
       <c r="J3" t="s">
@@ -3992,26 +8078,26 @@
         <v>735.44500000000005</v>
       </c>
       <c r="C4">
-        <f>$K$2/B4</f>
+        <f t="shared" si="0"/>
         <v>1.3087246497018812</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43624154990062708</v>
       </c>
       <c r="E4">
         <v>31967669366</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43467110.886606067</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3639641818284798</v>
       </c>
       <c r="H4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.45465472727615991</v>
       </c>
     </row>
@@ -4023,26 +8109,26 @@
         <v>440.03399999999999</v>
       </c>
       <c r="C5">
-        <f>$K$2/B5</f>
+        <f t="shared" si="0"/>
         <v>2.1873196162114747</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.54682990405286869</v>
       </c>
       <c r="E5">
         <v>33846344303</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76917566.149433911</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4136134894021302</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.60340337235053254</v>
       </c>
     </row>
@@ -4054,26 +8140,26 @@
         <v>467.45100000000002</v>
       </c>
       <c r="C6">
-        <f>$K$2/B6</f>
+        <f t="shared" si="0"/>
         <v>2.0590286468528252</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41180572937056503</v>
       </c>
       <c r="E6">
         <v>35300459863</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75516920.196983203</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3696623071956662</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.47393246143913326</v>
       </c>
     </row>
@@ -4085,26 +8171,26 @@
         <v>387.20699999999999</v>
       </c>
       <c r="C7">
-        <f>$K$2/B7</f>
+        <f t="shared" si="0"/>
         <v>2.4857376028842455</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41428960048070756</v>
       </c>
       <c r="E7">
         <v>35832204963</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92540178.671873182</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9038389373915501</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.48397315623192499</v>
       </c>
     </row>
@@ -4116,26 +8202,26 @@
         <v>351.6</v>
       </c>
       <c r="C8">
-        <f>$K$2/B8</f>
+        <f t="shared" si="0"/>
         <v>2.7374715585893057</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39106736551275795</v>
       </c>
       <c r="E8">
         <v>37558692771</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>106822220.62286688</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3519983219741993</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.47885690313917134</v>
       </c>
     </row>
@@ -4147,26 +8233,26 @@
         <v>327.10599999999999</v>
       </c>
       <c r="C9">
-        <f>$K$2/B9</f>
+        <f t="shared" si="0"/>
         <v>2.9424559622874544</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3678069952859318</v>
       </c>
       <c r="E9">
         <v>37366814065</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114234572.47803465</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5845921665463276</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.44807402081829095</v>
       </c>
     </row>
@@ -4178,26 +8264,26 @@
         <v>296.67200000000003</v>
       </c>
       <c r="C10">
-        <f>$K$2/B10</f>
+        <f t="shared" si="0"/>
         <v>3.2443068439219069</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3604785382135452</v>
       </c>
       <c r="E10">
         <v>37745300251</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>127229061.89664005</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9923491526125079</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.44359435029027866</v>
       </c>
     </row>
@@ -4209,26 +8295,26 @@
         <v>238.26599999999999</v>
       </c>
       <c r="C11">
-        <f>$K$2/B11</f>
+        <f t="shared" si="0"/>
         <v>4.0395818119244877</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40395818119244875</v>
       </c>
       <c r="E11">
         <v>38518812359</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>161663067.15603569</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.0728614952255864</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.50728614952255868</v>
       </c>
     </row>
@@ -4237,23 +8323,23 @@
         <v>11</v>
       </c>
       <c r="C12" t="e">
-        <f>$K$2/B12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" t="e">
+      <c r="D12" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" t="e">
+      <c r="F12" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="G12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4265,26 +8351,26 @@
         <v>218.19499999999999</v>
       </c>
       <c r="C13">
-        <f>$K$2/B13</f>
+        <f t="shared" si="0"/>
         <v>4.4111689085451085</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3675974090454257</v>
       </c>
       <c r="E13">
         <v>38286786734</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>175470504.52118519</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.5061281564958495</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.45884401304132078</v>
       </c>
     </row>
@@ -4293,23 +8379,23 @@
         <v>13</v>
       </c>
       <c r="C14" t="e">
-        <f>$K$2/B14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" t="e">
+      <c r="D14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" t="e">
+      <c r="F14" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="G14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H14" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4321,26 +8407,26 @@
         <v>225.35499999999999</v>
       </c>
       <c r="C15">
-        <f>$K$2/B15</f>
+        <f t="shared" si="0"/>
         <v>4.2710168400967365</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30507263143548119</v>
       </c>
       <c r="E15">
         <v>39928712697</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>177181392.45634666</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.5598144911770389</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.39712960651264562</v>
       </c>
     </row>
@@ -4349,23 +8435,23 @@
         <v>15</v>
       </c>
       <c r="C16" t="e">
-        <f>$K$2/B16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" t="e">
+      <c r="D16" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" t="e">
+      <c r="F16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="G16" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H16" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4377,26 +8463,26 @@
         <v>207.804</v>
       </c>
       <c r="C17">
-        <f>$K$2/B17</f>
+        <f t="shared" si="0"/>
         <v>4.6317443360089312</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2894840210005582</v>
       </c>
       <c r="E17">
         <v>40654500794</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>195638682.57588881</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1389899206723921</v>
       </c>
       <c r="H17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.38368687004202451</v>
       </c>
     </row>
@@ -4405,23 +8491,23 @@
         <v>17</v>
       </c>
       <c r="C18" t="e">
-        <f>$K$2/B18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" t="e">
+      <c r="D18" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" t="e">
+      <c r="F18" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="G18" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4433,26 +8519,26 @@
         <v>187.59299999999999</v>
       </c>
       <c r="C19">
-        <f>$K$2/B19</f>
+        <f t="shared" si="0"/>
         <v>5.1307618088094973</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28504232271163876</v>
       </c>
       <c r="E19">
         <v>39824341967</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>212291194.05841371</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.6615327981805068</v>
       </c>
       <c r="H19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.37008515545447263</v>
       </c>
     </row>
@@ -4461,23 +8547,23 @@
         <v>19</v>
       </c>
       <c r="C20" t="e">
-        <f>$K$2/B20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" t="e">
+      <c r="D20" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" t="e">
+      <c r="F20" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="G20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4489,26 +8575,26 @@
         <v>172.96600000000001</v>
       </c>
       <c r="C21">
-        <f>$K$2/B21</f>
+        <f t="shared" si="0"/>
         <v>5.5646485436444157</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2782324271822208</v>
       </c>
       <c r="E21">
         <v>40510613710</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>234211427.15909484</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3493726890040989</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.36746863445020495</v>
       </c>
     </row>
@@ -4517,23 +8603,23 @@
         <v>21</v>
       </c>
       <c r="C22" t="e">
-        <f>$K$2/B22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" t="e">
+      <c r="D22" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" t="e">
+      <c r="F22" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="G22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H22" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4542,11 +8628,11 @@
         <v>22</v>
       </c>
       <c r="C23" t="e">
-        <f>$K$2/B23</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D23" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" t="e">
@@ -4554,11 +8640,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G23" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H23" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4570,11 +8656,11 @@
         <v>165.59800000000001</v>
       </c>
       <c r="C24">
-        <f>$K$2/B24</f>
+        <f t="shared" si="0"/>
         <v>5.8122380705080978</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24" si="4">C24/A24</f>
+        <f t="shared" ref="D24" si="5">C24/A24</f>
         <v>0.25270600306556945</v>
       </c>
       <c r="E24">
@@ -4585,11 +8671,11 @@
         <v>249763022.80220774</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8373696824739838</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.34075520358582539</v>
       </c>
     </row>

--- a/benchmark/parallel_benchmark.xlsx
+++ b/benchmark/parallel_benchmark.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\egaroucid\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368A4B8B-960B-4FB2-943A-070C376702EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464D28B2-0081-433E-8CB1-F5132530DC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9912" yWindow="5196" windowWidth="34560" windowHeight="18600" xr2:uid="{75C047C0-BFEA-499F-BA8B-EB1F29873334}"/>
+    <workbookView xWindow="7788" yWindow="-36" windowWidth="23040" windowHeight="13560" xr2:uid="{75C047C0-BFEA-499F-BA8B-EB1F29873334}"/>
   </bookViews>
   <sheets>
-    <sheet name="20220920_edax" sheetId="2" r:id="rId1"/>
-    <sheet name="20220920" sheetId="1" r:id="rId2"/>
+    <sheet name="20221107_laptop" sheetId="4" r:id="rId1"/>
+    <sheet name="20220920_edax" sheetId="2" r:id="rId2"/>
+    <sheet name="20220920" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>スレッド数 p(個)</t>
     <rPh sb="4" eb="5">
@@ -138,6 +139,20 @@
     <rPh sb="9" eb="11">
       <t>ジカン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FFO40_49実時間 T(s)</t>
+    <rPh sb="8" eb="9">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>core i7-1165G7</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -260,7 +275,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20220920_edax'!$D$1</c:f>
+              <c:f>'20221107_laptop'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -293,7 +308,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
+              <c:f>'20221107_laptop'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -371,7 +386,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20220920_edax'!$D$2:$D$24</c:f>
+              <c:f>'20221107_laptop'!$D$2:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -379,49 +394,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94277078116373902</c:v>
+                  <c:v>0.57926170990771375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71616179871083741</c:v>
+                  <c:v>0.4158946855192589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64226257018065158</c:v>
+                  <c:v>0.46483065057008727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80073054155926582</c:v>
+                  <c:v>0.37165679812311475</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76922349474648222</c:v>
+                  <c:v>0.39131201919683822</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75433120443968282</c:v>
+                  <c:v>0.31801583052921384</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57917478638884734</c:v>
+                  <c:v>0.3443503643590593</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63295418825786776</c:v>
+                  <c:v>0.30931659693165975</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51976088181137914</c:v>
+                  <c:v>0.2742539159109646</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.22938961827007945</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.52711155677430799</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.45056974637285041</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.41600807537012113</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -450,7 +465,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D193-4EC3-8279-581B25A09EA7}"/>
+              <c16:uniqueId val="{00000000-1961-4CF3-997F-22435F2C9B3A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -696,7 +711,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20220920_edax'!$H$1</c:f>
+              <c:f>'20221107_laptop'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -729,7 +744,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
+              <c:f>'20221107_laptop'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -807,7 +822,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20220920_edax'!$H$2:$H$24</c:f>
+              <c:f>'20221107_laptop'!$H$2:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -815,49 +830,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96369713476684427</c:v>
+                  <c:v>0.57539915305330813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73022296752522475</c:v>
+                  <c:v>0.42815157070351445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67062323587942341</c:v>
+                  <c:v>0.48344675087343891</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84187687171045833</c:v>
+                  <c:v>0.39390607926733051</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82062423567551812</c:v>
+                  <c:v>0.42780773097663816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77713722261918661</c:v>
+                  <c:v>0.34903780141799079</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61029408607533309</c:v>
+                  <c:v>0.38879954247734178</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.65080942340465542</c:v>
+                  <c:v>0.34879269684618791</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.54248781779989164</c:v>
+                  <c:v>0.31923266799670791</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.27907029996799376</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.56841722420266816</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.48571912532573924</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.45255273958713005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -886,7 +901,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-04AB-434F-A7C0-19B19BD4BAC3}"/>
+              <c16:uniqueId val="{00000000-4A62-4798-B0B5-77AC5C4D6F5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1112,7 +1127,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Edax4.4 </a:t>
+              <a:t>Egaroucid 6</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
@@ -1166,7 +1185,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20220920_edax'!$D$1</c:f>
+              <c:f>'20221107_laptop'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1199,7 +1218,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
+              <c:f>'20221107_laptop'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1277,7 +1296,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20220920_edax'!$D$2:$D$24</c:f>
+              <c:f>'20221107_laptop'!$D$2:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1285,49 +1304,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94277078116373902</c:v>
+                  <c:v>0.57926170990771375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71616179871083741</c:v>
+                  <c:v>0.4158946855192589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64226257018065158</c:v>
+                  <c:v>0.46483065057008727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80073054155926582</c:v>
+                  <c:v>0.37165679812311475</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76922349474648222</c:v>
+                  <c:v>0.39131201919683822</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75433120443968282</c:v>
+                  <c:v>0.31801583052921384</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57917478638884734</c:v>
+                  <c:v>0.3443503643590593</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63295418825786776</c:v>
+                  <c:v>0.30931659693165975</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51976088181137914</c:v>
+                  <c:v>0.2742539159109646</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.22938961827007945</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.52711155677430799</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.45056974637285041</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.41600807537012113</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1356,7 +1375,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D90-4605-BB63-578A75AE5B98}"/>
+              <c16:uniqueId val="{00000000-BE6C-4B96-9001-0D71051CA1E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1365,7 +1384,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20220920_edax'!$H$1</c:f>
+              <c:f>'20221107_laptop'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1398,7 +1417,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
+              <c:f>'20221107_laptop'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1476,7 +1495,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20220920_edax'!$H$2:$H$24</c:f>
+              <c:f>'20221107_laptop'!$H$2:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1484,49 +1503,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96369713476684427</c:v>
+                  <c:v>0.57539915305330813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73022296752522475</c:v>
+                  <c:v>0.42815157070351445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67062323587942341</c:v>
+                  <c:v>0.48344675087343891</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84187687171045833</c:v>
+                  <c:v>0.39390607926733051</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82062423567551812</c:v>
+                  <c:v>0.42780773097663816</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77713722261918661</c:v>
+                  <c:v>0.34903780141799079</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61029408607533309</c:v>
+                  <c:v>0.38879954247734178</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.65080942340465542</c:v>
+                  <c:v>0.34879269684618791</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.54248781779989164</c:v>
+                  <c:v>0.31923266799670791</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.27907029996799376</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.56841722420266816</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.48571912532573924</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.45255273958713005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1555,7 +1574,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4D90-4605-BB63-578A75AE5B98}"/>
+              <c16:uniqueId val="{00000001-BE6C-4B96-9001-0D71051CA1E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1832,7 +1851,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20220920'!$D$1</c:f>
+              <c:f>'20220920_edax'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1865,7 +1884,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20220920'!$A$2:$A$24</c:f>
+              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1943,7 +1962,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20220920'!$D$2:$D$24</c:f>
+              <c:f>'20220920_edax'!$D$2:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1951,61 +1970,61 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52886781587721632</c:v>
+                  <c:v>0.94277078116373902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43624154990062708</c:v>
+                  <c:v>0.71616179871083741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54682990405286869</c:v>
+                  <c:v>0.64226257018065158</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41180572937056503</c:v>
+                  <c:v>0.80073054155926582</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41428960048070756</c:v>
+                  <c:v>0.76922349474648222</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39106736551275795</c:v>
+                  <c:v>0.75433120443968282</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3678069952859318</c:v>
+                  <c:v>0.57917478638884734</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3604785382135452</c:v>
+                  <c:v>0.63295418825786776</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.40395818119244875</c:v>
+                  <c:v>0.51976088181137914</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3675974090454257</c:v>
+                  <c:v>0.52711155677430799</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30507263143548119</c:v>
+                  <c:v>0.45056974637285041</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2894840210005582</c:v>
+                  <c:v>0.41600807537012113</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.28504232271163876</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2782324271822208</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -2014,7 +2033,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.25270600306556945</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2022,7 +2041,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C23-469D-BED1-1EFA08E7E3D3}"/>
+              <c16:uniqueId val="{00000000-D193-4EC3-8279-581B25A09EA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2268,6 +2287,1578 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'20220920_edax'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPS並列化効率 en(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$H$2:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96369713476684427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73022296752522475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67062323587942341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84187687171045833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82062423567551812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77713722261918661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61029408607533309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65080942340465542</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54248781779989164</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56841722420266816</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48571912532573924</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45255273958713005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04AB-434F-A7C0-19B19BD4BAC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1312555520"/>
+        <c:axId val="1312551776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1312555520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312551776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1312551776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312555520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Edax4.4 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+              <a:t>並列化効率 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>2022/09/20</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20220920_edax'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>時間並列化効率 e(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94277078116373902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71616179871083741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64226257018065158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80073054155926582</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76922349474648222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75433120443968282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57917478638884734</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63295418825786776</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51976088181137914</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52711155677430799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45056974637285041</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41600807537012113</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D90-4605-BB63-578A75AE5B98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20220920_edax'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPS並列化効率 en(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$H$2:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96369713476684427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73022296752522475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67062323587942341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84187687171045833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82062423567551812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77713722261918661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61029408607533309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65080942340465542</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54248781779989164</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56841722420266816</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48571912532573924</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45255273958713005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D90-4605-BB63-578A75AE5B98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="833067248"/>
+        <c:axId val="833064336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="833067248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833064336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="833064336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833067248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20220920'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>時間並列化効率 e(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220920'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220920'!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52886781587721632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43624154990062708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54682990405286869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41180572937056503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41428960048070756</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39106736551275795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3678069952859318</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3604785382135452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40395818119244875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3675974090454257</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30507263143548119</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2894840210005582</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28504232271163876</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2782324271822208</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.25270600306556945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C23-469D-BED1-1EFA08E7E3D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1477077008"/>
+        <c:axId val="1477077840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1477077008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1477077840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1477077840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1477077008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'20220920'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -2649,7 +4240,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3593,6 +5184,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6689,7 +8400,1674 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>560070</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496FD58A-D3FE-4BDA-A056-2E1E508BC825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{191D7ECE-420E-4E47-AFD3-BD739EF7435A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB56E8ED-B029-4F78-9753-64122F33CC95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6808,7 +10186,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7217,10 +10595,724 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76021593-133C-486A-80A9-D15B80E47575}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>33.267000000000003</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C24" si="0">$K$2/B2</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>C2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1009290747</v>
+      </c>
+      <c r="F2">
+        <f>E2/B2</f>
+        <v>30339097.213454772</v>
+      </c>
+      <c r="G2">
+        <f>F2/$K$3</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>G2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>B2</f>
+        <v>33.267000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>28.715</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>1.1585234198154275</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D24" si="1">C3/A3</f>
+        <v>0.57926170990771375</v>
+      </c>
+      <c r="E3">
+        <v>1002560727</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F22" si="2">E3/B3</f>
+        <v>34914181.68204771</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G24" si="3">F3/$K$3</f>
+        <v>1.1507983061066163</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H24" si="4">G3/A3</f>
+        <v>0.57539915305330813</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <f>F2</f>
+        <v>30339097.213454772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>26.663</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.2476840565577767</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.4158946855192589</v>
+      </c>
+      <c r="E4">
+        <v>1039035683</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>38969196.377001837</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>1.2844547121105434</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>0.42815157070351445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>17.891999999999999</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.8593226022803491</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.46483065057008727</v>
+      </c>
+      <c r="E5">
+        <v>1049712044</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>58669351.889112458</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>1.9337870034937557</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>0.48344675087343891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>17.902000000000001</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.8582839906155737</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.37165679812311475</v>
+      </c>
+      <c r="E6">
+        <v>1069712065</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>59753774.159311809</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>1.9695303963366526</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>0.39390607926733051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>14.169</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2.3478721151810293</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.39131201919683822</v>
+      </c>
+      <c r="E7">
+        <v>1103422239</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>77875802.032606393</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>2.5668463858598289</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>0.42780773097663816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>14.944000000000001</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2.2261108137044969</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.31801583052921384</v>
+      </c>
+      <c r="E8">
+        <v>1107745557</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>74126442.518736616</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>2.4432646099259356</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>0.34903780141799079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>12.076000000000001</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.7548029148724744</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.3443503643590593</v>
+      </c>
+      <c r="E9">
+        <v>1139571266</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>94366616.926134482</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>3.1103963398187342</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>0.38879954247734178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>11.95</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2.7838493723849376</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.30931659693165975</v>
+      </c>
+      <c r="E10">
+        <v>1138100073</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>95238499.832635984</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>3.1391342716156911</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>0.34879269684618791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>12.13</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2.7425391591096457</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.2742539159109646</v>
+      </c>
+      <c r="E11">
+        <v>1174818514</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>96852309.480626538</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>3.1923266799670791</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0.31923266799670791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>13.183999999999999</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2.5232858009708741</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.22938961827007945</v>
+      </c>
+      <c r="E12">
+        <v>1227880641</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>93134150.56128642</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>3.0697732996479314</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0.27907029996799376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" t="e">
+        <f>E23/B23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" t="e">
+        <f>E24/B24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1584DABB-DA59-4F6D-AEA3-5CC171009C00}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -7942,12 +12034,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A6F068-9D13-45DA-910B-7CFD747A89D6}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C10" sqref="A1:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/benchmark/parallel_benchmark.xlsx
+++ b/benchmark/parallel_benchmark.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\egaroucid\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464D28B2-0081-433E-8CB1-F5132530DC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C08F9A6-38C7-4F98-B2D4-DA3CC7121A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7788" yWindow="-36" windowWidth="23040" windowHeight="13560" xr2:uid="{75C047C0-BFEA-499F-BA8B-EB1F29873334}"/>
+    <workbookView xWindow="54372" yWindow="2352" windowWidth="34560" windowHeight="18600" xr2:uid="{75C047C0-BFEA-499F-BA8B-EB1F29873334}"/>
   </bookViews>
   <sheets>
-    <sheet name="20221107_laptop" sheetId="4" r:id="rId1"/>
-    <sheet name="20220920_edax" sheetId="2" r:id="rId2"/>
-    <sheet name="20220920" sheetId="1" r:id="rId3"/>
+    <sheet name="20230526" sheetId="6" r:id="rId1"/>
+    <sheet name="20221107_laptop" sheetId="4" r:id="rId2"/>
+    <sheet name="20220920_edax" sheetId="2" r:id="rId3"/>
+    <sheet name="20220920" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>スレッド数 p(個)</t>
     <rPh sb="4" eb="5">
@@ -155,6 +156,105 @@
     <t>core i7-1165G7</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>訪問ノード数</t>
+    <rPh sb="0" eb="2">
+      <t>ホウモン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NPS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Core i9 11900K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実時間T</t>
+    <rPh sb="0" eb="3">
+      <t>ジツジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度向上率st(p)</t>
+    <rPh sb="0" eb="2">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nps向上率sn(p)</t>
+    <rPh sb="3" eb="5">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間並列化効率et(p)</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="2" eb="7">
+      <t>ヘイレツカコウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nps並列化効率en(p)</t>
+    <rPh sb="3" eb="6">
+      <t>ヘイレツカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセッサ数p</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>線形向上率(参考)</t>
+    <rPh sb="0" eb="2">
+      <t>センケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ffo40-49</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -221,6 +321,2723 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>速度</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>/NPS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>向上率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>速度向上率st(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.113042236083996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5991653554080865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1197968622472114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.570093457943925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7757985987412424</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0768724496511779</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3326204733390359</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6128284389489953</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9305532201109803</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1592526690391463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.389671361502347</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4642857142857144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5770511063246522</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6918908069048575</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7743055555555554</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7461928934010151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8819966583124472</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8647242455775235</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.010718113612004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8536129568106317</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.8017666392769103</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7597230706577074</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8067036808554384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75E1-40E3-BD0C-BA7F77C303A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nps向上率sn(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1162082083449918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6613317779316894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2438468498980595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7857582674795132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0609617541932517</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.403457920658544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7569881446554998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1319703098955962</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5184290850253834</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8599496767143577</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1988288287150013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2719421781171212</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4654682693368315</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6355195850516191</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8166107035640842</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0035319320812297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0662577213335718</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2447032044447663</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2141290442530668</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.131415403020041</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.1323287334413266</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.2212522682179108</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.2245083321733539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75E1-40E3-BD0C-BA7F77C303A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>線形向上率(参考)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$G$2:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-75E1-40E3-BD0C-BA7F77C303A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="579350928"/>
+        <c:axId val="579352368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="579350928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579352368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="579352368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579350928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20220920'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPS並列化効率 en(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220920'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220920'!$H$2:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52617380545314585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45465472727615991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60340337235053254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47393246143913326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48397315623192499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47885690313917134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44807402081829095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44359435029027866</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50728614952255868</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45884401304132078</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39712960651264562</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38368687004202451</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.37008515545447263</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36746863445020495</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.34075520358582539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC2E-4BF5-B633-7D8DF7B5F20C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1312555520"/>
+        <c:axId val="1312551776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1312555520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312551776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1312551776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312555520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Egaroucid 6</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+              <a:t>並列化効率 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>2022/09/20</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20220920'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>時間並列化効率 e(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220920'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220920'!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52886781587721632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43624154990062708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54682990405286869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41180572937056503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41428960048070756</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39106736551275795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3678069952859318</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3604785382135452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40395818119244875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3675974090454257</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30507263143548119</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2894840210005582</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28504232271163876</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2782324271822208</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.25270600306556945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCEF-42DF-A425-32E195131223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20220920'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPS並列化効率 en(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220920'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220920'!$H$2:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52617380545314585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45465472727615991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60340337235053254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47393246143913326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48397315623192499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47885690313917134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44807402081829095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44359435029027866</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50728614952255868</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45884401304132078</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39712960651264562</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38368687004202451</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.37008515545447263</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36746863445020495</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.34075520358582539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CCEF-42DF-A425-32E195131223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="833067248"/>
+        <c:axId val="833064336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="833067248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833064336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="833064336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833067248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>/NPS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>並列化効率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>時間並列化効率et(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$H$2:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.556521118041998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53305511846936215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52994921556180286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51401869158878499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46263309979020706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43955320709302542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41657755916737949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40142538210544393</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39305532201109805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37811387900355875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36580594679186224</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34340659340659341</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32693222188033227</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31279272046032386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29839409722222221</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27918781725888325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27122203657291372</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2560381181882907</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25053590568060019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23112442651479198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2182621199671323</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2069444813329438</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20027932003564328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D809-4975-8181-8A5ADF1F31D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nps並列化効率en(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$I$2:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5581041041724959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5537772593105631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56096171247451487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55715165349590268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51016029236554195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48620827437979203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46962351808193747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4591078122106218</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45184290850253833</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44181360697403255</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43323573572625013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40553401370131703</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39039059066691656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.37570130567010795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36353816897275526</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35314893718124879</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.33701431785186509</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32866858970761931</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.31070645221265336</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2919721620485734</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27874221515642394</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27048922905295264</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25935451384055641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D809-4975-8181-8A5ADF1F31D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="579628432"/>
+        <c:axId val="579623632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="579628432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579623632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="579623632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579628432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -656,7 +3473,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1092,7 +3909,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1796,7 +4613,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2232,7 +5049,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2668,7 +5485,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3368,7 +6185,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3804,1147 +6621,87 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'20220920'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NPS並列化効率 en(p)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'20220920'!$A$2:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'20220920'!$H$2:$H$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52617380545314585</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.45465472727615991</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.60340337235053254</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.47393246143913326</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.48397315623192499</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.47885690313917134</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.44807402081829095</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.44359435029027866</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.50728614952255868</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.45884401304132078</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.39712960651264562</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.38368687004202451</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.37008515545447263</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.36746863445020495</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.34075520358582539</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC2E-4BF5-B633-7D8DF7B5F20C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1312555520"/>
-        <c:axId val="1312551776"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1312555520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1312551776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1312551776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1312555520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Egaroucid 6</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
-              <a:t>並列化効率 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>2022/09/20</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'20220920'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>時間並列化効率 e(p)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'20220920'!$A$2:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'20220920'!$D$2:$D$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52886781587721632</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.43624154990062708</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54682990405286869</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.41180572937056503</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.41428960048070756</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.39106736551275795</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.3678069952859318</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.3604785382135452</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.40395818119244875</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3675974090454257</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.30507263143548119</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.2894840210005582</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.28504232271163876</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2782324271822208</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.25270600306556945</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CCEF-42DF-A425-32E195131223}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'20220920'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NPS並列化効率 en(p)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'20220920'!$A$2:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'20220920'!$H$2:$H$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52617380545314585</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.45465472727615991</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.60340337235053254</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.47393246143913326</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.48397315623192499</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.47885690313917134</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.44807402081829095</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.44359435029027866</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.50728614952255868</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.45884401304132078</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.39712960651264562</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.38368687004202451</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.37008515545447263</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.36746863445020495</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.34075520358582539</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CCEF-42DF-A425-32E195131223}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="833067248"/>
-        <c:axId val="833064336"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="833067248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="833064336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="833064336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="833067248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5820,7 +7577,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6336,7 +8093,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6852,7 +8609,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7368,7 +9125,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7884,7 +9641,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8400,7 +10157,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8916,7 +10673,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9432,7 +11189,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9948,7 +11705,1116 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4E3B19-F1B7-E0AE-FA15-4B1059EC289D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C6CA80-09C2-E079-EDAC-9960A2C33558}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10067,7 +12933,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10186,7 +13052,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10595,11 +13461,897 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A698478-68FD-4AB6-BD61-F7BA433B8993}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>980524678</v>
+      </c>
+      <c r="C2">
+        <v>23.375</v>
+      </c>
+      <c r="D2">
+        <v>41947579</v>
+      </c>
+      <c r="E2">
+        <f>C$2/C2</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>D2/D$2</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>E2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>F2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>983313701</v>
+      </c>
+      <c r="C3">
+        <v>21.001000000000001</v>
+      </c>
+      <c r="D3">
+        <v>46822232</v>
+      </c>
+      <c r="E3">
+        <f>C$2/C3</f>
+        <v>1.113042236083996</v>
+      </c>
+      <c r="F3">
+        <f>D3/D$2</f>
+        <v>1.1162082083449918</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G25" si="0">A3</f>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f>E3/A3</f>
+        <v>0.556521118041998</v>
+      </c>
+      <c r="I3">
+        <f>F3/A3</f>
+        <v>0.5581041041724959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1018641874</v>
+      </c>
+      <c r="C4">
+        <v>14.617000000000001</v>
+      </c>
+      <c r="D4">
+        <v>69688846</v>
+      </c>
+      <c r="E4">
+        <f>C$2/C4</f>
+        <v>1.5991653554080865</v>
+      </c>
+      <c r="F4">
+        <f>D4/D$2</f>
+        <v>1.6613317779316894</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f>E4/A4</f>
+        <v>0.53305511846936215</v>
+      </c>
+      <c r="I4">
+        <f>F4/A4</f>
+        <v>0.5537772593105631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1037904724</v>
+      </c>
+      <c r="C5">
+        <v>11.026999999999999</v>
+      </c>
+      <c r="D5">
+        <v>94123943</v>
+      </c>
+      <c r="E5">
+        <f>C$2/C5</f>
+        <v>2.1197968622472114</v>
+      </c>
+      <c r="F5">
+        <f>D5/D$2</f>
+        <v>2.2438468498980595</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f>E5/A5</f>
+        <v>0.52994921556180286</v>
+      </c>
+      <c r="I5">
+        <f>F5/A5</f>
+        <v>0.56096171247451487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1062803638</v>
+      </c>
+      <c r="C6">
+        <v>9.0950000000000006</v>
+      </c>
+      <c r="D6">
+        <v>116855815</v>
+      </c>
+      <c r="E6">
+        <f>C$2/C6</f>
+        <v>2.570093457943925</v>
+      </c>
+      <c r="F6">
+        <f>D6/D$2</f>
+        <v>2.7857582674795132</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f>E6/A6</f>
+        <v>0.51401869158878499</v>
+      </c>
+      <c r="I6">
+        <f>F6/A6</f>
+        <v>0.55715165349590268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1081255854</v>
+      </c>
+      <c r="C7">
+        <v>8.4209999999999994</v>
+      </c>
+      <c r="D7">
+        <v>128399935</v>
+      </c>
+      <c r="E7">
+        <f>C$2/C7</f>
+        <v>2.7757985987412424</v>
+      </c>
+      <c r="F7">
+        <f>D7/D$2</f>
+        <v>3.0609617541932517</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f>E7/A7</f>
+        <v>0.46263309979020706</v>
+      </c>
+      <c r="I7">
+        <f>F7/A7</f>
+        <v>0.51016029236554195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1084599538</v>
+      </c>
+      <c r="C8">
+        <v>7.5970000000000004</v>
+      </c>
+      <c r="D8">
+        <v>142766820</v>
+      </c>
+      <c r="E8">
+        <f>C$2/C8</f>
+        <v>3.0768724496511779</v>
+      </c>
+      <c r="F8">
+        <f>D8/D$2</f>
+        <v>3.403457920658544</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f>E8/A8</f>
+        <v>0.43955320709302542</v>
+      </c>
+      <c r="I8">
+        <f>F8/A8</f>
+        <v>0.48620827437979203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1105382256</v>
+      </c>
+      <c r="C9">
+        <v>7.0140000000000002</v>
+      </c>
+      <c r="D9">
+        <v>157596557</v>
+      </c>
+      <c r="E9">
+        <f>C$2/C9</f>
+        <v>3.3326204733390359</v>
+      </c>
+      <c r="F9">
+        <f>D9/D$2</f>
+        <v>3.7569881446554998</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f>E9/A9</f>
+        <v>0.41657755916737949</v>
+      </c>
+      <c r="I9">
+        <f>F9/A9</f>
+        <v>0.46962351808193747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1121420199</v>
+      </c>
+      <c r="C10">
+        <v>6.47</v>
+      </c>
+      <c r="D10">
+        <v>173326151</v>
+      </c>
+      <c r="E10">
+        <f>C$2/C10</f>
+        <v>3.6128284389489953</v>
+      </c>
+      <c r="F10">
+        <f>D10/D$2</f>
+        <v>4.1319703098955962</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <f>E10/A10</f>
+        <v>0.40142538210544393</v>
+      </c>
+      <c r="I10">
+        <f>F10/A10</f>
+        <v>0.4591078122106218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1127177499</v>
+      </c>
+      <c r="C11">
+        <v>5.9470000000000001</v>
+      </c>
+      <c r="D11">
+        <v>189537161</v>
+      </c>
+      <c r="E11">
+        <f>C$2/C11</f>
+        <v>3.9305532201109803</v>
+      </c>
+      <c r="F11">
+        <f>D11/D$2</f>
+        <v>4.5184290850253834</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <f>E11/A11</f>
+        <v>0.39305532201109805</v>
+      </c>
+      <c r="I11">
+        <f>F11/A11</f>
+        <v>0.45184290850253833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1145710754</v>
+      </c>
+      <c r="C12">
+        <v>5.62</v>
+      </c>
+      <c r="D12">
+        <v>203863123</v>
+      </c>
+      <c r="E12">
+        <f>C$2/C12</f>
+        <v>4.1592526690391463</v>
+      </c>
+      <c r="F12">
+        <f>D12/D$2</f>
+        <v>4.8599496767143577</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <f>E12/A12</f>
+        <v>0.37811387900355875</v>
+      </c>
+      <c r="I12">
+        <f>F12/A12</f>
+        <v>0.44181360697403255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1161266862</v>
+      </c>
+      <c r="C13">
+        <v>5.3250000000000002</v>
+      </c>
+      <c r="D13">
+        <v>218078283</v>
+      </c>
+      <c r="E13">
+        <f>C$2/C13</f>
+        <v>4.389671361502347</v>
+      </c>
+      <c r="F13">
+        <f>D13/D$2</f>
+        <v>5.1988288287150013</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <f>E13/A13</f>
+        <v>0.36580594679186224</v>
+      </c>
+      <c r="I13">
+        <f>F13/A13</f>
+        <v>0.43323573572625013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1157916330</v>
+      </c>
+      <c r="C14">
+        <v>5.2359999999999998</v>
+      </c>
+      <c r="D14">
+        <v>221145211</v>
+      </c>
+      <c r="E14">
+        <f>C$2/C14</f>
+        <v>4.4642857142857144</v>
+      </c>
+      <c r="F14">
+        <f>D14/D$2</f>
+        <v>5.2719421781171212</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <f>E14/A14</f>
+        <v>0.34340659340659341</v>
+      </c>
+      <c r="I14">
+        <f>F14/A14</f>
+        <v>0.40553401370131703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1170846969</v>
+      </c>
+      <c r="C15">
+        <v>5.1070000000000002</v>
+      </c>
+      <c r="D15">
+        <v>229263162</v>
+      </c>
+      <c r="E15">
+        <f>C$2/C15</f>
+        <v>4.5770511063246522</v>
+      </c>
+      <c r="F15">
+        <f>D15/D$2</f>
+        <v>5.4654682693368315</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <f>E15/A15</f>
+        <v>0.32693222188033227</v>
+      </c>
+      <c r="I15">
+        <f>F15/A15</f>
+        <v>0.39039059066691656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1177726883</v>
+      </c>
+      <c r="C16">
+        <v>4.9820000000000002</v>
+      </c>
+      <c r="D16">
+        <v>236396403</v>
+      </c>
+      <c r="E16">
+        <f>C$2/C16</f>
+        <v>4.6918908069048575</v>
+      </c>
+      <c r="F16">
+        <f>D16/D$2</f>
+        <v>5.6355195850516191</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <f>E16/A16</f>
+        <v>0.31279272046032386</v>
+      </c>
+      <c r="I16">
+        <f>F16/A16</f>
+        <v>0.37570130567010795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1194588444</v>
+      </c>
+      <c r="C17">
+        <v>4.8959999999999999</v>
+      </c>
+      <c r="D17">
+        <v>243992737</v>
+      </c>
+      <c r="E17">
+        <f>C$2/C17</f>
+        <v>4.7743055555555554</v>
+      </c>
+      <c r="F17">
+        <f>D17/D$2</f>
+        <v>5.8166107035640842</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <f>E17/A17</f>
+        <v>0.29839409722222221</v>
+      </c>
+      <c r="I17">
+        <f>F17/A17</f>
+        <v>0.36353816897275526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1240280632</v>
+      </c>
+      <c r="C18">
+        <v>4.9249999999999998</v>
+      </c>
+      <c r="D18">
+        <v>251833630</v>
+      </c>
+      <c r="E18">
+        <f>C$2/C18</f>
+        <v>4.7461928934010151</v>
+      </c>
+      <c r="F18">
+        <f>D18/D$2</f>
+        <v>6.0035319320812297</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <f>E18/A18</f>
+        <v>0.27918781725888325</v>
+      </c>
+      <c r="I18">
+        <f>F18/A18</f>
+        <v>0.35314893718124879</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1218377586</v>
+      </c>
+      <c r="C19">
+        <v>4.7880000000000003</v>
+      </c>
+      <c r="D19">
+        <v>254464825</v>
+      </c>
+      <c r="E19">
+        <f>C$2/C19</f>
+        <v>4.8819966583124472</v>
+      </c>
+      <c r="F19">
+        <f>D19/D$2</f>
+        <v>6.0662577213335718</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <f>E19/A19</f>
+        <v>0.27122203657291372</v>
+      </c>
+      <c r="I19">
+        <f>F19/A19</f>
+        <v>0.33701431785186509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1258670624</v>
+      </c>
+      <c r="C20">
+        <v>4.8049999999999997</v>
+      </c>
+      <c r="D20">
+        <v>261950181</v>
+      </c>
+      <c r="E20">
+        <f>C$2/C20</f>
+        <v>4.8647242455775235</v>
+      </c>
+      <c r="F20">
+        <f>D20/D$2</f>
+        <v>6.2447032044447663</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <f>E20/A20</f>
+        <v>0.2560381181882907</v>
+      </c>
+      <c r="I20">
+        <f>F20/A20</f>
+        <v>0.32866858970761931</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1216014678</v>
+      </c>
+      <c r="C21">
+        <v>4.665</v>
+      </c>
+      <c r="D21">
+        <v>260667669</v>
+      </c>
+      <c r="E21">
+        <f>C$2/C21</f>
+        <v>5.010718113612004</v>
+      </c>
+      <c r="F21">
+        <f>D21/D$2</f>
+        <v>6.2141290442530668</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <f>E21/A21</f>
+        <v>0.25053590568060019</v>
+      </c>
+      <c r="I21">
+        <f>F21/A21</f>
+        <v>0.31070645221265336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1238665723</v>
+      </c>
+      <c r="C22">
+        <v>4.8159999999999998</v>
+      </c>
+      <c r="D22">
+        <v>257198032</v>
+      </c>
+      <c r="E22">
+        <f>C$2/C22</f>
+        <v>4.8536129568106317</v>
+      </c>
+      <c r="F22">
+        <f>D22/D$2</f>
+        <v>6.131415403020041</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <f>E22/A22</f>
+        <v>0.23112442651479198</v>
+      </c>
+      <c r="I22">
+        <f>F22/A22</f>
+        <v>0.2919721620485734</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1252226525</v>
+      </c>
+      <c r="C23">
+        <v>4.8680000000000003</v>
+      </c>
+      <c r="D23">
+        <v>257236344</v>
+      </c>
+      <c r="E23">
+        <f>C$2/C23</f>
+        <v>4.8017666392769103</v>
+      </c>
+      <c r="F23">
+        <f>D23/D$2</f>
+        <v>6.1323287334413266</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <f>E23/A23</f>
+        <v>0.2182621199671323</v>
+      </c>
+      <c r="I23">
+        <f>F23/A23</f>
+        <v>0.27874221515642394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1281606343</v>
+      </c>
+      <c r="C24">
+        <v>4.9109999999999996</v>
+      </c>
+      <c r="D24">
+        <v>260966471</v>
+      </c>
+      <c r="E24">
+        <f>C$2/C24</f>
+        <v>4.7597230706577074</v>
+      </c>
+      <c r="F24">
+        <f>D24/D$2</f>
+        <v>6.2212522682179108</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <f>E24/A24</f>
+        <v>0.2069444813329438</v>
+      </c>
+      <c r="I24">
+        <f>F24/A24</f>
+        <v>0.27048922905295264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1269744159</v>
+      </c>
+      <c r="C25">
+        <v>4.8630000000000004</v>
+      </c>
+      <c r="D25">
+        <v>261103055</v>
+      </c>
+      <c r="E25">
+        <f>C$2/C25</f>
+        <v>4.8067036808554384</v>
+      </c>
+      <c r="F25">
+        <f>D25/D$2</f>
+        <v>6.2245083321733539</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <f>E25/A25</f>
+        <v>0.20027932003564328</v>
+      </c>
+      <c r="I25">
+        <f>F25/A25</f>
+        <v>0.25935451384055641</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76021593-133C-486A-80A9-D15B80E47575}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11308,11 +15060,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1584DABB-DA59-4F6D-AEA3-5CC171009C00}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -12034,12 +15786,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A6F068-9D13-45DA-910B-7CFD747A89D6}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:H24"/>
+      <selection activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/benchmark/parallel_benchmark.xlsx
+++ b/benchmark/parallel_benchmark.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\egaroucid\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C08F9A6-38C7-4F98-B2D4-DA3CC7121A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB8E659-2BBD-4F1D-8720-B04A159E297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54372" yWindow="2352" windowWidth="34560" windowHeight="18600" xr2:uid="{75C047C0-BFEA-499F-BA8B-EB1F29873334}"/>
+    <workbookView xWindow="45984" yWindow="-216" windowWidth="23232" windowHeight="25296" xr2:uid="{75C047C0-BFEA-499F-BA8B-EB1F29873334}"/>
   </bookViews>
   <sheets>
-    <sheet name="20230526" sheetId="6" r:id="rId1"/>
-    <sheet name="20221107_laptop" sheetId="4" r:id="rId2"/>
-    <sheet name="20220920_edax" sheetId="2" r:id="rId3"/>
-    <sheet name="20220920" sheetId="1" r:id="rId4"/>
+    <sheet name="20230601" sheetId="7" r:id="rId1"/>
+    <sheet name="20230526" sheetId="6" r:id="rId2"/>
+    <sheet name="20221107_laptop" sheetId="4" r:id="rId3"/>
+    <sheet name="20220920_edax" sheetId="2" r:id="rId4"/>
+    <sheet name="20220920" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>スレッド数 p(個)</t>
     <rPh sb="4" eb="5">
@@ -255,6 +256,16 @@
     <t>ffo40-49</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>新スレッドプールでとりあえず実験</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -408,7 +419,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$E$1</c:f>
+              <c:f>'20230601'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -431,7 +442,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -512,7 +523,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$E$2:$E$25</c:f>
+              <c:f>'20230601'!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -520,73 +531,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.113042236083996</c:v>
+                  <c:v>1.6338953212810616</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5991653554080865</c:v>
+                  <c:v>2.1853830827748597</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1197968622472114</c:v>
+                  <c:v>2.6132770197097681</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.570093457943925</c:v>
+                  <c:v>2.9950353729676058</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7757985987412424</c:v>
+                  <c:v>3.3464151990015254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0768724496511779</c:v>
+                  <c:v>3.7033456108041745</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3326204733390359</c:v>
+                  <c:v>4.0325868983957216</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6128284389489953</c:v>
+                  <c:v>4.1526415419032867</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9305532201109803</c:v>
+                  <c:v>4.2785460992907804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1592526690391463</c:v>
+                  <c:v>4.4082937522835222</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.389671361502347</c:v>
+                  <c:v>4.4042708523453182</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4642857142857144</c:v>
+                  <c:v>4.4687037037037038</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5770511063246522</c:v>
+                  <c:v>4.4530356154272006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6918908069048575</c:v>
+                  <c:v>4.4662224689987049</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7743055555555554</c:v>
+                  <c:v>4.5206069689022108</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7461928934010151</c:v>
+                  <c:v>4.4794876554668654</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.8819966583124472</c:v>
+                  <c:v>4.3723500634172856</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8647242455775235</c:v>
+                  <c:v>4.3573492235464064</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.010718113612004</c:v>
+                  <c:v>4.3858596873864055</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8536129568106317</c:v>
+                  <c:v>4.5045734552921406</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.8017666392769103</c:v>
+                  <c:v>4.4803193464537694</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.7597230706577074</c:v>
+                  <c:v>4.4382931763840352</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.8067036808554384</c:v>
+                  <c:v>4.4695313947027229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,7 +605,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-75E1-40E3-BD0C-BA7F77C303A8}"/>
+              <c16:uniqueId val="{00000000-F8C8-4FE5-A128-296D20C91D65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -603,7 +614,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$F$1</c:f>
+              <c:f>'20230601'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -626,7 +637,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -707,7 +718,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$F$2:$F$25</c:f>
+              <c:f>'20230601'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -715,73 +726,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1162082083449918</c:v>
+                  <c:v>1.6849697603479148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6613317779316894</c:v>
+                  <c:v>2.291157713491097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2438468498980595</c:v>
+                  <c:v>2.8532476383224008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7857582674795132</c:v>
+                  <c:v>3.2850813089644175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0609617541932517</c:v>
+                  <c:v>3.7887617537531435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.403457920658544</c:v>
+                  <c:v>4.1859855009932225</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7569881446554998</c:v>
+                  <c:v>4.5685306601435611</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1319703098955962</c:v>
+                  <c:v>4.8062917642833964</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5184290850253834</c:v>
+                  <c:v>5.0634161489399219</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8599496767143577</c:v>
+                  <c:v>5.1843061683928822</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1988288287150013</c:v>
+                  <c:v>5.2883181532120718</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2719421781171212</c:v>
+                  <c:v>5.3238114631006548</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4654682693368315</c:v>
+                  <c:v>5.4607191905457881</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6355195850516191</c:v>
+                  <c:v>5.5587366246746148</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.8166107035640842</c:v>
+                  <c:v>5.6256372712460907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0035319320812297</c:v>
+                  <c:v>5.5466596645459481</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.0662577213335718</c:v>
+                  <c:v>5.4138122663806358</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.2447032044447663</c:v>
+                  <c:v>5.3348567597240928</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.2141290442530668</c:v>
+                  <c:v>5.6096367904593967</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.131415403020041</c:v>
+                  <c:v>5.6094191616336158</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.1323287334413266</c:v>
+                  <c:v>5.7194479694588223</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.2212522682179108</c:v>
+                  <c:v>5.6927278600631146</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.2245083321733539</c:v>
+                  <c:v>5.7234046894028374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,7 +800,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-75E1-40E3-BD0C-BA7F77C303A8}"/>
+              <c16:uniqueId val="{00000001-F8C8-4FE5-A128-296D20C91D65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -798,7 +809,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$G$1</c:f>
+              <c:f>'20230601'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -821,7 +832,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -902,7 +913,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$G$2:$G$25</c:f>
+              <c:f>'20230601'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -984,7 +995,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-75E1-40E3-BD0C-BA7F77C303A8}"/>
+              <c16:uniqueId val="{00000002-F8C8-4FE5-A128-296D20C91D65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1221,6 +1232,1142 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Edax4.4 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+              <a:t>並列化効率 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>2022/09/20</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20220920_edax'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>時間並列化効率 e(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94277078116373902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71616179871083741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64226257018065158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80073054155926582</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76922349474648222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75433120443968282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57917478638884734</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63295418825786776</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51976088181137914</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52711155677430799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45056974637285041</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41600807537012113</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D90-4605-BB63-578A75AE5B98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20220920_edax'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPS並列化効率 en(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$H$2:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96369713476684427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73022296752522475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67062323587942341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84187687171045833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82062423567551812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77713722261918661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61029408607533309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65080942340465542</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54248781779989164</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56841722420266816</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48571912532573924</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45255273958713005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D90-4605-BB63-578A75AE5B98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="833067248"/>
+        <c:axId val="833064336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="833067248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833064336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="833064336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833067248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20220920'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>時間並列化効率 e(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220920'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220920'!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52886781587721632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43624154990062708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54682990405286869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41180572937056503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41428960048070756</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39106736551275795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3678069952859318</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3604785382135452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40395818119244875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3675974090454257</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30507263143548119</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2894840210005582</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28504232271163876</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2782324271822208</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.25270600306556945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C23-469D-BED1-1EFA08E7E3D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1477077008"/>
+        <c:axId val="1477077840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1477077008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1477077840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1477077840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1477077008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1642,7 +2789,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2434,7 +3581,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$H$1</c:f>
+              <c:f>'20230601'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2457,7 +3604,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2538,7 +3685,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$H$2:$H$25</c:f>
+              <c:f>'20230601'!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2546,73 +3693,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.556521118041998</c:v>
+                  <c:v>0.81694766064053082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53305511846936215</c:v>
+                  <c:v>0.7284610275916199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52994921556180286</c:v>
+                  <c:v>0.65331925492744203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51401869158878499</c:v>
+                  <c:v>0.5990070745935212</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46263309979020706</c:v>
+                  <c:v>0.5577358665002542</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43955320709302542</c:v>
+                  <c:v>0.52904937297202492</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41657755916737949</c:v>
+                  <c:v>0.5040733622994652</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.40142538210544393</c:v>
+                  <c:v>0.46140461576703184</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39305532201109805</c:v>
+                  <c:v>0.42785460992907803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37811387900355875</c:v>
+                  <c:v>0.40075397748032021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36580594679186224</c:v>
+                  <c:v>0.3670225710287765</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34340659340659341</c:v>
+                  <c:v>0.34374643874643873</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.32693222188033227</c:v>
+                  <c:v>0.31807397253051434</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.31279272046032386</c:v>
+                  <c:v>0.29774816459991366</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.29839409722222221</c:v>
+                  <c:v>0.28253793555638818</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27918781725888325</c:v>
+                  <c:v>0.26349927385099209</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.27122203657291372</c:v>
+                  <c:v>0.24290833685651586</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2560381181882907</c:v>
+                  <c:v>0.22933416966033718</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.25053590568060019</c:v>
+                  <c:v>0.21929298436932027</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.23112442651479198</c:v>
+                  <c:v>0.21450349787105433</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2182621199671323</c:v>
+                  <c:v>0.20365087938426224</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2069444813329438</c:v>
+                  <c:v>0.19296926853843632</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.20027932003564328</c:v>
+                  <c:v>0.18623047477928012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2620,7 +3767,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D809-4975-8181-8A5ADF1F31D5}"/>
+              <c16:uniqueId val="{00000000-A041-4DA6-B6C6-E6F68ABF0162}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2629,7 +3776,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$I$1</c:f>
+              <c:f>'20230601'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2652,7 +3799,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2733,7 +3880,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$I$2:$I$25</c:f>
+              <c:f>'20230601'!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2741,73 +3888,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5581041041724959</c:v>
+                  <c:v>0.8424848801739574</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5537772593105631</c:v>
+                  <c:v>0.76371923783036566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56096171247451487</c:v>
+                  <c:v>0.7133119095806002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55715165349590268</c:v>
+                  <c:v>0.65701626179288353</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51016029236554195</c:v>
+                  <c:v>0.63146029229219058</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48620827437979203</c:v>
+                  <c:v>0.59799792871331747</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46962351808193747</c:v>
+                  <c:v>0.57106633251794514</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4591078122106218</c:v>
+                  <c:v>0.53403241825371073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45184290850253833</c:v>
+                  <c:v>0.50634161489399221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44181360697403255</c:v>
+                  <c:v>0.47130056076298926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.43323573572625013</c:v>
+                  <c:v>0.44069317943433933</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40553401370131703</c:v>
+                  <c:v>0.40952395870005037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39039059066691656</c:v>
+                  <c:v>0.39005137075327057</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37570130567010795</c:v>
+                  <c:v>0.37058244164497434</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36353816897275526</c:v>
+                  <c:v>0.35160232945288067</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.35314893718124879</c:v>
+                  <c:v>0.32627409791446754</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33701431785186509</c:v>
+                  <c:v>0.30076734813225753</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.32866858970761931</c:v>
+                  <c:v>0.28078193472232066</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.31070645221265336</c:v>
+                  <c:v>0.28048183952296984</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2919721620485734</c:v>
+                  <c:v>0.26711519817302931</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.27874221515642394</c:v>
+                  <c:v>0.25997490770267373</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.27048922905295264</c:v>
+                  <c:v>0.24750990695926586</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.25935451384055641</c:v>
+                  <c:v>0.23847519539178488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2815,7 +3962,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D809-4975-8181-8A5ADF1F31D5}"/>
+              <c16:uniqueId val="{00000001-A041-4DA6-B6C6-E6F68ABF0162}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3052,6 +4199,1583 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>速度</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>/NPS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>向上率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>速度向上率st(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.113042236083996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5991653554080865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1197968622472114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.570093457943925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7757985987412424</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0768724496511779</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3326204733390359</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6128284389489953</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9305532201109803</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1592526690391463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.389671361502347</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4642857142857144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5770511063246522</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6918908069048575</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7743055555555554</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7461928934010151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8819966583124472</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8647242455775235</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.010718113612004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8536129568106317</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.8017666392769103</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7597230706577074</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8067036808554384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75E1-40E3-BD0C-BA7F77C303A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nps向上率sn(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1162082083449918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6613317779316894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2438468498980595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7857582674795132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0609617541932517</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.403457920658544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7569881446554998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1319703098955962</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5184290850253834</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8599496767143577</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1988288287150013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2719421781171212</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4654682693368315</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6355195850516191</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8166107035640842</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0035319320812297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0662577213335718</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2447032044447663</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2141290442530668</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.131415403020041</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.1323287334413266</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.2212522682179108</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.2245083321733539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75E1-40E3-BD0C-BA7F77C303A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>線形向上率(参考)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$G$2:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-75E1-40E3-BD0C-BA7F77C303A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="579350928"/>
+        <c:axId val="579352368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="579350928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579352368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="579352368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579350928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>/NPS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>並列化効率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>時間並列化効率et(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$H$2:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.556521118041998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53305511846936215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52994921556180286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51401869158878499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46263309979020706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43955320709302542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41657755916737949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40142538210544393</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39305532201109805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37811387900355875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36580594679186224</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34340659340659341</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32693222188033227</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31279272046032386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29839409722222221</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27918781725888325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27122203657291372</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2560381181882907</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25053590568060019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23112442651479198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2182621199671323</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2069444813329438</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20027932003564328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D809-4975-8181-8A5ADF1F31D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nps並列化効率en(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$I$2:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5581041041724959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5537772593105631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56096171247451487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55715165349590268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51016029236554195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48620827437979203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46962351808193747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4591078122106218</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45184290850253833</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44181360697403255</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43323573572625013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40553401370131703</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39039059066691656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.37570130567010795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36353816897275526</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35314893718124879</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.33701431785186509</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32866858970761931</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.31070645221265336</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2919721620485734</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27874221515642394</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27048922905295264</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25935451384055641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D809-4975-8181-8A5ADF1F31D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="579628432"/>
+        <c:axId val="579623632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="579628432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579623632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="579623632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579628432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3473,7 +6197,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3909,7 +6633,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4613,7 +7337,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5049,7 +7773,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5485,1142 +8209,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Edax4.4 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
-              <a:t>並列化効率 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>2022/09/20</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'20220920_edax'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>時間並列化効率 e(p)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'20220920_edax'!$D$2:$D$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.94277078116373902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.71616179871083741</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.64226257018065158</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.80073054155926582</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.76922349474648222</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.75433120443968282</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.57917478638884734</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.63295418825786776</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.51976088181137914</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.52711155677430799</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.45056974637285041</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.41600807537012113</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D90-4605-BB63-578A75AE5B98}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'20220920_edax'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NPS並列化効率 en(p)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'20220920_edax'!$H$2:$H$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96369713476684427</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.73022296752522475</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.67062323587942341</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84187687171045833</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.82062423567551812</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.77713722261918661</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.61029408607533309</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.65080942340465542</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.54248781779989164</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.56841722420266816</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.48571912532573924</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.45255273958713005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4D90-4605-BB63-578A75AE5B98}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="833067248"/>
-        <c:axId val="833064336"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="833067248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="833064336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="833064336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="833067248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'20220920'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>時間並列化効率 e(p)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'20220920'!$A$2:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'20220920'!$D$2:$D$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52886781587721632</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.43624154990062708</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54682990405286869</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.41180572937056503</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.41428960048070756</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.39106736551275795</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.3678069952859318</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.3604785382135452</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.40395818119244875</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3675974090454257</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.30507263143548119</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.2894840210005582</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.28504232271163876</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2782324271822208</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.25270600306556945</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C23-469D-BED1-1EFA08E7E3D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1477077008"/>
-        <c:axId val="1477077840"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1477077008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1477077840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1477077840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1477077008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6702,6 +8290,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8609,7 +10277,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9125,7 +10793,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9641,7 +11309,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10157,7 +11825,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10673,7 +12341,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11189,7 +12857,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11705,7 +13373,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12221,7 +13889,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12737,7 +14405,1120 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F988AB1-DA1D-4CED-B69A-AF439C7D79D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{392ABC28-B4AB-486F-914B-1E2D491D64B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12814,7 +15595,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12933,7 +15714,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13052,7 +15833,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13461,10 +16242,899 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40D577C-1FC9-441B-9BD6-25BD6679A0C9}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>980524678</v>
+      </c>
+      <c r="C2">
+        <v>24.131</v>
+      </c>
+      <c r="D2">
+        <v>40633404</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E25" si="0">C$2/C2</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F25" si="1">D2/D$2</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H25" si="2">E2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I25" si="3">F2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1011175196</v>
+      </c>
+      <c r="C3">
+        <v>14.769</v>
+      </c>
+      <c r="D3">
+        <v>68466057</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>1.6338953212810616</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>1.6849697603479148</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G25" si="4">A3</f>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="2"/>
+        <v>0.81694766064053082</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="3"/>
+        <v>0.8424848801739574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1027983011</v>
+      </c>
+      <c r="C4">
+        <v>11.042</v>
+      </c>
+      <c r="D4">
+        <v>93097537</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.1853830827748597</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>2.291157713491097</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.7284610275916199</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0.76371923783036566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1070563776</v>
+      </c>
+      <c r="C5">
+        <v>9.234</v>
+      </c>
+      <c r="D5">
+        <v>115937164</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2.6132770197097681</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2.8532476383224008</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.65331925492744203</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.7133119095806002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1075480882</v>
+      </c>
+      <c r="C6">
+        <v>8.0570000000000004</v>
+      </c>
+      <c r="D6">
+        <v>133484036</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2.9950353729676058</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3.2850813089644175</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.5990070745935212</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.65701626179288353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1110135523</v>
+      </c>
+      <c r="C7">
+        <v>7.2110000000000003</v>
+      </c>
+      <c r="D7">
+        <v>153950287</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>3.3464151990015254</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3.7887617537531435</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.5577358665002542</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.63146029229219058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1108311919</v>
+      </c>
+      <c r="C8">
+        <v>6.516</v>
+      </c>
+      <c r="D8">
+        <v>170090840</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3.7033456108041745</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4.1859855009932225</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.52904937297202492</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.59799792871331747</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1110839555</v>
+      </c>
+      <c r="C9">
+        <v>5.984</v>
+      </c>
+      <c r="D9">
+        <v>185634952</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4.0325868983957216</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>4.5685306601435611</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.5040733622994652</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.57106633251794514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1134865032</v>
+      </c>
+      <c r="C10">
+        <v>5.8109999999999999</v>
+      </c>
+      <c r="D10">
+        <v>195295995</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4.1526415419032867</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>4.8062917642833964</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.46140461576703184</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0.53403241825371073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1160395225</v>
+      </c>
+      <c r="C11">
+        <v>5.64</v>
+      </c>
+      <c r="D11">
+        <v>205743834</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4.2785460992907804</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>5.0634161489399219</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.42785460992907803</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0.50634161489399221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1153130984</v>
+      </c>
+      <c r="C12">
+        <v>5.4740000000000002</v>
+      </c>
+      <c r="D12">
+        <v>210656007</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4.4082937522835222</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>5.1843061683928822</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.40075397748032021</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0.47130056076298926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1177340495</v>
+      </c>
+      <c r="C13">
+        <v>5.4790000000000001</v>
+      </c>
+      <c r="D13">
+        <v>214882368</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>4.4042708523453182</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>5.2883181532120718</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.3670225710287765</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0.44069317943433933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1168152743</v>
+      </c>
+      <c r="C14">
+        <v>5.4</v>
+      </c>
+      <c r="D14">
+        <v>216324582</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4.4687037037037038</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>5.3238114631006548</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.34374643874643873</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0.40952395870005037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1202408956</v>
+      </c>
+      <c r="C15">
+        <v>5.4189999999999996</v>
+      </c>
+      <c r="D15">
+        <v>221887609</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4.4530356154272006</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>5.4607191905457881</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.31807397253051434</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0.39005137075327057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1220377725</v>
+      </c>
+      <c r="C16">
+        <v>5.4029999999999996</v>
+      </c>
+      <c r="D16">
+        <v>225870391</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>4.4662224689987049</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>5.5587366246746148</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.29774816459991366</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.37058244164497434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1220206976</v>
+      </c>
+      <c r="C17">
+        <v>5.3380000000000001</v>
+      </c>
+      <c r="D17">
+        <v>228588792</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>4.5206069689022108</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>5.6256372712460907</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.28253793555638818</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0.35160232945288067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1214120248</v>
+      </c>
+      <c r="C18">
+        <v>5.3869999999999996</v>
+      </c>
+      <c r="D18">
+        <v>225379663</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>4.4794876554668654</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>5.5466596645459481</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.26349927385099209</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.32627409791446754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1214078569</v>
+      </c>
+      <c r="C19">
+        <v>5.5190000000000001</v>
+      </c>
+      <c r="D19">
+        <v>219981621</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>4.3723500634172856</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>5.4138122663806358</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.24290833685651586</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.30076734813225753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1200491038</v>
+      </c>
+      <c r="C20">
+        <v>5.5380000000000003</v>
+      </c>
+      <c r="D20">
+        <v>216773390</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4.3573492235464064</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>5.3348567597240928</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.22933416966033718</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0.28078193472232066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1254118391</v>
+      </c>
+      <c r="C21">
+        <v>5.5019999999999998</v>
+      </c>
+      <c r="D21">
+        <v>227938638</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>4.3858596873864055</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>5.6096367904593967</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0.21929298436932027</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0.28048183952296984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1221019914</v>
+      </c>
+      <c r="C22">
+        <v>5.3570000000000002</v>
+      </c>
+      <c r="D22">
+        <v>227929795</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>4.5045734552921406</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>5.6094191616336158</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0.21450349787105433</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0.26711519817302931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1251709851</v>
+      </c>
+      <c r="C23">
+        <v>5.3860000000000001</v>
+      </c>
+      <c r="D23">
+        <v>232400640</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>4.4803193464537694</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>5.7194479694588223</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0.20365087938426224</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0.25997490770267373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1257659174</v>
+      </c>
+      <c r="C24">
+        <v>5.4370000000000003</v>
+      </c>
+      <c r="D24">
+        <v>231314911</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>4.4382931763840352</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>5.6927278600631146</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0.19296926853843632</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>0.24750990695926586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1255599080</v>
+      </c>
+      <c r="C25">
+        <v>5.399</v>
+      </c>
+      <c r="D25">
+        <v>232561415</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>4.4695313947027229</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>5.7234046894028374</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.18623047477928012</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0.23847519539178488</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A698478-68FD-4AB6-BD61-F7BA433B8993}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -13531,11 +17201,11 @@
         <v>41947579</v>
       </c>
       <c r="E2">
-        <f>C$2/C2</f>
+        <f t="shared" ref="E2:E25" si="0">C$2/C2</f>
         <v>1</v>
       </c>
       <c r="F2">
-        <f>D2/D$2</f>
+        <f t="shared" ref="F2:F25" si="1">D2/D$2</f>
         <v>1</v>
       </c>
       <c r="G2">
@@ -13543,11 +17213,11 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <f>E2/A2</f>
+        <f t="shared" ref="H2:H25" si="2">E2/A2</f>
         <v>1</v>
       </c>
       <c r="I2">
-        <f>F2/A2</f>
+        <f t="shared" ref="I2:I25" si="3">F2/A2</f>
         <v>1</v>
       </c>
       <c r="P2" t="s">
@@ -13571,23 +17241,23 @@
         <v>46822232</v>
       </c>
       <c r="E3">
-        <f>C$2/C3</f>
+        <f t="shared" si="0"/>
         <v>1.113042236083996</v>
       </c>
       <c r="F3">
-        <f>D3/D$2</f>
+        <f t="shared" si="1"/>
         <v>1.1162082083449918</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G25" si="0">A3</f>
+        <f t="shared" ref="G3:G25" si="4">A3</f>
         <v>2</v>
       </c>
       <c r="H3">
-        <f>E3/A3</f>
+        <f t="shared" si="2"/>
         <v>0.556521118041998</v>
       </c>
       <c r="I3">
-        <f>F3/A3</f>
+        <f t="shared" si="3"/>
         <v>0.5581041041724959</v>
       </c>
     </row>
@@ -13605,23 +17275,23 @@
         <v>69688846</v>
       </c>
       <c r="E4">
-        <f>C$2/C4</f>
+        <f t="shared" si="0"/>
         <v>1.5991653554080865</v>
       </c>
       <c r="F4">
-        <f>D4/D$2</f>
+        <f t="shared" si="1"/>
         <v>1.6613317779316894</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H4">
-        <f>E4/A4</f>
+        <f t="shared" si="2"/>
         <v>0.53305511846936215</v>
       </c>
       <c r="I4">
-        <f>F4/A4</f>
+        <f t="shared" si="3"/>
         <v>0.5537772593105631</v>
       </c>
     </row>
@@ -13639,23 +17309,23 @@
         <v>94123943</v>
       </c>
       <c r="E5">
-        <f>C$2/C5</f>
+        <f t="shared" si="0"/>
         <v>2.1197968622472114</v>
       </c>
       <c r="F5">
-        <f>D5/D$2</f>
+        <f t="shared" si="1"/>
         <v>2.2438468498980595</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H5">
-        <f>E5/A5</f>
+        <f t="shared" si="2"/>
         <v>0.52994921556180286</v>
       </c>
       <c r="I5">
-        <f>F5/A5</f>
+        <f t="shared" si="3"/>
         <v>0.56096171247451487</v>
       </c>
     </row>
@@ -13673,23 +17343,23 @@
         <v>116855815</v>
       </c>
       <c r="E6">
-        <f>C$2/C6</f>
+        <f t="shared" si="0"/>
         <v>2.570093457943925</v>
       </c>
       <c r="F6">
-        <f>D6/D$2</f>
+        <f t="shared" si="1"/>
         <v>2.7857582674795132</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H6">
-        <f>E6/A6</f>
+        <f t="shared" si="2"/>
         <v>0.51401869158878499</v>
       </c>
       <c r="I6">
-        <f>F6/A6</f>
+        <f t="shared" si="3"/>
         <v>0.55715165349590268</v>
       </c>
     </row>
@@ -13707,23 +17377,23 @@
         <v>128399935</v>
       </c>
       <c r="E7">
-        <f>C$2/C7</f>
+        <f t="shared" si="0"/>
         <v>2.7757985987412424</v>
       </c>
       <c r="F7">
-        <f>D7/D$2</f>
+        <f t="shared" si="1"/>
         <v>3.0609617541932517</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H7">
-        <f>E7/A7</f>
+        <f t="shared" si="2"/>
         <v>0.46263309979020706</v>
       </c>
       <c r="I7">
-        <f>F7/A7</f>
+        <f t="shared" si="3"/>
         <v>0.51016029236554195</v>
       </c>
     </row>
@@ -13741,23 +17411,23 @@
         <v>142766820</v>
       </c>
       <c r="E8">
-        <f>C$2/C8</f>
+        <f t="shared" si="0"/>
         <v>3.0768724496511779</v>
       </c>
       <c r="F8">
-        <f>D8/D$2</f>
+        <f t="shared" si="1"/>
         <v>3.403457920658544</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="H8">
-        <f>E8/A8</f>
+        <f t="shared" si="2"/>
         <v>0.43955320709302542</v>
       </c>
       <c r="I8">
-        <f>F8/A8</f>
+        <f t="shared" si="3"/>
         <v>0.48620827437979203</v>
       </c>
     </row>
@@ -13775,23 +17445,23 @@
         <v>157596557</v>
       </c>
       <c r="E9">
-        <f>C$2/C9</f>
+        <f t="shared" si="0"/>
         <v>3.3326204733390359</v>
       </c>
       <c r="F9">
-        <f>D9/D$2</f>
+        <f t="shared" si="1"/>
         <v>3.7569881446554998</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H9">
-        <f>E9/A9</f>
+        <f t="shared" si="2"/>
         <v>0.41657755916737949</v>
       </c>
       <c r="I9">
-        <f>F9/A9</f>
+        <f t="shared" si="3"/>
         <v>0.46962351808193747</v>
       </c>
     </row>
@@ -13809,23 +17479,23 @@
         <v>173326151</v>
       </c>
       <c r="E10">
-        <f>C$2/C10</f>
+        <f t="shared" si="0"/>
         <v>3.6128284389489953</v>
       </c>
       <c r="F10">
-        <f>D10/D$2</f>
+        <f t="shared" si="1"/>
         <v>4.1319703098955962</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H10">
-        <f>E10/A10</f>
+        <f t="shared" si="2"/>
         <v>0.40142538210544393</v>
       </c>
       <c r="I10">
-        <f>F10/A10</f>
+        <f t="shared" si="3"/>
         <v>0.4591078122106218</v>
       </c>
     </row>
@@ -13843,23 +17513,23 @@
         <v>189537161</v>
       </c>
       <c r="E11">
-        <f>C$2/C11</f>
+        <f t="shared" si="0"/>
         <v>3.9305532201109803</v>
       </c>
       <c r="F11">
-        <f>D11/D$2</f>
+        <f t="shared" si="1"/>
         <v>4.5184290850253834</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H11">
-        <f>E11/A11</f>
+        <f t="shared" si="2"/>
         <v>0.39305532201109805</v>
       </c>
       <c r="I11">
-        <f>F11/A11</f>
+        <f t="shared" si="3"/>
         <v>0.45184290850253833</v>
       </c>
     </row>
@@ -13877,23 +17547,23 @@
         <v>203863123</v>
       </c>
       <c r="E12">
-        <f>C$2/C12</f>
+        <f t="shared" si="0"/>
         <v>4.1592526690391463</v>
       </c>
       <c r="F12">
-        <f>D12/D$2</f>
+        <f t="shared" si="1"/>
         <v>4.8599496767143577</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="H12">
-        <f>E12/A12</f>
+        <f t="shared" si="2"/>
         <v>0.37811387900355875</v>
       </c>
       <c r="I12">
-        <f>F12/A12</f>
+        <f t="shared" si="3"/>
         <v>0.44181360697403255</v>
       </c>
     </row>
@@ -13911,23 +17581,23 @@
         <v>218078283</v>
       </c>
       <c r="E13">
-        <f>C$2/C13</f>
+        <f t="shared" si="0"/>
         <v>4.389671361502347</v>
       </c>
       <c r="F13">
-        <f>D13/D$2</f>
+        <f t="shared" si="1"/>
         <v>5.1988288287150013</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="H13">
-        <f>E13/A13</f>
+        <f t="shared" si="2"/>
         <v>0.36580594679186224</v>
       </c>
       <c r="I13">
-        <f>F13/A13</f>
+        <f t="shared" si="3"/>
         <v>0.43323573572625013</v>
       </c>
     </row>
@@ -13945,23 +17615,23 @@
         <v>221145211</v>
       </c>
       <c r="E14">
-        <f>C$2/C14</f>
+        <f t="shared" si="0"/>
         <v>4.4642857142857144</v>
       </c>
       <c r="F14">
-        <f>D14/D$2</f>
+        <f t="shared" si="1"/>
         <v>5.2719421781171212</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="H14">
-        <f>E14/A14</f>
+        <f t="shared" si="2"/>
         <v>0.34340659340659341</v>
       </c>
       <c r="I14">
-        <f>F14/A14</f>
+        <f t="shared" si="3"/>
         <v>0.40553401370131703</v>
       </c>
     </row>
@@ -13979,23 +17649,23 @@
         <v>229263162</v>
       </c>
       <c r="E15">
-        <f>C$2/C15</f>
+        <f t="shared" si="0"/>
         <v>4.5770511063246522</v>
       </c>
       <c r="F15">
-        <f>D15/D$2</f>
+        <f t="shared" si="1"/>
         <v>5.4654682693368315</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H15">
-        <f>E15/A15</f>
+        <f t="shared" si="2"/>
         <v>0.32693222188033227</v>
       </c>
       <c r="I15">
-        <f>F15/A15</f>
+        <f t="shared" si="3"/>
         <v>0.39039059066691656</v>
       </c>
     </row>
@@ -14013,23 +17683,23 @@
         <v>236396403</v>
       </c>
       <c r="E16">
-        <f>C$2/C16</f>
+        <f t="shared" si="0"/>
         <v>4.6918908069048575</v>
       </c>
       <c r="F16">
-        <f>D16/D$2</f>
+        <f t="shared" si="1"/>
         <v>5.6355195850516191</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="H16">
-        <f>E16/A16</f>
+        <f t="shared" si="2"/>
         <v>0.31279272046032386</v>
       </c>
       <c r="I16">
-        <f>F16/A16</f>
+        <f t="shared" si="3"/>
         <v>0.37570130567010795</v>
       </c>
     </row>
@@ -14047,23 +17717,23 @@
         <v>243992737</v>
       </c>
       <c r="E17">
-        <f>C$2/C17</f>
+        <f t="shared" si="0"/>
         <v>4.7743055555555554</v>
       </c>
       <c r="F17">
-        <f>D17/D$2</f>
+        <f t="shared" si="1"/>
         <v>5.8166107035640842</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="H17">
-        <f>E17/A17</f>
+        <f t="shared" si="2"/>
         <v>0.29839409722222221</v>
       </c>
       <c r="I17">
-        <f>F17/A17</f>
+        <f t="shared" si="3"/>
         <v>0.36353816897275526</v>
       </c>
     </row>
@@ -14081,23 +17751,23 @@
         <v>251833630</v>
       </c>
       <c r="E18">
-        <f>C$2/C18</f>
+        <f t="shared" si="0"/>
         <v>4.7461928934010151</v>
       </c>
       <c r="F18">
-        <f>D18/D$2</f>
+        <f t="shared" si="1"/>
         <v>6.0035319320812297</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="H18">
-        <f>E18/A18</f>
+        <f t="shared" si="2"/>
         <v>0.27918781725888325</v>
       </c>
       <c r="I18">
-        <f>F18/A18</f>
+        <f t="shared" si="3"/>
         <v>0.35314893718124879</v>
       </c>
     </row>
@@ -14115,23 +17785,23 @@
         <v>254464825</v>
       </c>
       <c r="E19">
-        <f>C$2/C19</f>
+        <f t="shared" si="0"/>
         <v>4.8819966583124472</v>
       </c>
       <c r="F19">
-        <f>D19/D$2</f>
+        <f t="shared" si="1"/>
         <v>6.0662577213335718</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="H19">
-        <f>E19/A19</f>
+        <f t="shared" si="2"/>
         <v>0.27122203657291372</v>
       </c>
       <c r="I19">
-        <f>F19/A19</f>
+        <f t="shared" si="3"/>
         <v>0.33701431785186509</v>
       </c>
     </row>
@@ -14149,23 +17819,23 @@
         <v>261950181</v>
       </c>
       <c r="E20">
-        <f>C$2/C20</f>
+        <f t="shared" si="0"/>
         <v>4.8647242455775235</v>
       </c>
       <c r="F20">
-        <f>D20/D$2</f>
+        <f t="shared" si="1"/>
         <v>6.2447032044447663</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="H20">
-        <f>E20/A20</f>
+        <f t="shared" si="2"/>
         <v>0.2560381181882907</v>
       </c>
       <c r="I20">
-        <f>F20/A20</f>
+        <f t="shared" si="3"/>
         <v>0.32866858970761931</v>
       </c>
     </row>
@@ -14183,23 +17853,23 @@
         <v>260667669</v>
       </c>
       <c r="E21">
-        <f>C$2/C21</f>
+        <f t="shared" si="0"/>
         <v>5.010718113612004</v>
       </c>
       <c r="F21">
-        <f>D21/D$2</f>
+        <f t="shared" si="1"/>
         <v>6.2141290442530668</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H21">
-        <f>E21/A21</f>
+        <f t="shared" si="2"/>
         <v>0.25053590568060019</v>
       </c>
       <c r="I21">
-        <f>F21/A21</f>
+        <f t="shared" si="3"/>
         <v>0.31070645221265336</v>
       </c>
     </row>
@@ -14217,23 +17887,23 @@
         <v>257198032</v>
       </c>
       <c r="E22">
-        <f>C$2/C22</f>
+        <f t="shared" si="0"/>
         <v>4.8536129568106317</v>
       </c>
       <c r="F22">
-        <f>D22/D$2</f>
+        <f t="shared" si="1"/>
         <v>6.131415403020041</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="H22">
-        <f>E22/A22</f>
+        <f t="shared" si="2"/>
         <v>0.23112442651479198</v>
       </c>
       <c r="I22">
-        <f>F22/A22</f>
+        <f t="shared" si="3"/>
         <v>0.2919721620485734</v>
       </c>
     </row>
@@ -14251,23 +17921,23 @@
         <v>257236344</v>
       </c>
       <c r="E23">
-        <f>C$2/C23</f>
+        <f t="shared" si="0"/>
         <v>4.8017666392769103</v>
       </c>
       <c r="F23">
-        <f>D23/D$2</f>
+        <f t="shared" si="1"/>
         <v>6.1323287334413266</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="H23">
-        <f>E23/A23</f>
+        <f t="shared" si="2"/>
         <v>0.2182621199671323</v>
       </c>
       <c r="I23">
-        <f>F23/A23</f>
+        <f t="shared" si="3"/>
         <v>0.27874221515642394</v>
       </c>
     </row>
@@ -14285,23 +17955,23 @@
         <v>260966471</v>
       </c>
       <c r="E24">
-        <f>C$2/C24</f>
+        <f t="shared" si="0"/>
         <v>4.7597230706577074</v>
       </c>
       <c r="F24">
-        <f>D24/D$2</f>
+        <f t="shared" si="1"/>
         <v>6.2212522682179108</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="H24">
-        <f>E24/A24</f>
+        <f t="shared" si="2"/>
         <v>0.2069444813329438</v>
       </c>
       <c r="I24">
-        <f>F24/A24</f>
+        <f t="shared" si="3"/>
         <v>0.27048922905295264</v>
       </c>
     </row>
@@ -14319,23 +17989,23 @@
         <v>261103055</v>
       </c>
       <c r="E25">
-        <f>C$2/C25</f>
+        <f t="shared" si="0"/>
         <v>4.8067036808554384</v>
       </c>
       <c r="F25">
-        <f>D25/D$2</f>
+        <f t="shared" si="1"/>
         <v>6.2245083321733539</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="H25">
-        <f>E25/A25</f>
+        <f t="shared" si="2"/>
         <v>0.20027932003564328</v>
       </c>
       <c r="I25">
-        <f>F25/A25</f>
+        <f t="shared" si="3"/>
         <v>0.25935451384055641</v>
       </c>
     </row>
@@ -14346,7 +18016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76021593-133C-486A-80A9-D15B80E47575}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -15060,11 +18730,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1584DABB-DA59-4F6D-AEA3-5CC171009C00}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -15786,7 +19456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A6F068-9D13-45DA-910B-7CFD747A89D6}">
   <dimension ref="A1:K24"/>
   <sheetViews>

--- a/benchmark/parallel_benchmark.xlsx
+++ b/benchmark/parallel_benchmark.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\egaroucid\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB8E659-2BBD-4F1D-8720-B04A159E297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC69CBAA-FB9F-4A71-83D7-5DFB2FBB6AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45984" yWindow="-216" windowWidth="23232" windowHeight="25296" xr2:uid="{75C047C0-BFEA-499F-BA8B-EB1F29873334}"/>
   </bookViews>
   <sheets>
-    <sheet name="20230601" sheetId="7" r:id="rId1"/>
-    <sheet name="20230526" sheetId="6" r:id="rId2"/>
-    <sheet name="20221107_laptop" sheetId="4" r:id="rId3"/>
-    <sheet name="20220920_edax" sheetId="2" r:id="rId4"/>
-    <sheet name="20220920" sheetId="1" r:id="rId5"/>
+    <sheet name="20230601_2" sheetId="8" r:id="rId1"/>
+    <sheet name="20230601" sheetId="7" r:id="rId2"/>
+    <sheet name="20230526" sheetId="6" r:id="rId3"/>
+    <sheet name="20221107_laptop" sheetId="4" r:id="rId4"/>
+    <sheet name="20220920_edax" sheetId="2" r:id="rId5"/>
+    <sheet name="20220920" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
   <si>
     <t>スレッド数 p(個)</t>
     <rPh sb="4" eb="5">
@@ -266,6 +267,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>n_adleをatomicにした</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -419,7 +424,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$E$1</c:f>
+              <c:f>'20230601_2'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -442,7 +447,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -523,7 +528,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$E$2:$E$25</c:f>
+              <c:f>'20230601_2'!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -531,73 +536,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6338953212810616</c:v>
+                  <c:v>1.6523937963587323</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1853830827748597</c:v>
+                  <c:v>2.2122415816556829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6132770197097681</c:v>
+                  <c:v>2.6540669338243257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9950353729676058</c:v>
+                  <c:v>3.0078556523873816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3464151990015254</c:v>
+                  <c:v>3.377670572019297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7033456108041745</c:v>
+                  <c:v>3.754404780144017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0325868983957216</c:v>
+                  <c:v>4.0410620052770447</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1526415419032867</c:v>
+                  <c:v>4.1910381392166922</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2785460992907804</c:v>
+                  <c:v>4.302141853932584</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4082937522835222</c:v>
+                  <c:v>4.3907901809711518</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4042708523453182</c:v>
+                  <c:v>4.4184998196898659</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4687037037037038</c:v>
+                  <c:v>4.5354432722561544</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4530356154272006</c:v>
+                  <c:v>4.511229749631811</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4662224689987049</c:v>
+                  <c:v>4.6105362182502345</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5206069689022108</c:v>
+                  <c:v>4.6096689240030093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4794876554668654</c:v>
+                  <c:v>4.6490229557958642</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3723500634172856</c:v>
+                  <c:v>4.4042056074766354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3573492235464064</c:v>
+                  <c:v>4.4457547169811322</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3858596873864055</c:v>
+                  <c:v>4.5228866740494649</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5045734552921406</c:v>
+                  <c:v>4.5778068372875023</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.4803193464537694</c:v>
+                  <c:v>4.4889173841362888</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.4382931763840352</c:v>
+                  <c:v>4.4856306058941975</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.4695313947027229</c:v>
+                  <c:v>4.5228866740494649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -605,7 +610,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F8C8-4FE5-A128-296D20C91D65}"/>
+              <c16:uniqueId val="{00000000-D9D7-4605-AA4F-5223E05BFBD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -614,7 +619,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$F$1</c:f>
+              <c:f>'20230601_2'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -637,7 +642,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -718,7 +723,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$F$2:$F$25</c:f>
+              <c:f>'20230601_2'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -726,73 +731,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6849697603479148</c:v>
+                  <c:v>1.7056442229922395</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.291157713491097</c:v>
+                  <c:v>2.3285788164815111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8532476383224008</c:v>
+                  <c:v>2.8962873772134823</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2850813089644175</c:v>
+                  <c:v>3.3574494288129415</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7887617537531435</c:v>
+                  <c:v>3.8572990411251031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1859855009932225</c:v>
+                  <c:v>4.2782003780797702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5685306601435611</c:v>
+                  <c:v>4.6580182479058374</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8062917642833964</c:v>
+                  <c:v>4.9311848682920001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0634161489399219</c:v>
+                  <c:v>5.1080816506552615</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1843061683928822</c:v>
+                  <c:v>5.2309922895788841</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2883181532120718</c:v>
+                  <c:v>5.4244711545418367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3238114631006548</c:v>
+                  <c:v>5.4053593598460354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4607191905457881</c:v>
+                  <c:v>5.451695087294711</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5587366246746148</c:v>
+                  <c:v>5.5517164577162932</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.6256372712460907</c:v>
+                  <c:v>5.6271419249159198</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.5466596645459481</c:v>
+                  <c:v>5.6477837628231589</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4138122663806358</c:v>
+                  <c:v>5.4003289010597468</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3348567597240928</c:v>
+                  <c:v>5.509548274872655</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.6096367904593967</c:v>
+                  <c:v>5.6375386812503026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.6094191616336158</c:v>
+                  <c:v>5.5978026428196319</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7194479694588223</c:v>
+                  <c:v>5.7852487559807999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.6927278600631146</c:v>
+                  <c:v>5.7595475688565054</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.7234046894028374</c:v>
+                  <c:v>5.7134198725027305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -800,7 +805,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F8C8-4FE5-A128-296D20C91D65}"/>
+              <c16:uniqueId val="{00000001-D9D7-4605-AA4F-5223E05BFBD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -809,7 +814,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$G$1</c:f>
+              <c:f>'20230601_2'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -832,7 +837,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -913,7 +918,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$G$2:$G$25</c:f>
+              <c:f>'20230601_2'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -995,7 +1000,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F8C8-4FE5-A128-296D20C91D65}"/>
+              <c16:uniqueId val="{00000002-D9D7-4605-AA4F-5223E05BFBD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1232,6 +1237,878 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20220920_edax'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>時間並列化効率 e(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94277078116373902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71616179871083741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64226257018065158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80073054155926582</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76922349474648222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75433120443968282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57917478638884734</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63295418825786776</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51976088181137914</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52711155677430799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45056974637285041</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41600807537012113</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D193-4EC3-8279-581B25A09EA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1477077008"/>
+        <c:axId val="1477077840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1477077008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1477077840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1477077840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1477077008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20220920_edax'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPS並列化効率 en(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220920_edax'!$H$2:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96369713476684427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73022296752522475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67062323587942341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84187687171045833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82062423567551812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77713722261918661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61029408607533309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65080942340465542</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54248781779989164</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56841722420266816</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48571912532573924</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45255273958713005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04AB-434F-A7C0-19B19BD4BAC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1312555520"/>
+        <c:axId val="1312551776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1312555520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312551776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1312551776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312555520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1917,7 +2794,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2353,7 +3230,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2789,7 +3666,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3581,7 +4458,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$H$1</c:f>
+              <c:f>'20230601_2'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3604,7 +4481,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3685,7 +4562,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$H$2:$H$25</c:f>
+              <c:f>'20230601_2'!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3693,73 +4570,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81694766064053082</c:v>
+                  <c:v>0.82619689817936615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7284610275916199</c:v>
+                  <c:v>0.73741386055189428</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65331925492744203</c:v>
+                  <c:v>0.66351673345608142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5990070745935212</c:v>
+                  <c:v>0.60157113047747635</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5577358665002542</c:v>
+                  <c:v>0.56294509533654946</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52904937297202492</c:v>
+                  <c:v>0.53634354002057383</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5040733622994652</c:v>
+                  <c:v>0.50513275065963059</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46140461576703184</c:v>
+                  <c:v>0.46567090435741026</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42785460992907803</c:v>
+                  <c:v>0.4302141853932584</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.40075397748032021</c:v>
+                  <c:v>0.39916274372465016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3670225710287765</c:v>
+                  <c:v>0.36820831830748885</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34374643874643873</c:v>
+                  <c:v>0.34888025171201187</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.31807397253051434</c:v>
+                  <c:v>0.3222306964022722</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29774816459991366</c:v>
+                  <c:v>0.30736908121668233</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.28253793555638818</c:v>
+                  <c:v>0.28810430775018808</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.26349927385099209</c:v>
+                  <c:v>0.27347193857622731</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.24290833685651586</c:v>
+                  <c:v>0.24467808930425752</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.22933416966033718</c:v>
+                  <c:v>0.23398709036742801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.21929298436932027</c:v>
+                  <c:v>0.22614433370247325</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.21450349787105433</c:v>
+                  <c:v>0.21799080177559535</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20365087938426224</c:v>
+                  <c:v>0.20404169927892221</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19296926853843632</c:v>
+                  <c:v>0.19502741764757381</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18623047477928012</c:v>
+                  <c:v>0.18845361141872771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3767,7 +4644,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A041-4DA6-B6C6-E6F68ABF0162}"/>
+              <c16:uniqueId val="{00000000-3128-4D2E-A090-B7514F272744}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3776,7 +4653,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$I$1</c:f>
+              <c:f>'20230601_2'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3799,7 +4676,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3880,7 +4757,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$I$2:$I$25</c:f>
+              <c:f>'20230601_2'!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3888,73 +4765,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8424848801739574</c:v>
+                  <c:v>0.85282211149611975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76371923783036566</c:v>
+                  <c:v>0.77619293882717033</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7133119095806002</c:v>
+                  <c:v>0.72407184430337057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65701626179288353</c:v>
+                  <c:v>0.67148988576258828</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63146029229219058</c:v>
+                  <c:v>0.64288317352085056</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59799792871331747</c:v>
+                  <c:v>0.61117148258282428</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57106633251794514</c:v>
+                  <c:v>0.58225228098822968</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53403241825371073</c:v>
+                  <c:v>0.54790942981022228</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50634161489399221</c:v>
+                  <c:v>0.51080816506552618</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47130056076298926</c:v>
+                  <c:v>0.47554475359808035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.44069317943433933</c:v>
+                  <c:v>0.45203926287848639</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40952395870005037</c:v>
+                  <c:v>0.41579687383431041</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39005137075327057</c:v>
+                  <c:v>0.38940679194962219</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37058244164497434</c:v>
+                  <c:v>0.37011443051441956</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.35160232945288067</c:v>
+                  <c:v>0.35169637030724499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.32627409791446754</c:v>
+                  <c:v>0.33222257428371521</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.30076734813225753</c:v>
+                  <c:v>0.30001827228109706</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28078193472232066</c:v>
+                  <c:v>0.28997622499329762</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28048183952296984</c:v>
+                  <c:v>0.28187693406251513</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.26711519817302931</c:v>
+                  <c:v>0.26656203061045869</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.25997490770267373</c:v>
+                  <c:v>0.26296585254458182</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.24750990695926586</c:v>
+                  <c:v>0.25041511168941327</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.23847519539178488</c:v>
+                  <c:v>0.23805916135428043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3962,7 +4839,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A041-4DA6-B6C6-E6F68ABF0162}"/>
+              <c16:uniqueId val="{00000001-3128-4D2E-A090-B7514F272744}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4272,7 +5149,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$E$1</c:f>
+              <c:f>'20230601'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4295,7 +5172,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4376,7 +5253,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$E$2:$E$25</c:f>
+              <c:f>'20230601'!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4384,73 +5261,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.113042236083996</c:v>
+                  <c:v>1.6338953212810616</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5991653554080865</c:v>
+                  <c:v>2.1853830827748597</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1197968622472114</c:v>
+                  <c:v>2.6132770197097681</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.570093457943925</c:v>
+                  <c:v>2.9950353729676058</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7757985987412424</c:v>
+                  <c:v>3.3464151990015254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0768724496511779</c:v>
+                  <c:v>3.7033456108041745</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3326204733390359</c:v>
+                  <c:v>4.0325868983957216</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6128284389489953</c:v>
+                  <c:v>4.1526415419032867</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9305532201109803</c:v>
+                  <c:v>4.2785460992907804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1592526690391463</c:v>
+                  <c:v>4.4082937522835222</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.389671361502347</c:v>
+                  <c:v>4.4042708523453182</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4642857142857144</c:v>
+                  <c:v>4.4687037037037038</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5770511063246522</c:v>
+                  <c:v>4.4530356154272006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6918908069048575</c:v>
+                  <c:v>4.4662224689987049</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7743055555555554</c:v>
+                  <c:v>4.5206069689022108</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7461928934010151</c:v>
+                  <c:v>4.4794876554668654</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.8819966583124472</c:v>
+                  <c:v>4.3723500634172856</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8647242455775235</c:v>
+                  <c:v>4.3573492235464064</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.010718113612004</c:v>
+                  <c:v>4.3858596873864055</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8536129568106317</c:v>
+                  <c:v>4.5045734552921406</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.8017666392769103</c:v>
+                  <c:v>4.4803193464537694</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.7597230706577074</c:v>
+                  <c:v>4.4382931763840352</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.8067036808554384</c:v>
+                  <c:v>4.4695313947027229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4458,7 +5335,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-75E1-40E3-BD0C-BA7F77C303A8}"/>
+              <c16:uniqueId val="{00000000-F8C8-4FE5-A128-296D20C91D65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4467,7 +5344,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$F$1</c:f>
+              <c:f>'20230601'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4490,7 +5367,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4571,7 +5448,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$F$2:$F$25</c:f>
+              <c:f>'20230601'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4579,73 +5456,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1162082083449918</c:v>
+                  <c:v>1.6849697603479148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6613317779316894</c:v>
+                  <c:v>2.291157713491097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2438468498980595</c:v>
+                  <c:v>2.8532476383224008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7857582674795132</c:v>
+                  <c:v>3.2850813089644175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0609617541932517</c:v>
+                  <c:v>3.7887617537531435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.403457920658544</c:v>
+                  <c:v>4.1859855009932225</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7569881446554998</c:v>
+                  <c:v>4.5685306601435611</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1319703098955962</c:v>
+                  <c:v>4.8062917642833964</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5184290850253834</c:v>
+                  <c:v>5.0634161489399219</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8599496767143577</c:v>
+                  <c:v>5.1843061683928822</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1988288287150013</c:v>
+                  <c:v>5.2883181532120718</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2719421781171212</c:v>
+                  <c:v>5.3238114631006548</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4654682693368315</c:v>
+                  <c:v>5.4607191905457881</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6355195850516191</c:v>
+                  <c:v>5.5587366246746148</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.8166107035640842</c:v>
+                  <c:v>5.6256372712460907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0035319320812297</c:v>
+                  <c:v>5.5466596645459481</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.0662577213335718</c:v>
+                  <c:v>5.4138122663806358</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.2447032044447663</c:v>
+                  <c:v>5.3348567597240928</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.2141290442530668</c:v>
+                  <c:v>5.6096367904593967</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.131415403020041</c:v>
+                  <c:v>5.6094191616336158</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.1323287334413266</c:v>
+                  <c:v>5.7194479694588223</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.2212522682179108</c:v>
+                  <c:v>5.6927278600631146</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.2245083321733539</c:v>
+                  <c:v>5.7234046894028374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4653,7 +5530,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-75E1-40E3-BD0C-BA7F77C303A8}"/>
+              <c16:uniqueId val="{00000001-F8C8-4FE5-A128-296D20C91D65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4662,7 +5539,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$G$1</c:f>
+              <c:f>'20230601'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4685,7 +5562,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4766,7 +5643,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$G$2:$G$25</c:f>
+              <c:f>'20230601'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4848,7 +5725,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-75E1-40E3-BD0C-BA7F77C303A8}"/>
+              <c16:uniqueId val="{00000002-F8C8-4FE5-A128-296D20C91D65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5158,7 +6035,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$H$1</c:f>
+              <c:f>'20230601'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5181,7 +6058,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5262,7 +6139,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$H$2:$H$25</c:f>
+              <c:f>'20230601'!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5270,73 +6147,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.556521118041998</c:v>
+                  <c:v>0.81694766064053082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53305511846936215</c:v>
+                  <c:v>0.7284610275916199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52994921556180286</c:v>
+                  <c:v>0.65331925492744203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51401869158878499</c:v>
+                  <c:v>0.5990070745935212</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46263309979020706</c:v>
+                  <c:v>0.5577358665002542</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43955320709302542</c:v>
+                  <c:v>0.52904937297202492</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41657755916737949</c:v>
+                  <c:v>0.5040733622994652</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.40142538210544393</c:v>
+                  <c:v>0.46140461576703184</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39305532201109805</c:v>
+                  <c:v>0.42785460992907803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37811387900355875</c:v>
+                  <c:v>0.40075397748032021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36580594679186224</c:v>
+                  <c:v>0.3670225710287765</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34340659340659341</c:v>
+                  <c:v>0.34374643874643873</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.32693222188033227</c:v>
+                  <c:v>0.31807397253051434</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.31279272046032386</c:v>
+                  <c:v>0.29774816459991366</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.29839409722222221</c:v>
+                  <c:v>0.28253793555638818</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27918781725888325</c:v>
+                  <c:v>0.26349927385099209</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.27122203657291372</c:v>
+                  <c:v>0.24290833685651586</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2560381181882907</c:v>
+                  <c:v>0.22933416966033718</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.25053590568060019</c:v>
+                  <c:v>0.21929298436932027</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.23112442651479198</c:v>
+                  <c:v>0.21450349787105433</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2182621199671323</c:v>
+                  <c:v>0.20365087938426224</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2069444813329438</c:v>
+                  <c:v>0.19296926853843632</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.20027932003564328</c:v>
+                  <c:v>0.18623047477928012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5344,7 +6221,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D809-4975-8181-8A5ADF1F31D5}"/>
+              <c16:uniqueId val="{00000000-A041-4DA6-B6C6-E6F68ABF0162}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5353,7 +6230,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$I$1</c:f>
+              <c:f>'20230601'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5376,7 +6253,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5457,7 +6334,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$I$2:$I$25</c:f>
+              <c:f>'20230601'!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5465,73 +6342,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5581041041724959</c:v>
+                  <c:v>0.8424848801739574</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5537772593105631</c:v>
+                  <c:v>0.76371923783036566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56096171247451487</c:v>
+                  <c:v>0.7133119095806002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55715165349590268</c:v>
+                  <c:v>0.65701626179288353</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51016029236554195</c:v>
+                  <c:v>0.63146029229219058</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48620827437979203</c:v>
+                  <c:v>0.59799792871331747</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46962351808193747</c:v>
+                  <c:v>0.57106633251794514</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4591078122106218</c:v>
+                  <c:v>0.53403241825371073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45184290850253833</c:v>
+                  <c:v>0.50634161489399221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44181360697403255</c:v>
+                  <c:v>0.47130056076298926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.43323573572625013</c:v>
+                  <c:v>0.44069317943433933</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40553401370131703</c:v>
+                  <c:v>0.40952395870005037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39039059066691656</c:v>
+                  <c:v>0.39005137075327057</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37570130567010795</c:v>
+                  <c:v>0.37058244164497434</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36353816897275526</c:v>
+                  <c:v>0.35160232945288067</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.35314893718124879</c:v>
+                  <c:v>0.32627409791446754</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33701431785186509</c:v>
+                  <c:v>0.30076734813225753</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.32866858970761931</c:v>
+                  <c:v>0.28078193472232066</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.31070645221265336</c:v>
+                  <c:v>0.28048183952296984</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2919721620485734</c:v>
+                  <c:v>0.26711519817302931</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.27874221515642394</c:v>
+                  <c:v>0.25997490770267373</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.27048922905295264</c:v>
+                  <c:v>0.24750990695926586</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.25935451384055641</c:v>
+                  <c:v>0.23847519539178488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5539,7 +6416,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D809-4975-8181-8A5ADF1F31D5}"/>
+              <c16:uniqueId val="{00000001-A041-4DA6-B6C6-E6F68ABF0162}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5776,6 +6653,1583 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>速度</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>/NPS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>向上率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>速度向上率st(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.113042236083996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5991653554080865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1197968622472114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.570093457943925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7757985987412424</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0768724496511779</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3326204733390359</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6128284389489953</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9305532201109803</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1592526690391463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.389671361502347</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4642857142857144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5770511063246522</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6918908069048575</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7743055555555554</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7461928934010151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8819966583124472</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8647242455775235</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.010718113612004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8536129568106317</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.8017666392769103</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7597230706577074</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8067036808554384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75E1-40E3-BD0C-BA7F77C303A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nps向上率sn(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1162082083449918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6613317779316894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2438468498980595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7857582674795132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0609617541932517</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.403457920658544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7569881446554998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1319703098955962</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5184290850253834</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8599496767143577</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1988288287150013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2719421781171212</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4654682693368315</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6355195850516191</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8166107035640842</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0035319320812297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0662577213335718</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2447032044447663</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2141290442530668</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.131415403020041</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.1323287334413266</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.2212522682179108</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.2245083321733539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75E1-40E3-BD0C-BA7F77C303A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>線形向上率(参考)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$G$2:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-75E1-40E3-BD0C-BA7F77C303A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="579350928"/>
+        <c:axId val="579352368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="579350928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579352368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="579352368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579350928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>/NPS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>並列化効率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>時間並列化効率et(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$H$2:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.556521118041998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53305511846936215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52994921556180286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51401869158878499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46263309979020706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43955320709302542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41657755916737949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40142538210544393</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39305532201109805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37811387900355875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36580594679186224</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34340659340659341</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32693222188033227</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31279272046032386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29839409722222221</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27918781725888325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27122203657291372</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2560381181882907</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25053590568060019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23112442651479198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2182621199671323</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2069444813329438</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20027932003564328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D809-4975-8181-8A5ADF1F31D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nps並列化効率en(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$I$2:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5581041041724959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5537772593105631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56096171247451487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55715165349590268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51016029236554195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48620827437979203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46962351808193747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4591078122106218</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45184290850253833</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44181360697403255</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43323573572625013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40553401370131703</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39039059066691656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.37570130567010795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36353816897275526</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35314893718124879</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.33701431785186509</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32866858970761931</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.31070645221265336</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2919721620485734</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27874221515642394</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27048922905295264</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25935451384055641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D809-4975-8181-8A5ADF1F31D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="579628432"/>
+        <c:axId val="579623632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="579628432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579623632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="579623632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579628432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6197,7 +8651,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -6633,7 +9087,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -7337,878 +9791,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'20220920_edax'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>時間並列化効率 e(p)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'20220920_edax'!$D$2:$D$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.94277078116373902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.71616179871083741</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.64226257018065158</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.80073054155926582</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.76922349474648222</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.75433120443968282</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.57917478638884734</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.63295418825786776</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.51976088181137914</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.52711155677430799</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.45056974637285041</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.41600807537012113</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D193-4EC3-8279-581B25A09EA7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1477077008"/>
-        <c:axId val="1477077840"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1477077008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1477077840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1477077840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1477077008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'20220920_edax'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NPS並列化効率 en(p)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'20220920_edax'!$A$2:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'20220920_edax'!$H$2:$H$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96369713476684427</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.73022296752522475</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.67062323587942341</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84187687171045833</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.82062423567551812</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.77713722261918661</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.61029408607533309</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.65080942340465542</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.54248781779989164</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.56841722420266816</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.48571912532573924</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.45255273958713005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-04AB-434F-A7C0-19B19BD4BAC3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1312555520"/>
-        <c:axId val="1312551776"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1312555520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1312551776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1312551776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1312555520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8370,6 +9952,86 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11309,7 +12971,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11825,7 +13487,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12341,7 +14003,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12857,7 +14519,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13373,7 +15035,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13889,7 +15551,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14405,7 +16067,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14921,7 +16583,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15437,7 +17099,1120 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E876A592-A912-4BB0-97C0-ABC9A83E857C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58132D28-4BC9-4D03-88D2-16D0AB02E898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15518,7 +18293,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15595,7 +18370,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15714,7 +18489,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15833,7 +18608,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16242,11 +19017,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40D577C-1FC9-441B-9BD6-25BD6679A0C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DE268C-975E-4488-A318-D18B0F641550}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -16309,10 +19084,10 @@
         <v>980524678</v>
       </c>
       <c r="C2">
-        <v>24.131</v>
+        <v>24.504999999999999</v>
       </c>
       <c r="D2">
-        <v>40633404</v>
+        <v>40013249</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E25" si="0">C$2/C2</f>
@@ -16333,6 +19108,9 @@
       <c r="I2">
         <f t="shared" ref="I2:I25" si="3">F2/A2</f>
         <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
       </c>
       <c r="P2" t="s">
         <v>24</v>
@@ -16346,21 +19124,21 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1011175196</v>
+        <v>1012123286</v>
       </c>
       <c r="C3">
-        <v>14.769</v>
+        <v>14.83</v>
       </c>
       <c r="D3">
-        <v>68466057</v>
+        <v>68248367</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>1.6338953212810616</v>
+        <v>1.6523937963587323</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>1.6849697603479148</v>
+        <v>1.7056442229922395</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G25" si="4">A3</f>
@@ -16368,11 +19146,11 @@
       </c>
       <c r="H3">
         <f t="shared" si="2"/>
-        <v>0.81694766064053082</v>
+        <v>0.82619689817936615</v>
       </c>
       <c r="I3">
         <f t="shared" si="3"/>
-        <v>0.8424848801739574</v>
+        <v>0.85282211149611975</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
@@ -16380,21 +19158,21 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1027983011</v>
+        <v>1032088452</v>
       </c>
       <c r="C4">
-        <v>11.042</v>
+        <v>11.077</v>
       </c>
       <c r="D4">
-        <v>93097537</v>
+        <v>93174004</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>2.1853830827748597</v>
+        <v>2.2122415816556829</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>2.291157713491097</v>
+        <v>2.3285788164815111</v>
       </c>
       <c r="G4">
         <f t="shared" si="4"/>
@@ -16402,11 +19180,11 @@
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>0.7284610275916199</v>
+        <v>0.73741386055189428</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>0.76371923783036566</v>
+        <v>0.77619293882717033</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
@@ -16414,21 +19192,21 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1070563776</v>
+        <v>1070011152</v>
       </c>
       <c r="C5">
-        <v>9.234</v>
+        <v>9.2330000000000005</v>
       </c>
       <c r="D5">
-        <v>115937164</v>
+        <v>115889868</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>2.6132770197097681</v>
+        <v>2.6540669338243257</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>2.8532476383224008</v>
+        <v>2.8962873772134823</v>
       </c>
       <c r="G5">
         <f t="shared" si="4"/>
@@ -16436,11 +19214,11 @@
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>0.65331925492744203</v>
+        <v>0.66351673345608142</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>0.7133119095806002</v>
+        <v>0.72407184430337057</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
@@ -16448,21 +19226,21 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1075480882</v>
+        <v>1094488027</v>
       </c>
       <c r="C6">
-        <v>8.0570000000000004</v>
+        <v>8.1470000000000002</v>
       </c>
       <c r="D6">
-        <v>133484036</v>
+        <v>134342460</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>2.9950353729676058</v>
+        <v>3.0078556523873816</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>3.2850813089644175</v>
+        <v>3.3574494288129415</v>
       </c>
       <c r="G6">
         <f t="shared" si="4"/>
@@ -16470,11 +19248,11 @@
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>0.5990070745935212</v>
+        <v>0.60157113047747635</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>0.65701626179288353</v>
+        <v>0.67148988576258828</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
@@ -16482,21 +19260,21 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1110135523</v>
+        <v>1119758956</v>
       </c>
       <c r="C7">
-        <v>7.2110000000000003</v>
+        <v>7.2549999999999999</v>
       </c>
       <c r="D7">
-        <v>153950287</v>
+        <v>154343067</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>3.3464151990015254</v>
+        <v>3.377670572019297</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>3.7887617537531435</v>
+        <v>3.8572990411251031</v>
       </c>
       <c r="G7">
         <f t="shared" si="4"/>
@@ -16504,11 +19282,11 @@
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0.5577358665002542</v>
+        <v>0.56294509533654946</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>0.63146029229219058</v>
+        <v>0.64288317352085056</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
@@ -16516,21 +19294,21 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1108311919</v>
+        <v>1117322521</v>
       </c>
       <c r="C8">
-        <v>6.516</v>
+        <v>6.5270000000000001</v>
       </c>
       <c r="D8">
-        <v>170090840</v>
+        <v>171184697</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>3.7033456108041745</v>
+        <v>3.754404780144017</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>4.1859855009932225</v>
+        <v>4.2782003780797702</v>
       </c>
       <c r="G8">
         <f t="shared" si="4"/>
@@ -16538,11 +19316,11 @@
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>0.52904937297202492</v>
+        <v>0.53634354002057383</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>0.59799792871331747</v>
+        <v>0.61117148258282428</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
@@ -16550,21 +19328,21 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1110839555</v>
+        <v>1130223146</v>
       </c>
       <c r="C9">
-        <v>5.984</v>
+        <v>6.0640000000000001</v>
       </c>
       <c r="D9">
-        <v>185634952</v>
+        <v>186382444</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>4.0325868983957216</v>
+        <v>4.0410620052770447</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>4.5685306601435611</v>
+        <v>4.6580182479058374</v>
       </c>
       <c r="G9">
         <f t="shared" si="4"/>
@@ -16572,11 +19350,11 @@
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>0.5040733622994652</v>
+        <v>0.50513275065963059</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>0.57106633251794514</v>
+        <v>0.58225228098822968</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
@@ -16584,21 +19362,21 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1134865032</v>
+        <v>1153687522</v>
       </c>
       <c r="C10">
-        <v>5.8109999999999999</v>
+        <v>5.8470000000000004</v>
       </c>
       <c r="D10">
-        <v>195295995</v>
+        <v>197312728</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>4.1526415419032867</v>
+        <v>4.1910381392166922</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>4.8062917642833964</v>
+        <v>4.9311848682920001</v>
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
@@ -16606,11 +19384,11 @@
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0.46140461576703184</v>
+        <v>0.46567090435741026</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>0.53403241825371073</v>
+        <v>0.54790942981022228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
@@ -16618,21 +19396,21 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1160395225</v>
+        <v>1164210817</v>
       </c>
       <c r="C11">
-        <v>5.64</v>
+        <v>5.6959999999999997</v>
       </c>
       <c r="D11">
-        <v>205743834</v>
+        <v>204390943</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>4.2785460992907804</v>
+        <v>4.302141853932584</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>5.0634161489399219</v>
+        <v>5.1080816506552615</v>
       </c>
       <c r="G11">
         <f t="shared" si="4"/>
@@ -16640,11 +19418,11 @@
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>0.42785460992907803</v>
+        <v>0.4302141853932584</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>0.50634161489399221</v>
+        <v>0.51080816506552618</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
@@ -16652,21 +19430,21 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1153130984</v>
+        <v>1168153517</v>
       </c>
       <c r="C12">
-        <v>5.4740000000000002</v>
+        <v>5.5810000000000004</v>
       </c>
       <c r="D12">
-        <v>210656007</v>
+        <v>209308997</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>4.4082937522835222</v>
+        <v>4.3907901809711518</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>5.1843061683928822</v>
+        <v>5.2309922895788841</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
@@ -16674,11 +19452,11 @@
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>0.40075397748032021</v>
+        <v>0.39916274372465016</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>0.47130056076298926</v>
+        <v>0.47554475359808035</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
@@ -16686,21 +19464,21 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1177340495</v>
+        <v>1203763266</v>
       </c>
       <c r="C13">
-        <v>5.4790000000000001</v>
+        <v>5.5460000000000003</v>
       </c>
       <c r="D13">
-        <v>214882368</v>
+        <v>217050715</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>4.4042708523453182</v>
+        <v>4.4184998196898659</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>5.2883181532120718</v>
+        <v>5.4244711545418367</v>
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
@@ -16708,11 +19486,11 @@
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>0.3670225710287765</v>
+        <v>0.36820831830748885</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>0.44069317943433933</v>
+        <v>0.45203926287848639</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
@@ -16720,21 +19498,21 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1168152743</v>
+        <v>1168593207</v>
       </c>
       <c r="C14">
-        <v>5.4</v>
+        <v>5.4029999999999996</v>
       </c>
       <c r="D14">
-        <v>216324582</v>
+        <v>216285990</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>4.4687037037037038</v>
+        <v>4.5354432722561544</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>5.3238114631006548</v>
+        <v>5.4053593598460354</v>
       </c>
       <c r="G14">
         <f t="shared" si="4"/>
@@ -16742,11 +19520,11 @@
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0.34374643874643873</v>
+        <v>0.34888025171201187</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>0.40952395870005037</v>
+        <v>0.41579687383431041</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
@@ -16754,21 +19532,21 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1202408956</v>
+        <v>1184936662</v>
       </c>
       <c r="C15">
-        <v>5.4189999999999996</v>
+        <v>5.4320000000000004</v>
       </c>
       <c r="D15">
-        <v>221887609</v>
+        <v>218140033</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>4.4530356154272006</v>
+        <v>4.511229749631811</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>5.4607191905457881</v>
+        <v>5.451695087294711</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
@@ -16776,11 +19554,11 @@
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>0.31807397253051434</v>
+        <v>0.3222306964022722</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>0.39005137075327057</v>
+        <v>0.38940679194962219</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
@@ -16788,21 +19566,21 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1220377725</v>
+        <v>1180685865</v>
       </c>
       <c r="C16">
-        <v>5.4029999999999996</v>
+        <v>5.3150000000000004</v>
       </c>
       <c r="D16">
-        <v>225870391</v>
+        <v>222142213</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>4.4662224689987049</v>
+        <v>4.6105362182502345</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>5.5587366246746148</v>
+        <v>5.5517164577162932</v>
       </c>
       <c r="G16">
         <f t="shared" si="4"/>
@@ -16810,11 +19588,11 @@
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0.29774816459991366</v>
+        <v>0.30736908121668233</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>0.37058244164497434</v>
+        <v>0.37011443051441956</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -16822,21 +19600,21 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1220206976</v>
+        <v>1196951791</v>
       </c>
       <c r="C17">
-        <v>5.3380000000000001</v>
+        <v>5.3159999999999998</v>
       </c>
       <c r="D17">
-        <v>228588792</v>
+        <v>225160231</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>4.5206069689022108</v>
+        <v>4.6096689240030093</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>5.6256372712460907</v>
+        <v>5.6271419249159198</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
@@ -16844,11 +19622,11 @@
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0.28253793555638818</v>
+        <v>0.28810430775018808</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>0.35160232945288067</v>
+        <v>0.35169637030724499</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
@@ -16856,21 +19634,21 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1214120248</v>
+        <v>1191173146</v>
       </c>
       <c r="C18">
-        <v>5.3869999999999996</v>
+        <v>5.2709999999999999</v>
       </c>
       <c r="D18">
-        <v>225379663</v>
+        <v>225986178</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>4.4794876554668654</v>
+        <v>4.6490229557958642</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>5.5466596645459481</v>
+        <v>5.6477837628231589</v>
       </c>
       <c r="G18">
         <f t="shared" si="4"/>
@@ -16878,11 +19656,11 @@
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>0.26349927385099209</v>
+        <v>0.27347193857622731</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>0.32627409791446754</v>
+        <v>0.33222257428371521</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
@@ -16890,21 +19668,21 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1214078569</v>
+        <v>1202295304</v>
       </c>
       <c r="C19">
-        <v>5.5190000000000001</v>
+        <v>5.5640000000000001</v>
       </c>
       <c r="D19">
-        <v>219981621</v>
+        <v>216084705</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>4.3723500634172856</v>
+        <v>4.4042056074766354</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>5.4138122663806358</v>
+        <v>5.4003289010597468</v>
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
@@ -16912,11 +19690,11 @@
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>0.24290833685651586</v>
+        <v>0.24467808930425752</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>0.30076734813225753</v>
+        <v>0.30001827228109706</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -16924,21 +19702,21 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1200491038</v>
+        <v>1215147563</v>
       </c>
       <c r="C20">
-        <v>5.5380000000000003</v>
+        <v>5.5119999999999996</v>
       </c>
       <c r="D20">
-        <v>216773390</v>
+        <v>220454927</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>4.3573492235464064</v>
+        <v>4.4457547169811322</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>5.3348567597240928</v>
+        <v>5.509548274872655</v>
       </c>
       <c r="G20">
         <f t="shared" si="4"/>
@@ -16946,11 +19724,11 @@
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>0.22933416966033718</v>
+        <v>0.23398709036742801</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>0.28078193472232066</v>
+        <v>0.28997622499329762</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -16958,21 +19736,21 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1254118391</v>
+        <v>1222172066</v>
       </c>
       <c r="C21">
-        <v>5.5019999999999998</v>
+        <v>5.4180000000000001</v>
       </c>
       <c r="D21">
-        <v>227938638</v>
+        <v>225576239</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>4.3858596873864055</v>
+        <v>4.5228866740494649</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>5.6096367904593967</v>
+        <v>5.6375386812503026</v>
       </c>
       <c r="G21">
         <f t="shared" si="4"/>
@@ -16980,11 +19758,11 @@
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>0.21929298436932027</v>
+        <v>0.22614433370247325</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>0.28048183952296984</v>
+        <v>0.28187693406251513</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
@@ -16992,21 +19770,21 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1221019914</v>
+        <v>1198998514</v>
       </c>
       <c r="C22">
-        <v>5.3570000000000002</v>
+        <v>5.3529999999999998</v>
       </c>
       <c r="D22">
-        <v>227929795</v>
+        <v>223986271</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>4.5045734552921406</v>
+        <v>4.5778068372875023</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>5.6094191616336158</v>
+        <v>5.5978026428196319</v>
       </c>
       <c r="G22">
         <f t="shared" si="4"/>
@@ -17014,11 +19792,11 @@
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>0.21450349787105433</v>
+        <v>0.21799080177559535</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>0.26711519817302931</v>
+        <v>0.26656203061045869</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
@@ -17026,21 +19804,21 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1251709851</v>
+        <v>1263685347</v>
       </c>
       <c r="C23">
-        <v>5.3860000000000001</v>
+        <v>5.4589999999999996</v>
       </c>
       <c r="D23">
-        <v>232400640</v>
+        <v>231486599</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>4.4803193464537694</v>
+        <v>4.4889173841362888</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>5.7194479694588223</v>
+        <v>5.7852487559807999</v>
       </c>
       <c r="G23">
         <f t="shared" si="4"/>
@@ -17048,11 +19826,11 @@
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>0.20365087938426224</v>
+        <v>0.20404169927892221</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>0.25997490770267373</v>
+        <v>0.26296585254458182</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
@@ -17060,21 +19838,21 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1257659174</v>
+        <v>1258993208</v>
       </c>
       <c r="C24">
-        <v>5.4370000000000003</v>
+        <v>5.4630000000000001</v>
       </c>
       <c r="D24">
-        <v>231314911</v>
+        <v>230458211</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>4.4382931763840352</v>
+        <v>4.4856306058941975</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>5.6927278600631146</v>
+        <v>5.7595475688565054</v>
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
@@ -17082,11 +19860,11 @@
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0.19296926853843632</v>
+        <v>0.19502741764757381</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>0.24750990695926586</v>
+        <v>0.25041511168941327</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
@@ -17094,21 +19872,21 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1255599080</v>
+        <v>1238622487</v>
       </c>
       <c r="C25">
-        <v>5.399</v>
+        <v>5.4180000000000001</v>
       </c>
       <c r="D25">
-        <v>232561415</v>
+        <v>228612492</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>4.4695313947027229</v>
+        <v>4.5228866740494649</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>5.7234046894028374</v>
+        <v>5.7134198725027305</v>
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
@@ -17116,11 +19894,11 @@
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>0.18623047477928012</v>
+        <v>0.18845361141872771</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>0.23847519539178488</v>
+        <v>0.23805916135428043</v>
       </c>
     </row>
   </sheetData>
@@ -17131,6 +19909,895 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40D577C-1FC9-441B-9BD6-25BD6679A0C9}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>980524678</v>
+      </c>
+      <c r="C2">
+        <v>24.131</v>
+      </c>
+      <c r="D2">
+        <v>40633404</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E25" si="0">C$2/C2</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F25" si="1">D2/D$2</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H25" si="2">E2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I25" si="3">F2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1011175196</v>
+      </c>
+      <c r="C3">
+        <v>14.769</v>
+      </c>
+      <c r="D3">
+        <v>68466057</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>1.6338953212810616</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>1.6849697603479148</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G25" si="4">A3</f>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="2"/>
+        <v>0.81694766064053082</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="3"/>
+        <v>0.8424848801739574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1027983011</v>
+      </c>
+      <c r="C4">
+        <v>11.042</v>
+      </c>
+      <c r="D4">
+        <v>93097537</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.1853830827748597</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>2.291157713491097</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.7284610275916199</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0.76371923783036566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1070563776</v>
+      </c>
+      <c r="C5">
+        <v>9.234</v>
+      </c>
+      <c r="D5">
+        <v>115937164</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2.6132770197097681</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2.8532476383224008</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.65331925492744203</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.7133119095806002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1075480882</v>
+      </c>
+      <c r="C6">
+        <v>8.0570000000000004</v>
+      </c>
+      <c r="D6">
+        <v>133484036</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2.9950353729676058</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3.2850813089644175</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.5990070745935212</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.65701626179288353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1110135523</v>
+      </c>
+      <c r="C7">
+        <v>7.2110000000000003</v>
+      </c>
+      <c r="D7">
+        <v>153950287</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>3.3464151990015254</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3.7887617537531435</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.5577358665002542</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.63146029229219058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1108311919</v>
+      </c>
+      <c r="C8">
+        <v>6.516</v>
+      </c>
+      <c r="D8">
+        <v>170090840</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3.7033456108041745</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4.1859855009932225</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.52904937297202492</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.59799792871331747</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1110839555</v>
+      </c>
+      <c r="C9">
+        <v>5.984</v>
+      </c>
+      <c r="D9">
+        <v>185634952</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4.0325868983957216</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>4.5685306601435611</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.5040733622994652</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.57106633251794514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1134865032</v>
+      </c>
+      <c r="C10">
+        <v>5.8109999999999999</v>
+      </c>
+      <c r="D10">
+        <v>195295995</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4.1526415419032867</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>4.8062917642833964</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.46140461576703184</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0.53403241825371073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1160395225</v>
+      </c>
+      <c r="C11">
+        <v>5.64</v>
+      </c>
+      <c r="D11">
+        <v>205743834</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4.2785460992907804</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>5.0634161489399219</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.42785460992907803</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0.50634161489399221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1153130984</v>
+      </c>
+      <c r="C12">
+        <v>5.4740000000000002</v>
+      </c>
+      <c r="D12">
+        <v>210656007</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4.4082937522835222</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>5.1843061683928822</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.40075397748032021</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0.47130056076298926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1177340495</v>
+      </c>
+      <c r="C13">
+        <v>5.4790000000000001</v>
+      </c>
+      <c r="D13">
+        <v>214882368</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>4.4042708523453182</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>5.2883181532120718</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.3670225710287765</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0.44069317943433933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1168152743</v>
+      </c>
+      <c r="C14">
+        <v>5.4</v>
+      </c>
+      <c r="D14">
+        <v>216324582</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4.4687037037037038</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>5.3238114631006548</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.34374643874643873</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0.40952395870005037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1202408956</v>
+      </c>
+      <c r="C15">
+        <v>5.4189999999999996</v>
+      </c>
+      <c r="D15">
+        <v>221887609</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4.4530356154272006</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>5.4607191905457881</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.31807397253051434</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0.39005137075327057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1220377725</v>
+      </c>
+      <c r="C16">
+        <v>5.4029999999999996</v>
+      </c>
+      <c r="D16">
+        <v>225870391</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>4.4662224689987049</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>5.5587366246746148</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.29774816459991366</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.37058244164497434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1220206976</v>
+      </c>
+      <c r="C17">
+        <v>5.3380000000000001</v>
+      </c>
+      <c r="D17">
+        <v>228588792</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>4.5206069689022108</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>5.6256372712460907</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.28253793555638818</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0.35160232945288067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1214120248</v>
+      </c>
+      <c r="C18">
+        <v>5.3869999999999996</v>
+      </c>
+      <c r="D18">
+        <v>225379663</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>4.4794876554668654</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>5.5466596645459481</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.26349927385099209</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.32627409791446754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1214078569</v>
+      </c>
+      <c r="C19">
+        <v>5.5190000000000001</v>
+      </c>
+      <c r="D19">
+        <v>219981621</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>4.3723500634172856</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>5.4138122663806358</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.24290833685651586</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.30076734813225753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1200491038</v>
+      </c>
+      <c r="C20">
+        <v>5.5380000000000003</v>
+      </c>
+      <c r="D20">
+        <v>216773390</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4.3573492235464064</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>5.3348567597240928</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.22933416966033718</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0.28078193472232066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1254118391</v>
+      </c>
+      <c r="C21">
+        <v>5.5019999999999998</v>
+      </c>
+      <c r="D21">
+        <v>227938638</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>4.3858596873864055</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>5.6096367904593967</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0.21929298436932027</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0.28048183952296984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1221019914</v>
+      </c>
+      <c r="C22">
+        <v>5.3570000000000002</v>
+      </c>
+      <c r="D22">
+        <v>227929795</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>4.5045734552921406</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>5.6094191616336158</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0.21450349787105433</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0.26711519817302931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1251709851</v>
+      </c>
+      <c r="C23">
+        <v>5.3860000000000001</v>
+      </c>
+      <c r="D23">
+        <v>232400640</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>4.4803193464537694</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>5.7194479694588223</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0.20365087938426224</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0.25997490770267373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1257659174</v>
+      </c>
+      <c r="C24">
+        <v>5.4370000000000003</v>
+      </c>
+      <c r="D24">
+        <v>231314911</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>4.4382931763840352</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>5.6927278600631146</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0.19296926853843632</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>0.24750990695926586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1255599080</v>
+      </c>
+      <c r="C25">
+        <v>5.399</v>
+      </c>
+      <c r="D25">
+        <v>232561415</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>4.4695313947027229</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>5.7234046894028374</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.18623047477928012</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0.23847519539178488</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A698478-68FD-4AB6-BD61-F7BA433B8993}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -18016,7 +21683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76021593-133C-486A-80A9-D15B80E47575}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -18730,7 +22397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1584DABB-DA59-4F6D-AEA3-5CC171009C00}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -19456,7 +23123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A6F068-9D13-45DA-910B-7CFD747A89D6}">
   <dimension ref="A1:K24"/>
   <sheetViews>

--- a/benchmark/parallel_benchmark.xlsx
+++ b/benchmark/parallel_benchmark.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\egaroucid\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC69CBAA-FB9F-4A71-83D7-5DFB2FBB6AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900B6CB7-8A83-4942-81B0-2777DD05F915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45984" yWindow="-216" windowWidth="23232" windowHeight="25296" xr2:uid="{75C047C0-BFEA-499F-BA8B-EB1F29873334}"/>
   </bookViews>
   <sheets>
-    <sheet name="20230601_2" sheetId="8" r:id="rId1"/>
-    <sheet name="20230601" sheetId="7" r:id="rId2"/>
-    <sheet name="20230526" sheetId="6" r:id="rId3"/>
-    <sheet name="20221107_laptop" sheetId="4" r:id="rId4"/>
-    <sheet name="20220920_edax" sheetId="2" r:id="rId5"/>
-    <sheet name="20220920" sheetId="1" r:id="rId6"/>
+    <sheet name="20230601_3" sheetId="9" r:id="rId1"/>
+    <sheet name="20230601_2" sheetId="8" r:id="rId2"/>
+    <sheet name="20230601" sheetId="7" r:id="rId3"/>
+    <sheet name="20230526" sheetId="6" r:id="rId4"/>
+    <sheet name="20221107_laptop" sheetId="4" r:id="rId5"/>
+    <sheet name="20220920_edax" sheetId="2" r:id="rId6"/>
+    <sheet name="20220920" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="29">
   <si>
     <t>スレッド数 p(個)</t>
     <rPh sb="4" eb="5">
@@ -271,6 +272,13 @@
     <t>n_adleをatomicにした</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ybwcのwaitをちょっと最適化</t>
+    <rPh sb="14" eb="17">
+      <t>サイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -424,7 +432,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_2'!$E$1</c:f>
+              <c:f>'20230601_3'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -447,7 +455,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_2'!$A$2:$A$25</c:f>
+              <c:f>'20230601_3'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -528,7 +536,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_2'!$E$2:$E$25</c:f>
+              <c:f>'20230601_3'!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -536,73 +544,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6523937963587323</c:v>
+                  <c:v>1.6184139421777897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2122415816556829</c:v>
+                  <c:v>2.1437902648532567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6540669338243257</c:v>
+                  <c:v>2.5803984921917071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0078556523873816</c:v>
+                  <c:v>2.9027138357160167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.377670572019297</c:v>
+                  <c:v>3.2359535386277689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.754404780144017</c:v>
+                  <c:v>3.6356600910470411</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0410620052770447</c:v>
+                  <c:v>4.0031746031746032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1910381392166922</c:v>
+                  <c:v>4.1209150326797381</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.302141853932584</c:v>
+                  <c:v>4.1835166753972413</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3907901809711518</c:v>
+                  <c:v>4.273813770959686</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4184998196898659</c:v>
+                  <c:v>4.3231685312161678</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5354432722561544</c:v>
+                  <c:v>4.4018004776777513</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.511229749631811</c:v>
+                  <c:v>4.5086563793752354</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6105362182502345</c:v>
+                  <c:v>4.4791549822396703</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.6096689240030093</c:v>
+                  <c:v>4.4583178265723857</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.6490229557958642</c:v>
+                  <c:v>4.4417871709306631</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4042056074766354</c:v>
+                  <c:v>4.3545983278807707</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.4457547169811322</c:v>
+                  <c:v>4.3239487457137695</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.5228866740494649</c:v>
+                  <c:v>4.4245614035087719</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5778068372875023</c:v>
+                  <c:v>4.3349013931608464</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.4889173841362888</c:v>
+                  <c:v>4.4018004776777513</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.4856306058941975</c:v>
+                  <c:v>4.4583178265723857</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.5228866740494649</c:v>
+                  <c:v>4.4294694028471069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -610,7 +618,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D9D7-4605-AA4F-5223E05BFBD9}"/>
+              <c16:uniqueId val="{00000000-3C00-40B7-865C-53DC8CCF67ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -619,7 +627,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_2'!$F$1</c:f>
+              <c:f>'20230601_3'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -642,7 +650,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_2'!$A$2:$A$25</c:f>
+              <c:f>'20230601_3'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -723,7 +731,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_2'!$F$2:$F$25</c:f>
+              <c:f>'20230601_3'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -731,73 +739,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7056442229922395</c:v>
+                  <c:v>1.66618512039113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3285788164815111</c:v>
+                  <c:v>2.2846167443223364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8962873772134823</c:v>
+                  <c:v>2.8184465878501777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3574494288129415</c:v>
+                  <c:v>3.2702257010537394</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8572990411251031</c:v>
+                  <c:v>3.6437197184672061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2782003780797702</c:v>
+                  <c:v>4.1257558562826517</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6580182479058374</c:v>
+                  <c:v>4.5349948007467686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9311848682920001</c:v>
+                  <c:v>4.8674938133333701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1080816506552615</c:v>
+                  <c:v>5.0023784909742934</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2309922895788841</c:v>
+                  <c:v>5.1528912031215652</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4244711545418367</c:v>
+                  <c:v>5.2682564454075482</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4053593598460354</c:v>
+                  <c:v>5.2717260514010125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.451695087294711</c:v>
+                  <c:v>5.3281176680095745</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5517164577162932</c:v>
+                  <c:v>5.3738512308874054</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.6271419249159198</c:v>
+                  <c:v>5.5766624000112595</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.6477837628231589</c:v>
+                  <c:v>5.3668536928479211</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4003289010597468</c:v>
+                  <c:v>5.4250088234342595</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.509548274872655</c:v>
+                  <c:v>5.5277046550494138</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.6375386812503026</c:v>
+                  <c:v>5.5308631806176294</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.5978026428196319</c:v>
+                  <c:v>5.614438280773749</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7852487559807999</c:v>
+                  <c:v>5.6628072184928628</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.7595475688565054</c:v>
+                  <c:v>5.6326084710637785</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.7134198725027305</c:v>
+                  <c:v>5.6668804636996928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -805,7 +813,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D9D7-4605-AA4F-5223E05BFBD9}"/>
+              <c16:uniqueId val="{00000001-3C00-40B7-865C-53DC8CCF67ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -814,7 +822,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_2'!$G$1</c:f>
+              <c:f>'20230601_3'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -837,7 +845,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_2'!$A$2:$A$25</c:f>
+              <c:f>'20230601_3'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -918,7 +926,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_2'!$G$2:$G$25</c:f>
+              <c:f>'20230601_3'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1000,7 +1008,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D9D7-4605-AA4F-5223E05BFBD9}"/>
+              <c16:uniqueId val="{00000002-3C00-40B7-865C-53DC8CCF67ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1277,6 +1285,1146 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'20221107_laptop'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPS並列化効率 en(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20221107_laptop'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20221107_laptop'!$H$2:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57539915305330813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42815157070351445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48344675087343891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39390607926733051</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42780773097663816</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34903780141799079</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38879954247734178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34879269684618791</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31923266799670791</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27907029996799376</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A62-4798-B0B5-77AC5C4D6F5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1312555520"/>
+        <c:axId val="1312551776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1312555520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312551776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1312551776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312555520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Egaroucid 6</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+              <a:t>並列化効率 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>2022/09/20</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20221107_laptop'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>時間並列化効率 e(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20221107_laptop'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20221107_laptop'!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57926170990771375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4158946855192589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46483065057008727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37165679812311475</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39131201919683822</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31801583052921384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3443503643590593</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30931659693165975</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2742539159109646</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22938961827007945</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE6C-4B96-9001-0D71051CA1E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20221107_laptop'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPS並列化効率 en(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20221107_laptop'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20221107_laptop'!$H$2:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57539915305330813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42815157070351445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48344675087343891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39390607926733051</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42780773097663816</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34903780141799079</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38879954247734178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34879269684618791</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31923266799670791</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27907029996799376</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE6C-4B96-9001-0D71051CA1E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="833067248"/>
+        <c:axId val="833064336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="833067248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833064336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="833064336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833067248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'20220920_edax'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1658,7 +2806,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2094,7 +3242,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2794,7 +3942,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3230,7 +4378,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3666,7 +4814,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4458,7 +5606,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_2'!$H$1</c:f>
+              <c:f>'20230601_3'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4481,7 +5629,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_2'!$A$2:$A$25</c:f>
+              <c:f>'20230601_3'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4562,7 +5710,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_2'!$H$2:$H$25</c:f>
+              <c:f>'20230601_3'!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4570,73 +5718,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82619689817936615</c:v>
+                  <c:v>0.80920697108889483</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73741386055189428</c:v>
+                  <c:v>0.71459675495108554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66351673345608142</c:v>
+                  <c:v>0.64509962304792678</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60157113047747635</c:v>
+                  <c:v>0.5805427671432033</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56294509533654946</c:v>
+                  <c:v>0.53932558977129486</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53634354002057383</c:v>
+                  <c:v>0.51938001300672021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50513275065963059</c:v>
+                  <c:v>0.5003968253968254</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46567090435741026</c:v>
+                  <c:v>0.45787944807552644</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4302141853932584</c:v>
+                  <c:v>0.41835166753972414</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39916274372465016</c:v>
+                  <c:v>0.38852852463269871</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36820831830748885</c:v>
+                  <c:v>0.36026404426801401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34888025171201187</c:v>
+                  <c:v>0.33860003674444239</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3222306964022722</c:v>
+                  <c:v>0.32204688424108824</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.30736908121668233</c:v>
+                  <c:v>0.29861033214931137</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.28810430775018808</c:v>
+                  <c:v>0.27864486416077411</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27347193857622731</c:v>
+                  <c:v>0.261281598290039</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.24467808930425752</c:v>
+                  <c:v>0.24192212932670948</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.23398709036742801</c:v>
+                  <c:v>0.22757624977440893</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.22614433370247325</c:v>
+                  <c:v>0.22122807017543861</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.21799080177559535</c:v>
+                  <c:v>0.20642387586480221</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20404169927892221</c:v>
+                  <c:v>0.20008183989444325</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19502741764757381</c:v>
+                  <c:v>0.1938399055031472</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18845361141872771</c:v>
+                  <c:v>0.18456122511862946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4644,7 +5792,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3128-4D2E-A090-B7514F272744}"/>
+              <c16:uniqueId val="{00000000-014A-413F-B4F0-175B105BB3FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4653,7 +5801,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_2'!$I$1</c:f>
+              <c:f>'20230601_3'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4676,7 +5824,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_2'!$A$2:$A$25</c:f>
+              <c:f>'20230601_3'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4757,7 +5905,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_2'!$I$2:$I$25</c:f>
+              <c:f>'20230601_3'!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4765,73 +5913,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85282211149611975</c:v>
+                  <c:v>0.83309256019556499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77619293882717033</c:v>
+                  <c:v>0.76153891477411217</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72407184430337057</c:v>
+                  <c:v>0.70461164696254441</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67148988576258828</c:v>
+                  <c:v>0.65404514021074789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64288317352085056</c:v>
+                  <c:v>0.60728661974453435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61117148258282428</c:v>
+                  <c:v>0.58939369375466455</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58225228098822968</c:v>
+                  <c:v>0.56687435009334608</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54790942981022228</c:v>
+                  <c:v>0.54083264592593006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51080816506552618</c:v>
+                  <c:v>0.5002378490974293</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47554475359808035</c:v>
+                  <c:v>0.4684446548292332</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45203926287848639</c:v>
+                  <c:v>0.439021370450629</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.41579687383431041</c:v>
+                  <c:v>0.40551738856930863</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.38940679194962219</c:v>
+                  <c:v>0.38057983342925533</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37011443051441956</c:v>
+                  <c:v>0.35825674872582702</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.35169637030724499</c:v>
+                  <c:v>0.34854140000070372</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33222257428371521</c:v>
+                  <c:v>0.31569727604987774</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.30001827228109706</c:v>
+                  <c:v>0.30138937907968111</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28997622499329762</c:v>
+                  <c:v>0.29093182394996914</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28187693406251513</c:v>
+                  <c:v>0.27654315903088145</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.26656203061045869</c:v>
+                  <c:v>0.26735420384636899</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.26296585254458182</c:v>
+                  <c:v>0.25740032811331193</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.25041511168941327</c:v>
+                  <c:v>0.24489602048103384</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.23805916135428043</c:v>
+                  <c:v>0.23612001932082052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4839,7 +5987,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3128-4D2E-A090-B7514F272744}"/>
+              <c16:uniqueId val="{00000001-014A-413F-B4F0-175B105BB3FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5149,7 +6297,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$E$1</c:f>
+              <c:f>'20230601_2'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5172,7 +6320,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5253,7 +6401,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$E$2:$E$25</c:f>
+              <c:f>'20230601_2'!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5261,73 +6409,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6338953212810616</c:v>
+                  <c:v>1.6523937963587323</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1853830827748597</c:v>
+                  <c:v>2.2122415816556829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6132770197097681</c:v>
+                  <c:v>2.6540669338243257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9950353729676058</c:v>
+                  <c:v>3.0078556523873816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3464151990015254</c:v>
+                  <c:v>3.377670572019297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7033456108041745</c:v>
+                  <c:v>3.754404780144017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0325868983957216</c:v>
+                  <c:v>4.0410620052770447</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1526415419032867</c:v>
+                  <c:v>4.1910381392166922</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2785460992907804</c:v>
+                  <c:v>4.302141853932584</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4082937522835222</c:v>
+                  <c:v>4.3907901809711518</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4042708523453182</c:v>
+                  <c:v>4.4184998196898659</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4687037037037038</c:v>
+                  <c:v>4.5354432722561544</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4530356154272006</c:v>
+                  <c:v>4.511229749631811</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4662224689987049</c:v>
+                  <c:v>4.6105362182502345</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5206069689022108</c:v>
+                  <c:v>4.6096689240030093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4794876554668654</c:v>
+                  <c:v>4.6490229557958642</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3723500634172856</c:v>
+                  <c:v>4.4042056074766354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3573492235464064</c:v>
+                  <c:v>4.4457547169811322</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3858596873864055</c:v>
+                  <c:v>4.5228866740494649</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5045734552921406</c:v>
+                  <c:v>4.5778068372875023</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.4803193464537694</c:v>
+                  <c:v>4.4889173841362888</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.4382931763840352</c:v>
+                  <c:v>4.4856306058941975</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.4695313947027229</c:v>
+                  <c:v>4.5228866740494649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5335,7 +6483,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F8C8-4FE5-A128-296D20C91D65}"/>
+              <c16:uniqueId val="{00000000-D9D7-4605-AA4F-5223E05BFBD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5344,7 +6492,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$F$1</c:f>
+              <c:f>'20230601_2'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5367,7 +6515,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5448,7 +6596,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$F$2:$F$25</c:f>
+              <c:f>'20230601_2'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5456,73 +6604,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6849697603479148</c:v>
+                  <c:v>1.7056442229922395</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.291157713491097</c:v>
+                  <c:v>2.3285788164815111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8532476383224008</c:v>
+                  <c:v>2.8962873772134823</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2850813089644175</c:v>
+                  <c:v>3.3574494288129415</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7887617537531435</c:v>
+                  <c:v>3.8572990411251031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1859855009932225</c:v>
+                  <c:v>4.2782003780797702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5685306601435611</c:v>
+                  <c:v>4.6580182479058374</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8062917642833964</c:v>
+                  <c:v>4.9311848682920001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0634161489399219</c:v>
+                  <c:v>5.1080816506552615</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1843061683928822</c:v>
+                  <c:v>5.2309922895788841</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2883181532120718</c:v>
+                  <c:v>5.4244711545418367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3238114631006548</c:v>
+                  <c:v>5.4053593598460354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4607191905457881</c:v>
+                  <c:v>5.451695087294711</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5587366246746148</c:v>
+                  <c:v>5.5517164577162932</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.6256372712460907</c:v>
+                  <c:v>5.6271419249159198</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.5466596645459481</c:v>
+                  <c:v>5.6477837628231589</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4138122663806358</c:v>
+                  <c:v>5.4003289010597468</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3348567597240928</c:v>
+                  <c:v>5.509548274872655</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.6096367904593967</c:v>
+                  <c:v>5.6375386812503026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.6094191616336158</c:v>
+                  <c:v>5.5978026428196319</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7194479694588223</c:v>
+                  <c:v>5.7852487559807999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.6927278600631146</c:v>
+                  <c:v>5.7595475688565054</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.7234046894028374</c:v>
+                  <c:v>5.7134198725027305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5530,7 +6678,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F8C8-4FE5-A128-296D20C91D65}"/>
+              <c16:uniqueId val="{00000001-D9D7-4605-AA4F-5223E05BFBD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5539,7 +6687,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$G$1</c:f>
+              <c:f>'20230601_2'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5562,7 +6710,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5643,7 +6791,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$G$2:$G$25</c:f>
+              <c:f>'20230601_2'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5725,7 +6873,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F8C8-4FE5-A128-296D20C91D65}"/>
+              <c16:uniqueId val="{00000002-D9D7-4605-AA4F-5223E05BFBD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6035,7 +7183,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$H$1</c:f>
+              <c:f>'20230601_2'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6058,7 +7206,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6139,7 +7287,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$H$2:$H$25</c:f>
+              <c:f>'20230601_2'!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6147,73 +7295,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81694766064053082</c:v>
+                  <c:v>0.82619689817936615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7284610275916199</c:v>
+                  <c:v>0.73741386055189428</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65331925492744203</c:v>
+                  <c:v>0.66351673345608142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5990070745935212</c:v>
+                  <c:v>0.60157113047747635</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5577358665002542</c:v>
+                  <c:v>0.56294509533654946</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52904937297202492</c:v>
+                  <c:v>0.53634354002057383</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5040733622994652</c:v>
+                  <c:v>0.50513275065963059</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46140461576703184</c:v>
+                  <c:v>0.46567090435741026</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42785460992907803</c:v>
+                  <c:v>0.4302141853932584</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.40075397748032021</c:v>
+                  <c:v>0.39916274372465016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3670225710287765</c:v>
+                  <c:v>0.36820831830748885</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34374643874643873</c:v>
+                  <c:v>0.34888025171201187</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.31807397253051434</c:v>
+                  <c:v>0.3222306964022722</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29774816459991366</c:v>
+                  <c:v>0.30736908121668233</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.28253793555638818</c:v>
+                  <c:v>0.28810430775018808</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.26349927385099209</c:v>
+                  <c:v>0.27347193857622731</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.24290833685651586</c:v>
+                  <c:v>0.24467808930425752</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.22933416966033718</c:v>
+                  <c:v>0.23398709036742801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.21929298436932027</c:v>
+                  <c:v>0.22614433370247325</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.21450349787105433</c:v>
+                  <c:v>0.21799080177559535</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20365087938426224</c:v>
+                  <c:v>0.20404169927892221</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19296926853843632</c:v>
+                  <c:v>0.19502741764757381</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18623047477928012</c:v>
+                  <c:v>0.18845361141872771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6221,7 +7369,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A041-4DA6-B6C6-E6F68ABF0162}"/>
+              <c16:uniqueId val="{00000000-3128-4D2E-A090-B7514F272744}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6230,7 +7378,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$I$1</c:f>
+              <c:f>'20230601_2'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6253,7 +7401,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6334,7 +7482,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$I$2:$I$25</c:f>
+              <c:f>'20230601_2'!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6342,73 +7490,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8424848801739574</c:v>
+                  <c:v>0.85282211149611975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76371923783036566</c:v>
+                  <c:v>0.77619293882717033</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7133119095806002</c:v>
+                  <c:v>0.72407184430337057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65701626179288353</c:v>
+                  <c:v>0.67148988576258828</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63146029229219058</c:v>
+                  <c:v>0.64288317352085056</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59799792871331747</c:v>
+                  <c:v>0.61117148258282428</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57106633251794514</c:v>
+                  <c:v>0.58225228098822968</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53403241825371073</c:v>
+                  <c:v>0.54790942981022228</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50634161489399221</c:v>
+                  <c:v>0.51080816506552618</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47130056076298926</c:v>
+                  <c:v>0.47554475359808035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.44069317943433933</c:v>
+                  <c:v>0.45203926287848639</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40952395870005037</c:v>
+                  <c:v>0.41579687383431041</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39005137075327057</c:v>
+                  <c:v>0.38940679194962219</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37058244164497434</c:v>
+                  <c:v>0.37011443051441956</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.35160232945288067</c:v>
+                  <c:v>0.35169637030724499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.32627409791446754</c:v>
+                  <c:v>0.33222257428371521</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.30076734813225753</c:v>
+                  <c:v>0.30001827228109706</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28078193472232066</c:v>
+                  <c:v>0.28997622499329762</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28048183952296984</c:v>
+                  <c:v>0.28187693406251513</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.26711519817302931</c:v>
+                  <c:v>0.26656203061045869</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.25997490770267373</c:v>
+                  <c:v>0.26296585254458182</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.24750990695926586</c:v>
+                  <c:v>0.25041511168941327</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.23847519539178488</c:v>
+                  <c:v>0.23805916135428043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6416,7 +7564,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A041-4DA6-B6C6-E6F68ABF0162}"/>
+              <c16:uniqueId val="{00000001-3128-4D2E-A090-B7514F272744}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6726,7 +7874,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$E$1</c:f>
+              <c:f>'20230601'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6749,7 +7897,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6830,7 +7978,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$E$2:$E$25</c:f>
+              <c:f>'20230601'!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6838,73 +7986,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.113042236083996</c:v>
+                  <c:v>1.6338953212810616</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5991653554080865</c:v>
+                  <c:v>2.1853830827748597</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1197968622472114</c:v>
+                  <c:v>2.6132770197097681</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.570093457943925</c:v>
+                  <c:v>2.9950353729676058</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7757985987412424</c:v>
+                  <c:v>3.3464151990015254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0768724496511779</c:v>
+                  <c:v>3.7033456108041745</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3326204733390359</c:v>
+                  <c:v>4.0325868983957216</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6128284389489953</c:v>
+                  <c:v>4.1526415419032867</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9305532201109803</c:v>
+                  <c:v>4.2785460992907804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1592526690391463</c:v>
+                  <c:v>4.4082937522835222</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.389671361502347</c:v>
+                  <c:v>4.4042708523453182</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4642857142857144</c:v>
+                  <c:v>4.4687037037037038</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5770511063246522</c:v>
+                  <c:v>4.4530356154272006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6918908069048575</c:v>
+                  <c:v>4.4662224689987049</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7743055555555554</c:v>
+                  <c:v>4.5206069689022108</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7461928934010151</c:v>
+                  <c:v>4.4794876554668654</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.8819966583124472</c:v>
+                  <c:v>4.3723500634172856</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8647242455775235</c:v>
+                  <c:v>4.3573492235464064</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.010718113612004</c:v>
+                  <c:v>4.3858596873864055</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8536129568106317</c:v>
+                  <c:v>4.5045734552921406</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.8017666392769103</c:v>
+                  <c:v>4.4803193464537694</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.7597230706577074</c:v>
+                  <c:v>4.4382931763840352</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.8067036808554384</c:v>
+                  <c:v>4.4695313947027229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6912,7 +8060,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-75E1-40E3-BD0C-BA7F77C303A8}"/>
+              <c16:uniqueId val="{00000000-F8C8-4FE5-A128-296D20C91D65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6921,7 +8069,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$F$1</c:f>
+              <c:f>'20230601'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6944,7 +8092,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7025,7 +8173,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$F$2:$F$25</c:f>
+              <c:f>'20230601'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7033,73 +8181,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1162082083449918</c:v>
+                  <c:v>1.6849697603479148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6613317779316894</c:v>
+                  <c:v>2.291157713491097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2438468498980595</c:v>
+                  <c:v>2.8532476383224008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7857582674795132</c:v>
+                  <c:v>3.2850813089644175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0609617541932517</c:v>
+                  <c:v>3.7887617537531435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.403457920658544</c:v>
+                  <c:v>4.1859855009932225</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7569881446554998</c:v>
+                  <c:v>4.5685306601435611</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1319703098955962</c:v>
+                  <c:v>4.8062917642833964</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5184290850253834</c:v>
+                  <c:v>5.0634161489399219</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8599496767143577</c:v>
+                  <c:v>5.1843061683928822</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1988288287150013</c:v>
+                  <c:v>5.2883181532120718</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2719421781171212</c:v>
+                  <c:v>5.3238114631006548</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4654682693368315</c:v>
+                  <c:v>5.4607191905457881</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6355195850516191</c:v>
+                  <c:v>5.5587366246746148</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.8166107035640842</c:v>
+                  <c:v>5.6256372712460907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0035319320812297</c:v>
+                  <c:v>5.5466596645459481</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.0662577213335718</c:v>
+                  <c:v>5.4138122663806358</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.2447032044447663</c:v>
+                  <c:v>5.3348567597240928</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.2141290442530668</c:v>
+                  <c:v>5.6096367904593967</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.131415403020041</c:v>
+                  <c:v>5.6094191616336158</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.1323287334413266</c:v>
+                  <c:v>5.7194479694588223</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.2212522682179108</c:v>
+                  <c:v>5.6927278600631146</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.2245083321733539</c:v>
+                  <c:v>5.7234046894028374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7107,7 +8255,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-75E1-40E3-BD0C-BA7F77C303A8}"/>
+              <c16:uniqueId val="{00000001-F8C8-4FE5-A128-296D20C91D65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7116,7 +8264,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$G$1</c:f>
+              <c:f>'20230601'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7139,7 +8287,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7220,7 +8368,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$G$2:$G$25</c:f>
+              <c:f>'20230601'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7302,7 +8450,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-75E1-40E3-BD0C-BA7F77C303A8}"/>
+              <c16:uniqueId val="{00000002-F8C8-4FE5-A128-296D20C91D65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7612,7 +8760,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$H$1</c:f>
+              <c:f>'20230601'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7635,7 +8783,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7716,7 +8864,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$H$2:$H$25</c:f>
+              <c:f>'20230601'!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7724,73 +8872,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.556521118041998</c:v>
+                  <c:v>0.81694766064053082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53305511846936215</c:v>
+                  <c:v>0.7284610275916199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52994921556180286</c:v>
+                  <c:v>0.65331925492744203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51401869158878499</c:v>
+                  <c:v>0.5990070745935212</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46263309979020706</c:v>
+                  <c:v>0.5577358665002542</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43955320709302542</c:v>
+                  <c:v>0.52904937297202492</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41657755916737949</c:v>
+                  <c:v>0.5040733622994652</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.40142538210544393</c:v>
+                  <c:v>0.46140461576703184</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39305532201109805</c:v>
+                  <c:v>0.42785460992907803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37811387900355875</c:v>
+                  <c:v>0.40075397748032021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36580594679186224</c:v>
+                  <c:v>0.3670225710287765</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34340659340659341</c:v>
+                  <c:v>0.34374643874643873</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.32693222188033227</c:v>
+                  <c:v>0.31807397253051434</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.31279272046032386</c:v>
+                  <c:v>0.29774816459991366</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.29839409722222221</c:v>
+                  <c:v>0.28253793555638818</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27918781725888325</c:v>
+                  <c:v>0.26349927385099209</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.27122203657291372</c:v>
+                  <c:v>0.24290833685651586</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2560381181882907</c:v>
+                  <c:v>0.22933416966033718</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.25053590568060019</c:v>
+                  <c:v>0.21929298436932027</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.23112442651479198</c:v>
+                  <c:v>0.21450349787105433</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2182621199671323</c:v>
+                  <c:v>0.20365087938426224</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2069444813329438</c:v>
+                  <c:v>0.19296926853843632</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.20027932003564328</c:v>
+                  <c:v>0.18623047477928012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7798,7 +8946,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D809-4975-8181-8A5ADF1F31D5}"/>
+              <c16:uniqueId val="{00000000-A041-4DA6-B6C6-E6F68ABF0162}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7807,7 +8955,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$I$1</c:f>
+              <c:f>'20230601'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7830,7 +8978,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7911,7 +9059,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$I$2:$I$25</c:f>
+              <c:f>'20230601'!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7919,73 +9067,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5581041041724959</c:v>
+                  <c:v>0.8424848801739574</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5537772593105631</c:v>
+                  <c:v>0.76371923783036566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56096171247451487</c:v>
+                  <c:v>0.7133119095806002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55715165349590268</c:v>
+                  <c:v>0.65701626179288353</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51016029236554195</c:v>
+                  <c:v>0.63146029229219058</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48620827437979203</c:v>
+                  <c:v>0.59799792871331747</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46962351808193747</c:v>
+                  <c:v>0.57106633251794514</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4591078122106218</c:v>
+                  <c:v>0.53403241825371073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45184290850253833</c:v>
+                  <c:v>0.50634161489399221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44181360697403255</c:v>
+                  <c:v>0.47130056076298926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.43323573572625013</c:v>
+                  <c:v>0.44069317943433933</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40553401370131703</c:v>
+                  <c:v>0.40952395870005037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39039059066691656</c:v>
+                  <c:v>0.39005137075327057</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37570130567010795</c:v>
+                  <c:v>0.37058244164497434</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36353816897275526</c:v>
+                  <c:v>0.35160232945288067</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.35314893718124879</c:v>
+                  <c:v>0.32627409791446754</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33701431785186509</c:v>
+                  <c:v>0.30076734813225753</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.32866858970761931</c:v>
+                  <c:v>0.28078193472232066</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.31070645221265336</c:v>
+                  <c:v>0.28048183952296984</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2919721620485734</c:v>
+                  <c:v>0.26711519817302931</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.27874221515642394</c:v>
+                  <c:v>0.25997490770267373</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.27048922905295264</c:v>
+                  <c:v>0.24750990695926586</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.25935451384055641</c:v>
+                  <c:v>0.23847519539178488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7993,7 +9141,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D809-4975-8181-8A5ADF1F31D5}"/>
+              <c16:uniqueId val="{00000001-A041-4DA6-B6C6-E6F68ABF0162}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8230,6 +9378,1583 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>速度</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>/NPS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>向上率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>速度向上率st(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.113042236083996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5991653554080865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1197968622472114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.570093457943925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7757985987412424</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0768724496511779</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3326204733390359</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6128284389489953</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9305532201109803</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1592526690391463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.389671361502347</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4642857142857144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5770511063246522</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6918908069048575</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7743055555555554</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7461928934010151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8819966583124472</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8647242455775235</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.010718113612004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8536129568106317</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.8017666392769103</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7597230706577074</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8067036808554384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75E1-40E3-BD0C-BA7F77C303A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nps向上率sn(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1162082083449918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6613317779316894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2438468498980595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7857582674795132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0609617541932517</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.403457920658544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7569881446554998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1319703098955962</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5184290850253834</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8599496767143577</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1988288287150013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2719421781171212</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4654682693368315</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6355195850516191</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8166107035640842</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0035319320812297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0662577213335718</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2447032044447663</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2141290442530668</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.131415403020041</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.1323287334413266</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.2212522682179108</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.2245083321733539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75E1-40E3-BD0C-BA7F77C303A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>線形向上率(参考)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$G$2:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-75E1-40E3-BD0C-BA7F77C303A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="579350928"/>
+        <c:axId val="579352368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="579350928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579352368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="579352368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579350928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>/NPS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>並列化効率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>時間並列化効率et(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$H$2:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.556521118041998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53305511846936215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52994921556180286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51401869158878499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46263309979020706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43955320709302542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41657755916737949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40142538210544393</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39305532201109805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37811387900355875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36580594679186224</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34340659340659341</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32693222188033227</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31279272046032386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29839409722222221</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27918781725888325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27122203657291372</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2560381181882907</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25053590568060019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23112442651479198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2182621199671323</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2069444813329438</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20027932003564328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D809-4975-8181-8A5ADF1F31D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nps並列化効率en(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$I$2:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5581041041724959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5537772593105631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56096171247451487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55715165349590268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51016029236554195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48620827437979203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46962351808193747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4591078122106218</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45184290850253833</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44181360697403255</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43323573572625013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40553401370131703</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39039059066691656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.37570130567010795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36353816897275526</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35314893718124879</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.33701431785186509</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32866858970761931</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.31070645221265336</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2919721620485734</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27874221515642394</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27048922905295264</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25935451384055641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D809-4975-8181-8A5ADF1F31D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="579628432"/>
+        <c:axId val="579623632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="579628432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579623632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="579623632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579628432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8607,1146 +11332,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'20221107_laptop'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NPS並列化効率 en(p)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'20221107_laptop'!$A$2:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'20221107_laptop'!$H$2:$H$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.57539915305330813</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.42815157070351445</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.48344675087343891</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.39390607926733051</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.42780773097663816</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.34903780141799079</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.38879954247734178</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.34879269684618791</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.31923266799670791</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.27907029996799376</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A62-4798-B0B5-77AC5C4D6F5A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1312555520"/>
-        <c:axId val="1312551776"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1312555520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1312551776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1312551776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1312555520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Egaroucid 6</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
-              <a:t>並列化効率 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>2022/09/20</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'20221107_laptop'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>時間並列化効率 e(p)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'20221107_laptop'!$A$2:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'20221107_laptop'!$D$2:$D$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.57926170990771375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4158946855192589</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.46483065057008727</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.37165679812311475</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.39131201919683822</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.31801583052921384</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.3443503643590593</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.30931659693165975</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2742539159109646</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.22938961827007945</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BE6C-4B96-9001-0D71051CA1E4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'20221107_laptop'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NPS並列化効率 en(p)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'20221107_laptop'!$A$2:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'20221107_laptop'!$H$2:$H$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.57539915305330813</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.42815157070351445</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.48344675087343891</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.39390607926733051</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.42780773097663816</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.34903780141799079</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.38879954247734178</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.34879269684618791</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.31923266799670791</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.27907029996799376</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BE6C-4B96-9001-0D71051CA1E4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="833067248"/>
-        <c:axId val="833064336"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="833067248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="833064336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="833064336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="833067248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -10032,6 +11617,86 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14003,7 +15668,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14519,7 +16184,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15035,7 +16700,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15551,7 +17216,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16067,7 +17732,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16583,7 +18248,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17099,7 +18764,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17615,7 +19280,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18131,7 +19796,1120 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF2A8ED-F9EF-40B2-933D-C1555E15B3C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADA4EE93-8257-4AC4-B458-4B0939682FBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18212,7 +20990,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18293,7 +21071,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18370,7 +21148,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18489,7 +21267,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18608,7 +21386,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19017,10 +21795,899 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC2CD64-95BE-4BE4-9B8B-87FFABEE640E}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>980524678</v>
+      </c>
+      <c r="C2">
+        <v>23.959</v>
+      </c>
+      <c r="D2">
+        <v>40925108</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E25" si="0">C$2/C2</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F25" si="1">D2/D$2</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H25" si="2">E2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I25" si="3">F2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1009467094</v>
+      </c>
+      <c r="C3">
+        <v>14.804</v>
+      </c>
+      <c r="D3">
+        <v>68188806</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>1.6184139421777897</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>1.66618512039113</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G25" si="4">A3</f>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="2"/>
+        <v>0.80920697108889483</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="3"/>
+        <v>0.83309256019556499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1044935743</v>
+      </c>
+      <c r="C4">
+        <v>11.176</v>
+      </c>
+      <c r="D4">
+        <v>93498187</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.1437902648532567</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>2.2846167443223364</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.71459675495108554</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0.76153891477411217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1070980470</v>
+      </c>
+      <c r="C5">
+        <v>9.2850000000000001</v>
+      </c>
+      <c r="D5">
+        <v>115345231</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2.5803984921917071</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2.8184465878501777</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.64509962304792678</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.70461164696254441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1104668646</v>
+      </c>
+      <c r="C6">
+        <v>8.2539999999999996</v>
+      </c>
+      <c r="D6">
+        <v>133834340</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2.9027138357160167</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3.2702257010537394</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.5805427671432033</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.65404514021074789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1104081694</v>
+      </c>
+      <c r="C7">
+        <v>7.4039999999999999</v>
+      </c>
+      <c r="D7">
+        <v>149119623</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>3.2359535386277689</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3.6437197184672061</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.53932558977129486</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.60728661974453435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1112701760</v>
+      </c>
+      <c r="C8">
+        <v>6.59</v>
+      </c>
+      <c r="D8">
+        <v>168847004</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3.6356600910470411</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4.1257558562826517</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.51938001300672021</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.58939369375466455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1110786988</v>
+      </c>
+      <c r="C9">
+        <v>5.9850000000000003</v>
+      </c>
+      <c r="D9">
+        <v>185595152</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4.0031746031746032</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>4.5349948007467686</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.5003968253968254</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.56687435009334608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1158164556</v>
+      </c>
+      <c r="C10">
+        <v>5.8140000000000001</v>
+      </c>
+      <c r="D10">
+        <v>199202710</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4.1209150326797381</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>4.8674938133333701</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.45787944807552644</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0.54083264592593006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1172447937</v>
+      </c>
+      <c r="C11">
+        <v>5.7270000000000003</v>
+      </c>
+      <c r="D11">
+        <v>204722880</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4.1835166753972413</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>5.0023784909742934</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.41835166753972414</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0.5002378490974293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1182208020</v>
+      </c>
+      <c r="C12">
+        <v>5.6059999999999999</v>
+      </c>
+      <c r="D12">
+        <v>210882629</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4.273813770959686</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>5.1528912031215652</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.38852852463269871</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0.4684446548292332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1194877174</v>
+      </c>
+      <c r="C13">
+        <v>5.5419999999999998</v>
+      </c>
+      <c r="D13">
+        <v>215603964</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>4.3231685312161678</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>5.2682564454075482</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.36026404426801401</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0.439021370450629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1174305253</v>
+      </c>
+      <c r="C14">
+        <v>5.4429999999999996</v>
+      </c>
+      <c r="D14">
+        <v>215745958</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4.4018004776777513</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>5.2717260514010125</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.33860003674444239</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0.40551738856930863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1158737850</v>
+      </c>
+      <c r="C15">
+        <v>5.3140000000000001</v>
+      </c>
+      <c r="D15">
+        <v>218053791</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4.5086563793752354</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>5.3281176680095745</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.32204688424108824</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0.38057983342925533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1176381193</v>
+      </c>
+      <c r="C16">
+        <v>5.3490000000000002</v>
+      </c>
+      <c r="D16">
+        <v>219925442</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>4.4791549822396703</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>5.3738512308874054</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.29861033214931137</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.35825674872582702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1226483897</v>
+      </c>
+      <c r="C17">
+        <v>5.3739999999999997</v>
+      </c>
+      <c r="D17">
+        <v>228225511</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>4.4583178265723857</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>5.5766624000112595</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.27864486416077411</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0.34854140000070372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1184733128</v>
+      </c>
+      <c r="C18">
+        <v>5.3940000000000001</v>
+      </c>
+      <c r="D18">
+        <v>219639067</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>4.4417871709306631</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>5.3668536928479211</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.261281598290039</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.31569727604987774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1221548938</v>
+      </c>
+      <c r="C19">
+        <v>5.5019999999999998</v>
+      </c>
+      <c r="D19">
+        <v>222019072</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>4.3545983278807707</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>5.4250088234342595</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.24192212932670948</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.30138937907968111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1253495604</v>
+      </c>
+      <c r="C20">
+        <v>5.5410000000000004</v>
+      </c>
+      <c r="D20">
+        <v>226221910</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4.3239487457137695</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>5.5277046550494138</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.22757624977440893</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0.29093182394996914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1225691602</v>
+      </c>
+      <c r="C21">
+        <v>5.415</v>
+      </c>
+      <c r="D21">
+        <v>226351173</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>4.4245614035087719</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>5.5308631806176294</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0.22122807017543861</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0.27654315903088145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1269947047</v>
+      </c>
+      <c r="C22">
+        <v>5.5270000000000001</v>
+      </c>
+      <c r="D22">
+        <v>229771493</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>4.3349013931608464</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>5.614438280773749</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0.20642387586480221</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0.26735420384636899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1261420680</v>
+      </c>
+      <c r="C23">
+        <v>5.4429999999999996</v>
+      </c>
+      <c r="D23">
+        <v>231750997</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>4.4018004776777513</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>5.6628072184928628</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0.20008183989444325</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0.25740032811331193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1238788203</v>
+      </c>
+      <c r="C24">
+        <v>5.3739999999999997</v>
+      </c>
+      <c r="D24">
+        <v>230515110</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>4.4583178265723857</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>5.6326084710637785</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0.1938399055031472</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>0.24489602048103384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1254442817</v>
+      </c>
+      <c r="C25">
+        <v>5.4089999999999998</v>
+      </c>
+      <c r="D25">
+        <v>231917695</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>4.4294694028471069</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>5.6668804636996928</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.18456122511862946</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0.23612001932082052</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DE268C-975E-4488-A318-D18B0F641550}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -19908,7 +23575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40D577C-1FC9-441B-9BD6-25BD6679A0C9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -20797,7 +24464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A698478-68FD-4AB6-BD61-F7BA433B8993}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -21683,7 +25350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76021593-133C-486A-80A9-D15B80E47575}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -22397,7 +26064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1584DABB-DA59-4F6D-AEA3-5CC171009C00}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -23123,7 +26790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A6F068-9D13-45DA-910B-7CFD747A89D6}">
   <dimension ref="A1:K24"/>
   <sheetViews>

--- a/benchmark/parallel_benchmark.xlsx
+++ b/benchmark/parallel_benchmark.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\egaroucid\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900B6CB7-8A83-4942-81B0-2777DD05F915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571765D2-281C-4ED3-89CC-0B34F294022B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45984" yWindow="-216" windowWidth="23232" windowHeight="25296" xr2:uid="{75C047C0-BFEA-499F-BA8B-EB1F29873334}"/>
   </bookViews>
   <sheets>
-    <sheet name="20230601_3" sheetId="9" r:id="rId1"/>
-    <sheet name="20230601_2" sheetId="8" r:id="rId2"/>
-    <sheet name="20230601" sheetId="7" r:id="rId3"/>
-    <sheet name="20230526" sheetId="6" r:id="rId4"/>
-    <sheet name="20221107_laptop" sheetId="4" r:id="rId5"/>
-    <sheet name="20220920_edax" sheetId="2" r:id="rId6"/>
-    <sheet name="20220920" sheetId="1" r:id="rId7"/>
+    <sheet name="20230601_4" sheetId="10" r:id="rId1"/>
+    <sheet name="20230601_3" sheetId="9" r:id="rId2"/>
+    <sheet name="20230601_2" sheetId="8" r:id="rId3"/>
+    <sheet name="20230601" sheetId="7" r:id="rId4"/>
+    <sheet name="20230526" sheetId="6" r:id="rId5"/>
+    <sheet name="20221107_laptop" sheetId="4" r:id="rId6"/>
+    <sheet name="20220920_edax" sheetId="2" r:id="rId7"/>
+    <sheet name="20220920" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
   <si>
     <t>スレッド数 p(個)</t>
     <rPh sb="4" eb="5">
@@ -279,6 +280,14 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>midsearchのsplit depthを4にした</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -432,7 +441,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_3'!$E$1</c:f>
+              <c:f>'20230601_4'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -455,7 +464,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_3'!$A$2:$A$25</c:f>
+              <c:f>'20230601_4'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -536,7 +545,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_3'!$E$2:$E$25</c:f>
+              <c:f>'20230601_4'!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -544,73 +553,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6184139421777897</c:v>
+                  <c:v>1.6216143194866599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1437902648532567</c:v>
+                  <c:v>2.1833393961440524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5803984921917071</c:v>
+                  <c:v>2.5977061242155375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9027138357160167</c:v>
+                  <c:v>3.0401418260098771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2359535386277689</c:v>
+                  <c:v>3.3516682954069523</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6356600910470411</c:v>
+                  <c:v>3.6912669126691267</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0031746031746032</c:v>
+                  <c:v>3.9748344370860926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1209150326797381</c:v>
+                  <c:v>4.1180102915951968</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1835166753972413</c:v>
+                  <c:v>4.2688477951635848</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.273813770959686</c:v>
+                  <c:v>4.4010999083409716</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3231685312161678</c:v>
+                  <c:v>4.4099926524614252</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4018004776777513</c:v>
+                  <c:v>4.4409914909359971</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5086563793752354</c:v>
+                  <c:v>4.3770282588878757</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4791549822396703</c:v>
+                  <c:v>4.5195783132530121</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.4583178265723857</c:v>
+                  <c:v>4.4992503748125934</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4417871709306631</c:v>
+                  <c:v>4.5392323690678769</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3545983278807707</c:v>
+                  <c:v>4.354007979688066</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3239487457137695</c:v>
+                  <c:v>4.4229918938835668</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.4245614035087719</c:v>
+                  <c:v>4.4303377006827827</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.3349013931608464</c:v>
+                  <c:v>4.370653559075186</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.4018004776777513</c:v>
+                  <c:v>4.4492216456634539</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.4583178265723857</c:v>
+                  <c:v>4.4393491124260347</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.4294694028471069</c:v>
+                  <c:v>4.4303377006827827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -618,7 +627,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3C00-40B7-865C-53DC8CCF67ED}"/>
+              <c16:uniqueId val="{00000000-E781-4F84-887A-354EC1C5B279}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -627,7 +636,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_3'!$F$1</c:f>
+              <c:f>'20230601_4'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -650,7 +659,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_3'!$A$2:$A$25</c:f>
+              <c:f>'20230601_4'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -731,7 +740,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_3'!$F$2:$F$25</c:f>
+              <c:f>'20230601_4'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -739,73 +748,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.66618512039113</c:v>
+                  <c:v>1.6809077520204234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2846167443223364</c:v>
+                  <c:v>2.3229541461686627</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8184465878501777</c:v>
+                  <c:v>2.8517524727931121</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2702257010537394</c:v>
+                  <c:v>3.3069976865114454</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6437197184672061</c:v>
+                  <c:v>3.7679518113372836</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1257558562826517</c:v>
+                  <c:v>4.1804287037435683</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5349948007467686</c:v>
+                  <c:v>4.5428996287452517</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8674938133333701</c:v>
+                  <c:v>4.8121786080381739</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0023784909742934</c:v>
+                  <c:v>4.9564923092849993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1528912031215652</c:v>
+                  <c:v>5.0603586109648395</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2682564454075482</c:v>
+                  <c:v>5.2338716754104784</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2717260514010125</c:v>
+                  <c:v>5.2448931343936795</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3281176680095745</c:v>
+                  <c:v>5.3878912345143402</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3738512308874054</c:v>
+                  <c:v>5.3778469824987614</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5766624000112595</c:v>
+                  <c:v>5.4603317729766232</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3668536928479211</c:v>
+                  <c:v>5.5713425973456641</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4250088234342595</c:v>
+                  <c:v>5.3065404594325045</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.5277046550494138</c:v>
+                  <c:v>5.4386890206992273</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.5308631806176294</c:v>
+                  <c:v>5.5125266064676364</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.614438280773749</c:v>
+                  <c:v>5.4095520668624077</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.6628072184928628</c:v>
+                  <c:v>5.5318284189027258</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.6326084710637785</c:v>
+                  <c:v>5.6305286286389054</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.6668804636996928</c:v>
+                  <c:v>5.6562840450245275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -813,7 +822,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3C00-40B7-865C-53DC8CCF67ED}"/>
+              <c16:uniqueId val="{00000001-E781-4F84-887A-354EC1C5B279}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -822,7 +831,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_3'!$G$1</c:f>
+              <c:f>'20230601_4'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -845,7 +854,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_3'!$A$2:$A$25</c:f>
+              <c:f>'20230601_4'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -926,7 +935,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_3'!$G$2:$G$25</c:f>
+              <c:f>'20230601_4'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1008,7 +1017,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3C00-40B7-865C-53DC8CCF67ED}"/>
+              <c16:uniqueId val="{00000002-E781-4F84-887A-354EC1C5B279}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1245,6 +1254,1133 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>/NPS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>並列化効率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>時間並列化効率et(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$H$2:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.556521118041998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53305511846936215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52994921556180286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51401869158878499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46263309979020706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43955320709302542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41657755916737949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40142538210544393</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39305532201109805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37811387900355875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36580594679186224</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34340659340659341</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32693222188033227</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31279272046032386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29839409722222221</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27918781725888325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27122203657291372</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2560381181882907</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25053590568060019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23112442651479198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2182621199671323</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2069444813329438</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20027932003564328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D809-4975-8181-8A5ADF1F31D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nps並列化効率en(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$I$2:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5581041041724959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5537772593105631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56096171247451487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55715165349590268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51016029236554195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48620827437979203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46962351808193747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4591078122106218</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45184290850253833</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44181360697403255</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43323573572625013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40553401370131703</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39039059066691656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.37570130567010795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36353816897275526</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35314893718124879</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.33701431785186509</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32866858970761931</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.31070645221265336</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2919721620485734</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27874221515642394</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27048922905295264</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25935451384055641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D809-4975-8181-8A5ADF1F31D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="579628432"/>
+        <c:axId val="579623632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="579628432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579623632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="579623632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579628432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20221107_laptop'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>時間並列化効率 e(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20221107_laptop'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20221107_laptop'!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57926170990771375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4158946855192589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46483065057008727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37165679812311475</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39131201919683822</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31801583052921384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3443503643590593</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30931659693165975</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2742539159109646</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22938961827007945</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1961-4CF3-997F-22435F2C9B3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1477077008"/>
+        <c:axId val="1477077840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1477077008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1477077840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1477077840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1477077008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1666,7 +2802,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2370,7 +3506,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2806,7 +3942,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3242,7 +4378,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3942,7 +5078,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4378,7 +5514,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4814,7 +5950,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5606,7 +6742,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_3'!$H$1</c:f>
+              <c:f>'20230601_4'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5629,7 +6765,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_3'!$A$2:$A$25</c:f>
+              <c:f>'20230601_4'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5710,7 +6846,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_3'!$H$2:$H$25</c:f>
+              <c:f>'20230601_4'!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5718,73 +6854,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80920697108889483</c:v>
+                  <c:v>0.81080715974332995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71459675495108554</c:v>
+                  <c:v>0.72777979871468412</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64509962304792678</c:v>
+                  <c:v>0.64942653105388437</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5805427671432033</c:v>
+                  <c:v>0.60802836520197545</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53932558977129486</c:v>
+                  <c:v>0.55861138256782539</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51938001300672021</c:v>
+                  <c:v>0.52732384466701809</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5003968253968254</c:v>
+                  <c:v>0.49685430463576158</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.45787944807552644</c:v>
+                  <c:v>0.457556699066133</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41835166753972414</c:v>
+                  <c:v>0.4268847795163585</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38852852463269871</c:v>
+                  <c:v>0.40009999166736104</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36026404426801401</c:v>
+                  <c:v>0.36749938770511875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.33860003674444239</c:v>
+                  <c:v>0.34161473007199977</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.32204688424108824</c:v>
+                  <c:v>0.31264487563484827</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29861033214931137</c:v>
+                  <c:v>0.30130522088353412</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.27864486416077411</c:v>
+                  <c:v>0.28120314842578709</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.261281598290039</c:v>
+                  <c:v>0.26701366876869864</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.24192212932670948</c:v>
+                  <c:v>0.24188933220489256</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.22757624977440893</c:v>
+                  <c:v>0.23278904704650352</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.22122807017543861</c:v>
+                  <c:v>0.22151688503413913</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.20642387586480221</c:v>
+                  <c:v>0.20812635995596124</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20008183989444325</c:v>
+                  <c:v>0.20223734753015699</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1938399055031472</c:v>
+                  <c:v>0.19301517880113195</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18456122511862946</c:v>
+                  <c:v>0.18459740419511594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5792,7 +6928,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-014A-413F-B4F0-175B105BB3FD}"/>
+              <c16:uniqueId val="{00000000-2A7E-43D5-8FCD-A073E0C5C57D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5801,7 +6937,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_3'!$I$1</c:f>
+              <c:f>'20230601_4'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5824,7 +6960,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_3'!$A$2:$A$25</c:f>
+              <c:f>'20230601_4'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5905,7 +7041,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_3'!$I$2:$I$25</c:f>
+              <c:f>'20230601_4'!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5913,73 +7049,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83309256019556499</c:v>
+                  <c:v>0.84045387601021171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76153891477411217</c:v>
+                  <c:v>0.77431804872288756</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70461164696254441</c:v>
+                  <c:v>0.71293811819827801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65404514021074789</c:v>
+                  <c:v>0.66139953730228906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60728661974453435</c:v>
+                  <c:v>0.62799196855621398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58939369375466455</c:v>
+                  <c:v>0.59720410053479545</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56687435009334608</c:v>
+                  <c:v>0.56786245359315646</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54083264592593006</c:v>
+                  <c:v>0.53468651200424155</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5002378490974293</c:v>
+                  <c:v>0.49564923092849994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4684446548292332</c:v>
+                  <c:v>0.4600326009968036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.439021370450629</c:v>
+                  <c:v>0.43615597295087322</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40551738856930863</c:v>
+                  <c:v>0.40345331803028306</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.38057983342925533</c:v>
+                  <c:v>0.38484937389388146</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.35825674872582702</c:v>
+                  <c:v>0.3585231321665841</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.34854140000070372</c:v>
+                  <c:v>0.34127073581103895</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.31569727604987774</c:v>
+                  <c:v>0.32772603513798026</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.30138937907968111</c:v>
+                  <c:v>0.29480780330180578</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.29093182394996914</c:v>
+                  <c:v>0.28624679056311725</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.27654315903088145</c:v>
+                  <c:v>0.2756263303233818</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.26735420384636899</c:v>
+                  <c:v>0.25759771746963844</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.25740032811331193</c:v>
+                  <c:v>0.25144674631376024</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.24489602048103384</c:v>
+                  <c:v>0.24480559254951761</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.23612001932082052</c:v>
+                  <c:v>0.23567850187602199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5987,7 +7123,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-014A-413F-B4F0-175B105BB3FD}"/>
+              <c16:uniqueId val="{00000001-2A7E-43D5-8FCD-A073E0C5C57D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6297,7 +7433,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_2'!$E$1</c:f>
+              <c:f>'20230601_3'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6320,7 +7456,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_2'!$A$2:$A$25</c:f>
+              <c:f>'20230601_3'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6401,7 +7537,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_2'!$E$2:$E$25</c:f>
+              <c:f>'20230601_3'!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6409,73 +7545,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6523937963587323</c:v>
+                  <c:v>1.6184139421777897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2122415816556829</c:v>
+                  <c:v>2.1437902648532567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6540669338243257</c:v>
+                  <c:v>2.5803984921917071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0078556523873816</c:v>
+                  <c:v>2.9027138357160167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.377670572019297</c:v>
+                  <c:v>3.2359535386277689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.754404780144017</c:v>
+                  <c:v>3.6356600910470411</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0410620052770447</c:v>
+                  <c:v>4.0031746031746032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1910381392166922</c:v>
+                  <c:v>4.1209150326797381</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.302141853932584</c:v>
+                  <c:v>4.1835166753972413</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3907901809711518</c:v>
+                  <c:v>4.273813770959686</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4184998196898659</c:v>
+                  <c:v>4.3231685312161678</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5354432722561544</c:v>
+                  <c:v>4.4018004776777513</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.511229749631811</c:v>
+                  <c:v>4.5086563793752354</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6105362182502345</c:v>
+                  <c:v>4.4791549822396703</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.6096689240030093</c:v>
+                  <c:v>4.4583178265723857</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.6490229557958642</c:v>
+                  <c:v>4.4417871709306631</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4042056074766354</c:v>
+                  <c:v>4.3545983278807707</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.4457547169811322</c:v>
+                  <c:v>4.3239487457137695</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.5228866740494649</c:v>
+                  <c:v>4.4245614035087719</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5778068372875023</c:v>
+                  <c:v>4.3349013931608464</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.4889173841362888</c:v>
+                  <c:v>4.4018004776777513</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.4856306058941975</c:v>
+                  <c:v>4.4583178265723857</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.5228866740494649</c:v>
+                  <c:v>4.4294694028471069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6483,7 +7619,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D9D7-4605-AA4F-5223E05BFBD9}"/>
+              <c16:uniqueId val="{00000000-3C00-40B7-865C-53DC8CCF67ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6492,7 +7628,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_2'!$F$1</c:f>
+              <c:f>'20230601_3'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6515,7 +7651,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_2'!$A$2:$A$25</c:f>
+              <c:f>'20230601_3'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6596,7 +7732,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_2'!$F$2:$F$25</c:f>
+              <c:f>'20230601_3'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6604,73 +7740,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7056442229922395</c:v>
+                  <c:v>1.66618512039113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3285788164815111</c:v>
+                  <c:v>2.2846167443223364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8962873772134823</c:v>
+                  <c:v>2.8184465878501777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3574494288129415</c:v>
+                  <c:v>3.2702257010537394</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8572990411251031</c:v>
+                  <c:v>3.6437197184672061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2782003780797702</c:v>
+                  <c:v>4.1257558562826517</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6580182479058374</c:v>
+                  <c:v>4.5349948007467686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9311848682920001</c:v>
+                  <c:v>4.8674938133333701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1080816506552615</c:v>
+                  <c:v>5.0023784909742934</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2309922895788841</c:v>
+                  <c:v>5.1528912031215652</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4244711545418367</c:v>
+                  <c:v>5.2682564454075482</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4053593598460354</c:v>
+                  <c:v>5.2717260514010125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.451695087294711</c:v>
+                  <c:v>5.3281176680095745</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5517164577162932</c:v>
+                  <c:v>5.3738512308874054</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.6271419249159198</c:v>
+                  <c:v>5.5766624000112595</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.6477837628231589</c:v>
+                  <c:v>5.3668536928479211</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4003289010597468</c:v>
+                  <c:v>5.4250088234342595</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.509548274872655</c:v>
+                  <c:v>5.5277046550494138</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.6375386812503026</c:v>
+                  <c:v>5.5308631806176294</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.5978026428196319</c:v>
+                  <c:v>5.614438280773749</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7852487559807999</c:v>
+                  <c:v>5.6628072184928628</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.7595475688565054</c:v>
+                  <c:v>5.6326084710637785</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.7134198725027305</c:v>
+                  <c:v>5.6668804636996928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6678,7 +7814,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D9D7-4605-AA4F-5223E05BFBD9}"/>
+              <c16:uniqueId val="{00000001-3C00-40B7-865C-53DC8CCF67ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6687,7 +7823,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_2'!$G$1</c:f>
+              <c:f>'20230601_3'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6710,7 +7846,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_2'!$A$2:$A$25</c:f>
+              <c:f>'20230601_3'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6791,7 +7927,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_2'!$G$2:$G$25</c:f>
+              <c:f>'20230601_3'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -6873,7 +8009,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D9D7-4605-AA4F-5223E05BFBD9}"/>
+              <c16:uniqueId val="{00000002-3C00-40B7-865C-53DC8CCF67ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7183,7 +8319,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_2'!$H$1</c:f>
+              <c:f>'20230601_3'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7206,7 +8342,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_2'!$A$2:$A$25</c:f>
+              <c:f>'20230601_3'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7287,7 +8423,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_2'!$H$2:$H$25</c:f>
+              <c:f>'20230601_3'!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7295,73 +8431,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82619689817936615</c:v>
+                  <c:v>0.80920697108889483</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73741386055189428</c:v>
+                  <c:v>0.71459675495108554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66351673345608142</c:v>
+                  <c:v>0.64509962304792678</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60157113047747635</c:v>
+                  <c:v>0.5805427671432033</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56294509533654946</c:v>
+                  <c:v>0.53932558977129486</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53634354002057383</c:v>
+                  <c:v>0.51938001300672021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50513275065963059</c:v>
+                  <c:v>0.5003968253968254</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46567090435741026</c:v>
+                  <c:v>0.45787944807552644</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4302141853932584</c:v>
+                  <c:v>0.41835166753972414</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39916274372465016</c:v>
+                  <c:v>0.38852852463269871</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36820831830748885</c:v>
+                  <c:v>0.36026404426801401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34888025171201187</c:v>
+                  <c:v>0.33860003674444239</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3222306964022722</c:v>
+                  <c:v>0.32204688424108824</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.30736908121668233</c:v>
+                  <c:v>0.29861033214931137</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.28810430775018808</c:v>
+                  <c:v>0.27864486416077411</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27347193857622731</c:v>
+                  <c:v>0.261281598290039</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.24467808930425752</c:v>
+                  <c:v>0.24192212932670948</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.23398709036742801</c:v>
+                  <c:v>0.22757624977440893</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.22614433370247325</c:v>
+                  <c:v>0.22122807017543861</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.21799080177559535</c:v>
+                  <c:v>0.20642387586480221</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20404169927892221</c:v>
+                  <c:v>0.20008183989444325</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19502741764757381</c:v>
+                  <c:v>0.1938399055031472</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18845361141872771</c:v>
+                  <c:v>0.18456122511862946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7369,7 +8505,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3128-4D2E-A090-B7514F272744}"/>
+              <c16:uniqueId val="{00000000-014A-413F-B4F0-175B105BB3FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7378,7 +8514,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_2'!$I$1</c:f>
+              <c:f>'20230601_3'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7401,7 +8537,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_2'!$A$2:$A$25</c:f>
+              <c:f>'20230601_3'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7482,7 +8618,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_2'!$I$2:$I$25</c:f>
+              <c:f>'20230601_3'!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7490,73 +8626,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85282211149611975</c:v>
+                  <c:v>0.83309256019556499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77619293882717033</c:v>
+                  <c:v>0.76153891477411217</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72407184430337057</c:v>
+                  <c:v>0.70461164696254441</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67148988576258828</c:v>
+                  <c:v>0.65404514021074789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64288317352085056</c:v>
+                  <c:v>0.60728661974453435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61117148258282428</c:v>
+                  <c:v>0.58939369375466455</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58225228098822968</c:v>
+                  <c:v>0.56687435009334608</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54790942981022228</c:v>
+                  <c:v>0.54083264592593006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51080816506552618</c:v>
+                  <c:v>0.5002378490974293</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47554475359808035</c:v>
+                  <c:v>0.4684446548292332</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45203926287848639</c:v>
+                  <c:v>0.439021370450629</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.41579687383431041</c:v>
+                  <c:v>0.40551738856930863</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.38940679194962219</c:v>
+                  <c:v>0.38057983342925533</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37011443051441956</c:v>
+                  <c:v>0.35825674872582702</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.35169637030724499</c:v>
+                  <c:v>0.34854140000070372</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33222257428371521</c:v>
+                  <c:v>0.31569727604987774</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.30001827228109706</c:v>
+                  <c:v>0.30138937907968111</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28997622499329762</c:v>
+                  <c:v>0.29093182394996914</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28187693406251513</c:v>
+                  <c:v>0.27654315903088145</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.26656203061045869</c:v>
+                  <c:v>0.26735420384636899</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.26296585254458182</c:v>
+                  <c:v>0.25740032811331193</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.25041511168941327</c:v>
+                  <c:v>0.24489602048103384</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.23805916135428043</c:v>
+                  <c:v>0.23612001932082052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7564,7 +8700,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3128-4D2E-A090-B7514F272744}"/>
+              <c16:uniqueId val="{00000001-014A-413F-B4F0-175B105BB3FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7874,7 +9010,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$E$1</c:f>
+              <c:f>'20230601_2'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7897,7 +9033,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7978,7 +9114,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$E$2:$E$25</c:f>
+              <c:f>'20230601_2'!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7986,73 +9122,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6338953212810616</c:v>
+                  <c:v>1.6523937963587323</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1853830827748597</c:v>
+                  <c:v>2.2122415816556829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6132770197097681</c:v>
+                  <c:v>2.6540669338243257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9950353729676058</c:v>
+                  <c:v>3.0078556523873816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3464151990015254</c:v>
+                  <c:v>3.377670572019297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7033456108041745</c:v>
+                  <c:v>3.754404780144017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0325868983957216</c:v>
+                  <c:v>4.0410620052770447</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1526415419032867</c:v>
+                  <c:v>4.1910381392166922</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2785460992907804</c:v>
+                  <c:v>4.302141853932584</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4082937522835222</c:v>
+                  <c:v>4.3907901809711518</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4042708523453182</c:v>
+                  <c:v>4.4184998196898659</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4687037037037038</c:v>
+                  <c:v>4.5354432722561544</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4530356154272006</c:v>
+                  <c:v>4.511229749631811</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4662224689987049</c:v>
+                  <c:v>4.6105362182502345</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5206069689022108</c:v>
+                  <c:v>4.6096689240030093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4794876554668654</c:v>
+                  <c:v>4.6490229557958642</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3723500634172856</c:v>
+                  <c:v>4.4042056074766354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3573492235464064</c:v>
+                  <c:v>4.4457547169811322</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3858596873864055</c:v>
+                  <c:v>4.5228866740494649</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5045734552921406</c:v>
+                  <c:v>4.5778068372875023</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.4803193464537694</c:v>
+                  <c:v>4.4889173841362888</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.4382931763840352</c:v>
+                  <c:v>4.4856306058941975</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.4695313947027229</c:v>
+                  <c:v>4.5228866740494649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8060,7 +9196,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F8C8-4FE5-A128-296D20C91D65}"/>
+              <c16:uniqueId val="{00000000-D9D7-4605-AA4F-5223E05BFBD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8069,7 +9205,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$F$1</c:f>
+              <c:f>'20230601_2'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8092,7 +9228,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8173,7 +9309,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$F$2:$F$25</c:f>
+              <c:f>'20230601_2'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8181,73 +9317,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6849697603479148</c:v>
+                  <c:v>1.7056442229922395</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.291157713491097</c:v>
+                  <c:v>2.3285788164815111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8532476383224008</c:v>
+                  <c:v>2.8962873772134823</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2850813089644175</c:v>
+                  <c:v>3.3574494288129415</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7887617537531435</c:v>
+                  <c:v>3.8572990411251031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1859855009932225</c:v>
+                  <c:v>4.2782003780797702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5685306601435611</c:v>
+                  <c:v>4.6580182479058374</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8062917642833964</c:v>
+                  <c:v>4.9311848682920001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0634161489399219</c:v>
+                  <c:v>5.1080816506552615</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1843061683928822</c:v>
+                  <c:v>5.2309922895788841</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2883181532120718</c:v>
+                  <c:v>5.4244711545418367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3238114631006548</c:v>
+                  <c:v>5.4053593598460354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4607191905457881</c:v>
+                  <c:v>5.451695087294711</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5587366246746148</c:v>
+                  <c:v>5.5517164577162932</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.6256372712460907</c:v>
+                  <c:v>5.6271419249159198</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.5466596645459481</c:v>
+                  <c:v>5.6477837628231589</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4138122663806358</c:v>
+                  <c:v>5.4003289010597468</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3348567597240928</c:v>
+                  <c:v>5.509548274872655</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.6096367904593967</c:v>
+                  <c:v>5.6375386812503026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.6094191616336158</c:v>
+                  <c:v>5.5978026428196319</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7194479694588223</c:v>
+                  <c:v>5.7852487559807999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.6927278600631146</c:v>
+                  <c:v>5.7595475688565054</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.7234046894028374</c:v>
+                  <c:v>5.7134198725027305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8255,7 +9391,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F8C8-4FE5-A128-296D20C91D65}"/>
+              <c16:uniqueId val="{00000001-D9D7-4605-AA4F-5223E05BFBD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8264,7 +9400,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$G$1</c:f>
+              <c:f>'20230601_2'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8287,7 +9423,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8368,7 +9504,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$G$2:$G$25</c:f>
+              <c:f>'20230601_2'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8450,7 +9586,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F8C8-4FE5-A128-296D20C91D65}"/>
+              <c16:uniqueId val="{00000002-D9D7-4605-AA4F-5223E05BFBD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8760,7 +9896,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$H$1</c:f>
+              <c:f>'20230601_2'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8783,7 +9919,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8864,7 +10000,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$H$2:$H$25</c:f>
+              <c:f>'20230601_2'!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8872,73 +10008,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81694766064053082</c:v>
+                  <c:v>0.82619689817936615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7284610275916199</c:v>
+                  <c:v>0.73741386055189428</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65331925492744203</c:v>
+                  <c:v>0.66351673345608142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5990070745935212</c:v>
+                  <c:v>0.60157113047747635</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5577358665002542</c:v>
+                  <c:v>0.56294509533654946</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52904937297202492</c:v>
+                  <c:v>0.53634354002057383</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5040733622994652</c:v>
+                  <c:v>0.50513275065963059</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46140461576703184</c:v>
+                  <c:v>0.46567090435741026</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42785460992907803</c:v>
+                  <c:v>0.4302141853932584</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.40075397748032021</c:v>
+                  <c:v>0.39916274372465016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3670225710287765</c:v>
+                  <c:v>0.36820831830748885</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34374643874643873</c:v>
+                  <c:v>0.34888025171201187</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.31807397253051434</c:v>
+                  <c:v>0.3222306964022722</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29774816459991366</c:v>
+                  <c:v>0.30736908121668233</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.28253793555638818</c:v>
+                  <c:v>0.28810430775018808</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.26349927385099209</c:v>
+                  <c:v>0.27347193857622731</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.24290833685651586</c:v>
+                  <c:v>0.24467808930425752</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.22933416966033718</c:v>
+                  <c:v>0.23398709036742801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.21929298436932027</c:v>
+                  <c:v>0.22614433370247325</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.21450349787105433</c:v>
+                  <c:v>0.21799080177559535</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20365087938426224</c:v>
+                  <c:v>0.20404169927892221</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19296926853843632</c:v>
+                  <c:v>0.19502741764757381</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18623047477928012</c:v>
+                  <c:v>0.18845361141872771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8946,7 +10082,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A041-4DA6-B6C6-E6F68ABF0162}"/>
+              <c16:uniqueId val="{00000000-3128-4D2E-A090-B7514F272744}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8955,7 +10091,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$I$1</c:f>
+              <c:f>'20230601_2'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8978,7 +10114,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9059,7 +10195,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$I$2:$I$25</c:f>
+              <c:f>'20230601_2'!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9067,73 +10203,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8424848801739574</c:v>
+                  <c:v>0.85282211149611975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76371923783036566</c:v>
+                  <c:v>0.77619293882717033</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7133119095806002</c:v>
+                  <c:v>0.72407184430337057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65701626179288353</c:v>
+                  <c:v>0.67148988576258828</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63146029229219058</c:v>
+                  <c:v>0.64288317352085056</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59799792871331747</c:v>
+                  <c:v>0.61117148258282428</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57106633251794514</c:v>
+                  <c:v>0.58225228098822968</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53403241825371073</c:v>
+                  <c:v>0.54790942981022228</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50634161489399221</c:v>
+                  <c:v>0.51080816506552618</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47130056076298926</c:v>
+                  <c:v>0.47554475359808035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.44069317943433933</c:v>
+                  <c:v>0.45203926287848639</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40952395870005037</c:v>
+                  <c:v>0.41579687383431041</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39005137075327057</c:v>
+                  <c:v>0.38940679194962219</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37058244164497434</c:v>
+                  <c:v>0.37011443051441956</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.35160232945288067</c:v>
+                  <c:v>0.35169637030724499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.32627409791446754</c:v>
+                  <c:v>0.33222257428371521</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.30076734813225753</c:v>
+                  <c:v>0.30001827228109706</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28078193472232066</c:v>
+                  <c:v>0.28997622499329762</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28048183952296984</c:v>
+                  <c:v>0.28187693406251513</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.26711519817302931</c:v>
+                  <c:v>0.26656203061045869</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.25997490770267373</c:v>
+                  <c:v>0.26296585254458182</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.24750990695926586</c:v>
+                  <c:v>0.25041511168941327</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.23847519539178488</c:v>
+                  <c:v>0.23805916135428043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9141,7 +10277,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A041-4DA6-B6C6-E6F68ABF0162}"/>
+              <c16:uniqueId val="{00000001-3128-4D2E-A090-B7514F272744}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9451,7 +10587,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$E$1</c:f>
+              <c:f>'20230601'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9474,7 +10610,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9555,7 +10691,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$E$2:$E$25</c:f>
+              <c:f>'20230601'!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9563,73 +10699,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.113042236083996</c:v>
+                  <c:v>1.6338953212810616</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5991653554080865</c:v>
+                  <c:v>2.1853830827748597</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1197968622472114</c:v>
+                  <c:v>2.6132770197097681</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.570093457943925</c:v>
+                  <c:v>2.9950353729676058</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7757985987412424</c:v>
+                  <c:v>3.3464151990015254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0768724496511779</c:v>
+                  <c:v>3.7033456108041745</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3326204733390359</c:v>
+                  <c:v>4.0325868983957216</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6128284389489953</c:v>
+                  <c:v>4.1526415419032867</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9305532201109803</c:v>
+                  <c:v>4.2785460992907804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1592526690391463</c:v>
+                  <c:v>4.4082937522835222</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.389671361502347</c:v>
+                  <c:v>4.4042708523453182</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4642857142857144</c:v>
+                  <c:v>4.4687037037037038</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5770511063246522</c:v>
+                  <c:v>4.4530356154272006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6918908069048575</c:v>
+                  <c:v>4.4662224689987049</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7743055555555554</c:v>
+                  <c:v>4.5206069689022108</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7461928934010151</c:v>
+                  <c:v>4.4794876554668654</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.8819966583124472</c:v>
+                  <c:v>4.3723500634172856</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8647242455775235</c:v>
+                  <c:v>4.3573492235464064</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.010718113612004</c:v>
+                  <c:v>4.3858596873864055</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8536129568106317</c:v>
+                  <c:v>4.5045734552921406</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.8017666392769103</c:v>
+                  <c:v>4.4803193464537694</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.7597230706577074</c:v>
+                  <c:v>4.4382931763840352</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.8067036808554384</c:v>
+                  <c:v>4.4695313947027229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9637,7 +10773,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-75E1-40E3-BD0C-BA7F77C303A8}"/>
+              <c16:uniqueId val="{00000000-F8C8-4FE5-A128-296D20C91D65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9646,7 +10782,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$F$1</c:f>
+              <c:f>'20230601'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9669,7 +10805,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9750,7 +10886,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$F$2:$F$25</c:f>
+              <c:f>'20230601'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9758,73 +10894,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1162082083449918</c:v>
+                  <c:v>1.6849697603479148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6613317779316894</c:v>
+                  <c:v>2.291157713491097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2438468498980595</c:v>
+                  <c:v>2.8532476383224008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7857582674795132</c:v>
+                  <c:v>3.2850813089644175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0609617541932517</c:v>
+                  <c:v>3.7887617537531435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.403457920658544</c:v>
+                  <c:v>4.1859855009932225</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7569881446554998</c:v>
+                  <c:v>4.5685306601435611</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1319703098955962</c:v>
+                  <c:v>4.8062917642833964</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5184290850253834</c:v>
+                  <c:v>5.0634161489399219</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8599496767143577</c:v>
+                  <c:v>5.1843061683928822</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1988288287150013</c:v>
+                  <c:v>5.2883181532120718</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2719421781171212</c:v>
+                  <c:v>5.3238114631006548</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4654682693368315</c:v>
+                  <c:v>5.4607191905457881</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6355195850516191</c:v>
+                  <c:v>5.5587366246746148</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.8166107035640842</c:v>
+                  <c:v>5.6256372712460907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0035319320812297</c:v>
+                  <c:v>5.5466596645459481</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.0662577213335718</c:v>
+                  <c:v>5.4138122663806358</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.2447032044447663</c:v>
+                  <c:v>5.3348567597240928</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.2141290442530668</c:v>
+                  <c:v>5.6096367904593967</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.131415403020041</c:v>
+                  <c:v>5.6094191616336158</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.1323287334413266</c:v>
+                  <c:v>5.7194479694588223</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.2212522682179108</c:v>
+                  <c:v>5.6927278600631146</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.2245083321733539</c:v>
+                  <c:v>5.7234046894028374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9832,7 +10968,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-75E1-40E3-BD0C-BA7F77C303A8}"/>
+              <c16:uniqueId val="{00000001-F8C8-4FE5-A128-296D20C91D65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9841,7 +10977,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$G$1</c:f>
+              <c:f>'20230601'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9864,7 +11000,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9945,7 +11081,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$G$2:$G$25</c:f>
+              <c:f>'20230601'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10027,7 +11163,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-75E1-40E3-BD0C-BA7F77C303A8}"/>
+              <c16:uniqueId val="{00000002-F8C8-4FE5-A128-296D20C91D65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10337,7 +11473,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$H$1</c:f>
+              <c:f>'20230601'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10360,7 +11496,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10441,7 +11577,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$H$2:$H$25</c:f>
+              <c:f>'20230601'!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10449,73 +11585,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.556521118041998</c:v>
+                  <c:v>0.81694766064053082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53305511846936215</c:v>
+                  <c:v>0.7284610275916199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52994921556180286</c:v>
+                  <c:v>0.65331925492744203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51401869158878499</c:v>
+                  <c:v>0.5990070745935212</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46263309979020706</c:v>
+                  <c:v>0.5577358665002542</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43955320709302542</c:v>
+                  <c:v>0.52904937297202492</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41657755916737949</c:v>
+                  <c:v>0.5040733622994652</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.40142538210544393</c:v>
+                  <c:v>0.46140461576703184</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39305532201109805</c:v>
+                  <c:v>0.42785460992907803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37811387900355875</c:v>
+                  <c:v>0.40075397748032021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36580594679186224</c:v>
+                  <c:v>0.3670225710287765</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34340659340659341</c:v>
+                  <c:v>0.34374643874643873</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.32693222188033227</c:v>
+                  <c:v>0.31807397253051434</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.31279272046032386</c:v>
+                  <c:v>0.29774816459991366</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.29839409722222221</c:v>
+                  <c:v>0.28253793555638818</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27918781725888325</c:v>
+                  <c:v>0.26349927385099209</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.27122203657291372</c:v>
+                  <c:v>0.24290833685651586</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2560381181882907</c:v>
+                  <c:v>0.22933416966033718</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.25053590568060019</c:v>
+                  <c:v>0.21929298436932027</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.23112442651479198</c:v>
+                  <c:v>0.21450349787105433</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2182621199671323</c:v>
+                  <c:v>0.20365087938426224</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2069444813329438</c:v>
+                  <c:v>0.19296926853843632</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.20027932003564328</c:v>
+                  <c:v>0.18623047477928012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10523,7 +11659,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D809-4975-8181-8A5ADF1F31D5}"/>
+              <c16:uniqueId val="{00000000-A041-4DA6-B6C6-E6F68ABF0162}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10532,7 +11668,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$I$1</c:f>
+              <c:f>'20230601'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10555,7 +11691,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10636,7 +11772,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$I$2:$I$25</c:f>
+              <c:f>'20230601'!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10644,73 +11780,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5581041041724959</c:v>
+                  <c:v>0.8424848801739574</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5537772593105631</c:v>
+                  <c:v>0.76371923783036566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56096171247451487</c:v>
+                  <c:v>0.7133119095806002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55715165349590268</c:v>
+                  <c:v>0.65701626179288353</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51016029236554195</c:v>
+                  <c:v>0.63146029229219058</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48620827437979203</c:v>
+                  <c:v>0.59799792871331747</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46962351808193747</c:v>
+                  <c:v>0.57106633251794514</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4591078122106218</c:v>
+                  <c:v>0.53403241825371073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45184290850253833</c:v>
+                  <c:v>0.50634161489399221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44181360697403255</c:v>
+                  <c:v>0.47130056076298926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.43323573572625013</c:v>
+                  <c:v>0.44069317943433933</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40553401370131703</c:v>
+                  <c:v>0.40952395870005037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39039059066691656</c:v>
+                  <c:v>0.39005137075327057</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37570130567010795</c:v>
+                  <c:v>0.37058244164497434</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36353816897275526</c:v>
+                  <c:v>0.35160232945288067</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.35314893718124879</c:v>
+                  <c:v>0.32627409791446754</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33701431785186509</c:v>
+                  <c:v>0.30076734813225753</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.32866858970761931</c:v>
+                  <c:v>0.28078193472232066</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.31070645221265336</c:v>
+                  <c:v>0.28048183952296984</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2919721620485734</c:v>
+                  <c:v>0.26711519817302931</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.27874221515642394</c:v>
+                  <c:v>0.25997490770267373</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.27048922905295264</c:v>
+                  <c:v>0.24750990695926586</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.25935451384055641</c:v>
+                  <c:v>0.23847519539178488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10718,7 +11854,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D809-4975-8181-8A5ADF1F31D5}"/>
+              <c16:uniqueId val="{00000001-A041-4DA6-B6C6-E6F68ABF0162}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10955,6 +12091,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>速度</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>/NPS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>向上率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10995,43 +12164,33 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20221107_laptop'!$D$1</c:f>
+              <c:f>'20230526'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>時間並列化効率 e(p)</c:v>
+                  <c:v>速度向上率st(p)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20221107_laptop'!$A$2:$A$24</c:f>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -11100,84 +12259,90 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20221107_laptop'!$D$2:$D$24</c:f>
+              <c:f>'20230526'!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57926170990771375</c:v>
+                  <c:v>1.113042236083996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4158946855192589</c:v>
+                  <c:v>1.5991653554080865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46483065057008727</c:v>
+                  <c:v>2.1197968622472114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37165679812311475</c:v>
+                  <c:v>2.570093457943925</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39131201919683822</c:v>
+                  <c:v>2.7757985987412424</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31801583052921384</c:v>
+                  <c:v>3.0768724496511779</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3443503643590593</c:v>
+                  <c:v>3.3326204733390359</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30931659693165975</c:v>
+                  <c:v>3.6128284389489953</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2742539159109646</c:v>
+                  <c:v>3.9305532201109803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22938961827007945</c:v>
+                  <c:v>4.1592526690391463</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>4.389671361502347</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4.4642857142857144</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4.5770511063246522</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>4.6918908069048575</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>4.7743055555555554</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>4.7461928934010151</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>4.8819966583124472</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4.8647242455775235</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>5.010718113612004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>4.8536129568106317</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>4.8017666392769103</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>4.7597230706577074</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8067036808554384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11185,7 +12350,397 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1961-4CF3-997F-22435F2C9B3A}"/>
+              <c16:uniqueId val="{00000000-75E1-40E3-BD0C-BA7F77C303A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nps向上率sn(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1162082083449918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6613317779316894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2438468498980595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7857582674795132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0609617541932517</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.403457920658544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7569881446554998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1319703098955962</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5184290850253834</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8599496767143577</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1988288287150013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2719421781171212</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4654682693368315</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6355195850516191</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8166107035640842</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0035319320812297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0662577213335718</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2447032044447663</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2141290442530668</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.131415403020041</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.1323287334413266</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.2212522682179108</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.2245083321733539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75E1-40E3-BD0C-BA7F77C303A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>線形向上率(参考)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$G$2:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-75E1-40E3-BD0C-BA7F77C303A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11197,11 +12752,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1477077008"/>
-        <c:axId val="1477077840"/>
+        <c:axId val="579350928"/>
+        <c:axId val="579352368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1477077008"/>
+        <c:axId val="579350928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11258,12 +12813,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1477077840"/>
+        <c:crossAx val="579352368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1477077840"/>
+        <c:axId val="579352368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11320,7 +12875,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1477077008"/>
+        <c:crossAx val="579350928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11332,6 +12887,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -11736,6 +13322,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -16700,7 +18366,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17216,7 +18882,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17732,7 +19398,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18248,7 +19914,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18764,7 +20430,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19280,7 +20946,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19796,7 +21462,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20312,7 +21978,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20828,7 +22494,1120 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6768E373-1A5F-493A-972B-B62F068D3B13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE958122-6237-44CA-9386-E12466F248AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20909,7 +23688,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20990,7 +23769,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21071,7 +23850,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21148,7 +23927,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21267,7 +24046,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21386,7 +24165,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21795,10 +24574,904 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC2CD64-95BE-4BE4-9B8B-87FFABEE640E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2E351A-CD2B-4321-8C02-7EF304A99371}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>978640876</v>
+      </c>
+      <c r="C2">
+        <v>24.007999999999999</v>
+      </c>
+      <c r="D2">
+        <v>40763115</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E25" si="0">C$2/C2</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F25" si="1">D2/D$2</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H25" si="2">E2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I25" si="3">F2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1014424342</v>
+      </c>
+      <c r="C3">
+        <v>14.805</v>
+      </c>
+      <c r="D3">
+        <v>68519036</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>1.6216143194866599</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>1.6809077520204234</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G25" si="4">A3</f>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="2"/>
+        <v>0.81080715974332995</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="3"/>
+        <v>0.84045387601021171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1041220561</v>
+      </c>
+      <c r="C4">
+        <v>10.996</v>
+      </c>
+      <c r="D4">
+        <v>94690847</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.1833393961440524</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>2.3229541461686627</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.72777979871468412</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0.77431804872288756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1074348439</v>
+      </c>
+      <c r="C5">
+        <v>9.2420000000000009</v>
+      </c>
+      <c r="D5">
+        <v>116246314</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2.5977061242155375</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2.8517524727931121</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.64942653105388437</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.71293811819827801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1064543456</v>
+      </c>
+      <c r="C6">
+        <v>7.8970000000000002</v>
+      </c>
+      <c r="D6">
+        <v>134803527</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3.0401418260098771</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3.3069976865114454</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.60802836520197545</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.66139953730228906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1100189910</v>
+      </c>
+      <c r="C7">
+        <v>7.1630000000000003</v>
+      </c>
+      <c r="D7">
+        <v>153593453</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>3.3516682954069523</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3.7679518113372836</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.55861138256782539</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.62799196855621398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1108329056</v>
+      </c>
+      <c r="C8">
+        <v>6.5039999999999996</v>
+      </c>
+      <c r="D8">
+        <v>170407296</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3.6912669126691267</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4.1804287037435683</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.52732384466701809</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.59720410053479545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1118503751</v>
+      </c>
+      <c r="C9">
+        <v>6.04</v>
+      </c>
+      <c r="D9">
+        <v>185182740</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3.9748344370860926</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>4.5428996287452517</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.49685430463576158</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.56786245359315646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1143609245</v>
+      </c>
+      <c r="C10">
+        <v>5.83</v>
+      </c>
+      <c r="D10">
+        <v>196159390</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4.1180102915951968</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>4.8121786080381739</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.457556699066133</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0.53468651200424155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1136284582</v>
+      </c>
+      <c r="C11">
+        <v>5.6239999999999997</v>
+      </c>
+      <c r="D11">
+        <v>202042066</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4.2688477951635848</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>4.9564923092849993</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.4268847795163585</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0.49564923092849994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1125235471</v>
+      </c>
+      <c r="C12">
+        <v>5.4550000000000001</v>
+      </c>
+      <c r="D12">
+        <v>206275980</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4.4010999083409716</v>
+      </c>
+      <c r="F12">
+        <f>D12/D$2</f>
+        <v>5.0603586109648395</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.40009999166736104</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0.4600326009968036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1161471487</v>
+      </c>
+      <c r="C13">
+        <v>5.444</v>
+      </c>
+      <c r="D13">
+        <v>213348913</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>4.4099926524614252</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>5.2338716754104784</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.36749938770511875</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0.43615597295087322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1155792976</v>
+      </c>
+      <c r="C14">
+        <v>5.4059999999999997</v>
+      </c>
+      <c r="D14">
+        <v>213798182</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4.4409914909359971</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>5.2448931343936795</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.34161473007199977</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0.40345331803028306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1204655358</v>
+      </c>
+      <c r="C15">
+        <v>5.4850000000000003</v>
+      </c>
+      <c r="D15">
+        <v>219627230</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4.3770282588878757</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>5.3878912345143402</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.31264487563484827</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0.38484937389388146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1164484928</v>
+      </c>
+      <c r="C16">
+        <v>5.3120000000000003</v>
+      </c>
+      <c r="D16">
+        <v>219217795</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>4.5195783132530121</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>5.3778469824987614</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.30130522088353412</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.3585231321665841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1187687589</v>
+      </c>
+      <c r="C17">
+        <v>5.3360000000000003</v>
+      </c>
+      <c r="D17">
+        <v>222580132</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>4.4992503748125934</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>5.4603317729766232</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.28120314842578709</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0.34127073581103895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1201159824</v>
+      </c>
+      <c r="C18">
+        <v>5.2889999999999997</v>
+      </c>
+      <c r="D18">
+        <v>227105279</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>4.5392323690678769</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>5.5713425973456641</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.26701366876869864</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.32772603513798026</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1192739515</v>
+      </c>
+      <c r="C19">
+        <v>5.5140000000000002</v>
+      </c>
+      <c r="D19">
+        <v>216311119</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>4.354007979688066</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>5.3065404594325045</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.24188933220489256</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.29480780330180578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1203376234</v>
+      </c>
+      <c r="C20">
+        <v>5.4279999999999999</v>
+      </c>
+      <c r="D20">
+        <v>221697906</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4.4229918938835668</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>5.4386890206992273</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.23278904704650352</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0.28624679056311725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1217691330</v>
+      </c>
+      <c r="C21">
+        <v>5.4189999999999996</v>
+      </c>
+      <c r="D21">
+        <v>224707756</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>4.4303377006827827</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>5.5125266064676364</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0.22151688503413913</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0.2756263303233818</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1211262495</v>
+      </c>
+      <c r="C22">
+        <v>5.4930000000000003</v>
+      </c>
+      <c r="D22">
+        <v>220510193</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>4.370653559075186</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>5.4095520668624077</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0.20812635995596124</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0.25759771746963844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1216768639</v>
+      </c>
+      <c r="C23">
+        <v>5.3959999999999999</v>
+      </c>
+      <c r="D23">
+        <v>225494558</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>4.4492216456634539</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>5.5318284189027258</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0.20223734753015699</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0.25144674631376024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1241232728</v>
+      </c>
+      <c r="C24">
+        <v>5.4080000000000004</v>
+      </c>
+      <c r="D24">
+        <v>229517886</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>4.4393491124260347</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>5.6305286286389054</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0.19301517880113195</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>0.24480559254951761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1249446679</v>
+      </c>
+      <c r="C25">
+        <v>5.4189999999999996</v>
+      </c>
+      <c r="D25">
+        <v>230567757</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>4.4303377006827827</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>5.6562840450245275</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.18459740419511594</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0.23567850187602199</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC2CD64-95BE-4BE4-9B8B-87FFABEE640E}">
+  <dimension ref="A1:Q52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
@@ -22676,6 +26349,11 @@
         <v>0.23612001932082052</v>
       </c>
     </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F52" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22683,7 +26361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DE268C-975E-4488-A318-D18B0F641550}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -23575,7 +27253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40D577C-1FC9-441B-9BD6-25BD6679A0C9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -24464,7 +28142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A698478-68FD-4AB6-BD61-F7BA433B8993}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -25350,7 +29028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76021593-133C-486A-80A9-D15B80E47575}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -26064,7 +29742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1584DABB-DA59-4F6D-AEA3-5CC171009C00}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -26790,7 +30468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A6F068-9D13-45DA-910B-7CFD747A89D6}">
   <dimension ref="A1:K24"/>
   <sheetViews>

--- a/benchmark/parallel_benchmark.xlsx
+++ b/benchmark/parallel_benchmark.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\egaroucid\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571765D2-281C-4ED3-89CC-0B34F294022B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41AABCC-3747-49B1-82FF-1AD24F799BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45984" yWindow="-216" windowWidth="23232" windowHeight="25296" xr2:uid="{75C047C0-BFEA-499F-BA8B-EB1F29873334}"/>
+    <workbookView xWindow="49800" yWindow="1524" windowWidth="34560" windowHeight="18600" activeTab="1" xr2:uid="{75C047C0-BFEA-499F-BA8B-EB1F29873334}"/>
   </bookViews>
   <sheets>
-    <sheet name="20230601_4" sheetId="10" r:id="rId1"/>
-    <sheet name="20230601_3" sheetId="9" r:id="rId2"/>
-    <sheet name="20230601_2" sheetId="8" r:id="rId3"/>
-    <sheet name="20230601" sheetId="7" r:id="rId4"/>
-    <sheet name="20230526" sheetId="6" r:id="rId5"/>
-    <sheet name="20221107_laptop" sheetId="4" r:id="rId6"/>
-    <sheet name="20220920_edax" sheetId="2" r:id="rId7"/>
-    <sheet name="20220920" sheetId="1" r:id="rId8"/>
+    <sheet name="20230601_5" sheetId="11" r:id="rId1"/>
+    <sheet name="20230601_4" sheetId="10" r:id="rId2"/>
+    <sheet name="20230601_3" sheetId="9" r:id="rId3"/>
+    <sheet name="20230601_2" sheetId="8" r:id="rId4"/>
+    <sheet name="20230601" sheetId="7" r:id="rId5"/>
+    <sheet name="20230526" sheetId="6" r:id="rId6"/>
+    <sheet name="20221107_laptop" sheetId="4" r:id="rId7"/>
+    <sheet name="20220920_edax" sheetId="2" r:id="rId8"/>
+    <sheet name="20220920" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="33">
   <si>
     <t>スレッド数 p(個)</t>
     <rPh sb="4" eb="5">
@@ -288,6 +289,17 @@
     <t>midsearchのsplit depthを4にした</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>YBWCでyoungest brotherのsplitを除外した</t>
+    <rPh sb="28" eb="30">
+      <t>ジョガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベストタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -441,7 +453,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_4'!$E$1</c:f>
+              <c:f>'20230601_5'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -464,7 +476,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_4'!$A$2:$A$25</c:f>
+              <c:f>'20230601_5'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -545,7 +557,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_4'!$E$2:$E$25</c:f>
+              <c:f>'20230601_5'!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -553,73 +565,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6216143194866599</c:v>
+                  <c:v>1.7205281147376181</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1833393961440524</c:v>
+                  <c:v>2.4136893569010907</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5977061242155375</c:v>
+                  <c:v>2.8709460970700067</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0401418260098771</c:v>
+                  <c:v>3.3262503239181136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3516682954069523</c:v>
+                  <c:v>3.7276027297807466</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6912669126691267</c:v>
+                  <c:v>4.0219332602224664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9748344370860926</c:v>
+                  <c:v>4.4254438889846579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1180102915951968</c:v>
+                  <c:v>4.5671588685287317</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2688477951635848</c:v>
+                  <c:v>4.673584562170034</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4010999083409716</c:v>
+                  <c:v>4.7409048938134815</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4099926524614252</c:v>
+                  <c:v>4.7744095220383116</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4409914909359971</c:v>
+                  <c:v>4.9340764943301938</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.3770282588878757</c:v>
+                  <c:v>4.9048528849828053</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5195783132530121</c:v>
+                  <c:v>4.9265016311648431</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.4992503748125934</c:v>
+                  <c:v>4.991639121135524</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.5392323690678769</c:v>
+                  <c:v>4.9473887068799387</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.354007979688066</c:v>
+                  <c:v>4.8328313253012043</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.4229918938835668</c:v>
+                  <c:v>4.8778263347900443</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.4303377006827827</c:v>
+                  <c:v>4.7976079237525697</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.370653559075186</c:v>
+                  <c:v>4.8328313253012043</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.4492216456634539</c:v>
+                  <c:v>4.8210328638497648</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.4393491124260347</c:v>
+                  <c:v>4.8092918696140874</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.4303377006827827</c:v>
+                  <c:v>4.8201276755538869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -627,7 +639,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E781-4F84-887A-354EC1C5B279}"/>
+              <c16:uniqueId val="{00000000-5A6E-420C-A1CD-53E685F8E930}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -636,7 +648,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_4'!$F$1</c:f>
+              <c:f>'20230601_5'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -659,7 +671,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_4'!$A$2:$A$25</c:f>
+              <c:f>'20230601_5'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -740,7 +752,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_4'!$F$2:$F$25</c:f>
+              <c:f>'20230601_5'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -748,73 +760,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6809077520204234</c:v>
+                  <c:v>1.7804371266356889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3229541461686627</c:v>
+                  <c:v>2.5071842659510217</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8517524727931121</c:v>
+                  <c:v>3.1308142316727521</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3069976865114454</c:v>
+                  <c:v>3.7519162169751095</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7679518113372836</c:v>
+                  <c:v>4.2237146068575848</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1804287037435683</c:v>
+                  <c:v>4.6662423155103401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5428996287452517</c:v>
+                  <c:v>5.0971774203702829</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8121786080381739</c:v>
+                  <c:v>5.3700903366926065</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9564923092849993</c:v>
+                  <c:v>5.5570863879971073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0603586109648395</c:v>
+                  <c:v>5.6777143294247905</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2338716754104784</c:v>
+                  <c:v>5.8275653666918634</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2448931343936795</c:v>
+                  <c:v>5.8702171173935254</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3878912345143402</c:v>
+                  <c:v>5.9797055917607915</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3778469824987614</c:v>
+                  <c:v>6.1073177516275567</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.4603317729766232</c:v>
+                  <c:v>6.186187283294978</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.5713425973456641</c:v>
+                  <c:v>6.2090812861297451</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.3065404594325045</c:v>
+                  <c:v>5.9968770710400037</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4386890206992273</c:v>
+                  <c:v>6.0851628175839503</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.5125266064676364</c:v>
+                  <c:v>6.1456153341847992</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4095520668624077</c:v>
+                  <c:v>6.2254642225019401</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.5318284189027258</c:v>
+                  <c:v>6.2203938076664631</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.6305286286389054</c:v>
+                  <c:v>6.2511574477274223</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.6562840450245275</c:v>
+                  <c:v>6.2748376325622992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,7 +834,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E781-4F84-887A-354EC1C5B279}"/>
+              <c16:uniqueId val="{00000001-5A6E-420C-A1CD-53E685F8E930}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -831,7 +843,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_4'!$G$1</c:f>
+              <c:f>'20230601_5'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -854,7 +866,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_4'!$A$2:$A$25</c:f>
+              <c:f>'20230601_5'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -935,7 +947,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_4'!$G$2:$G$25</c:f>
+              <c:f>'20230601_5'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1017,7 +1029,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E781-4F84-887A-354EC1C5B279}"/>
+              <c16:uniqueId val="{00000002-5A6E-420C-A1CD-53E685F8E930}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1327,7 +1339,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$H$1</c:f>
+              <c:f>'20230601'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1350,7 +1362,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1431,7 +1443,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$H$2:$H$25</c:f>
+              <c:f>'20230601'!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1439,73 +1451,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.556521118041998</c:v>
+                  <c:v>0.81694766064053082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53305511846936215</c:v>
+                  <c:v>0.7284610275916199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52994921556180286</c:v>
+                  <c:v>0.65331925492744203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51401869158878499</c:v>
+                  <c:v>0.5990070745935212</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46263309979020706</c:v>
+                  <c:v>0.5577358665002542</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43955320709302542</c:v>
+                  <c:v>0.52904937297202492</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41657755916737949</c:v>
+                  <c:v>0.5040733622994652</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.40142538210544393</c:v>
+                  <c:v>0.46140461576703184</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39305532201109805</c:v>
+                  <c:v>0.42785460992907803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37811387900355875</c:v>
+                  <c:v>0.40075397748032021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36580594679186224</c:v>
+                  <c:v>0.3670225710287765</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34340659340659341</c:v>
+                  <c:v>0.34374643874643873</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.32693222188033227</c:v>
+                  <c:v>0.31807397253051434</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.31279272046032386</c:v>
+                  <c:v>0.29774816459991366</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.29839409722222221</c:v>
+                  <c:v>0.28253793555638818</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27918781725888325</c:v>
+                  <c:v>0.26349927385099209</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.27122203657291372</c:v>
+                  <c:v>0.24290833685651586</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2560381181882907</c:v>
+                  <c:v>0.22933416966033718</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.25053590568060019</c:v>
+                  <c:v>0.21929298436932027</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.23112442651479198</c:v>
+                  <c:v>0.21450349787105433</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2182621199671323</c:v>
+                  <c:v>0.20365087938426224</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2069444813329438</c:v>
+                  <c:v>0.19296926853843632</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.20027932003564328</c:v>
+                  <c:v>0.18623047477928012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,7 +1525,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D809-4975-8181-8A5ADF1F31D5}"/>
+              <c16:uniqueId val="{00000000-A041-4DA6-B6C6-E6F68ABF0162}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1522,7 +1534,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$I$1</c:f>
+              <c:f>'20230601'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1545,7 +1557,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1626,7 +1638,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$I$2:$I$25</c:f>
+              <c:f>'20230601'!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1634,73 +1646,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5581041041724959</c:v>
+                  <c:v>0.8424848801739574</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5537772593105631</c:v>
+                  <c:v>0.76371923783036566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56096171247451487</c:v>
+                  <c:v>0.7133119095806002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55715165349590268</c:v>
+                  <c:v>0.65701626179288353</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51016029236554195</c:v>
+                  <c:v>0.63146029229219058</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48620827437979203</c:v>
+                  <c:v>0.59799792871331747</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46962351808193747</c:v>
+                  <c:v>0.57106633251794514</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4591078122106218</c:v>
+                  <c:v>0.53403241825371073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45184290850253833</c:v>
+                  <c:v>0.50634161489399221</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44181360697403255</c:v>
+                  <c:v>0.47130056076298926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.43323573572625013</c:v>
+                  <c:v>0.44069317943433933</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40553401370131703</c:v>
+                  <c:v>0.40952395870005037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39039059066691656</c:v>
+                  <c:v>0.39005137075327057</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37570130567010795</c:v>
+                  <c:v>0.37058244164497434</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36353816897275526</c:v>
+                  <c:v>0.35160232945288067</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.35314893718124879</c:v>
+                  <c:v>0.32627409791446754</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33701431785186509</c:v>
+                  <c:v>0.30076734813225753</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.32866858970761931</c:v>
+                  <c:v>0.28078193472232066</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.31070645221265336</c:v>
+                  <c:v>0.28048183952296984</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2919721620485734</c:v>
+                  <c:v>0.26711519817302931</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.27874221515642394</c:v>
+                  <c:v>0.25997490770267373</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.27048922905295264</c:v>
+                  <c:v>0.24750990695926586</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.25935451384055641</c:v>
+                  <c:v>0.23847519539178488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,7 +1720,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D809-4975-8181-8A5ADF1F31D5}"/>
+              <c16:uniqueId val="{00000001-A041-4DA6-B6C6-E6F68ABF0162}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1945,6 +1957,1583 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>速度</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>/NPS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>向上率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>速度向上率st(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.113042236083996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5991653554080865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1197968622472114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.570093457943925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7757985987412424</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0768724496511779</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3326204733390359</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6128284389489953</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9305532201109803</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1592526690391463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.389671361502347</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4642857142857144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5770511063246522</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6918908069048575</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7743055555555554</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7461928934010151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8819966583124472</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8647242455775235</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.010718113612004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8536129568106317</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.8017666392769103</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7597230706577074</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8067036808554384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75E1-40E3-BD0C-BA7F77C303A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nps向上率sn(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1162082083449918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6613317779316894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2438468498980595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7857582674795132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0609617541932517</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.403457920658544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7569881446554998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1319703098955962</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5184290850253834</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8599496767143577</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1988288287150013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2719421781171212</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4654682693368315</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6355195850516191</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8166107035640842</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0035319320812297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0662577213335718</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2447032044447663</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2141290442530668</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.131415403020041</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.1323287334413266</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.2212522682179108</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.2245083321733539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75E1-40E3-BD0C-BA7F77C303A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>線形向上率(参考)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$G$2:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-75E1-40E3-BD0C-BA7F77C303A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="579350928"/>
+        <c:axId val="579352368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="579350928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579352368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="579352368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579350928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>/NPS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>並列化効率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>時間並列化効率et(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$H$2:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.556521118041998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53305511846936215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52994921556180286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51401869158878499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46263309979020706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43955320709302542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41657755916737949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40142538210544393</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39305532201109805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37811387900355875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36580594679186224</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34340659340659341</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32693222188033227</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31279272046032386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29839409722222221</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27918781725888325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27122203657291372</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2560381181882907</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25053590568060019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23112442651479198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2182621199671323</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2069444813329438</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20027932003564328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D809-4975-8181-8A5ADF1F31D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230526'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nps並列化効率en(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230526'!$I$2:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5581041041724959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5537772593105631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56096171247451487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55715165349590268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51016029236554195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48620827437979203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46962351808193747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4591078122106218</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45184290850253833</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44181360697403255</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43323573572625013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40553401370131703</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39039059066691656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.37570130567010795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36353816897275526</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35314893718124879</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.33701431785186509</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32866858970761931</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.31070645221265336</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2919721620485734</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27874221515642394</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27048922905295264</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25935451384055641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D809-4975-8181-8A5ADF1F31D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="579628432"/>
+        <c:axId val="579623632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="579628432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579623632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="579623632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579628432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2366,7 +3955,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2802,7 +4391,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3506,7 +5095,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3942,7 +5531,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4378,7 +5967,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5078,7 +6667,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5514,7 +7103,698 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>/NPS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>並列化効率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230601_5'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>時間並列化効率et(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230601_5'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230601_5'!$H$2:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86026405736880907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80456311896703026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71773652426750167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6652500647836227</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62126712163012443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57456189431749516</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55318048612308224</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50746209650319241</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46735845621700339</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43099135398304378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3978674601698593</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37954434571770723</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35034663464162896</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32843344207765618</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.31197744507097025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.29102286511058462</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26849062918340022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25672770183105498</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23988039618762849</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23013482501434307</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21913785744771658</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.20909964650496032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20083865314807861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AD0-4580-931E-863ED011BBCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20230601_5'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nps並列化効率en(p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20230601_5'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20230601_5'!$I$2:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89021856331784444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83572808865034054</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78270355791818802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75038324339502194</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7039524344762641</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66660604507290577</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63714717754628536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59667670407695628</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55570863879971077</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51615584812952642</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48563044722432197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45155516287642505</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4271218279829137</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40715451677517045</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38663670520593613</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36524007565469091</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3331598372800002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32027172724126052</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30728076670923998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.29645067726199714</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.28274517307574831</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27178945424901835</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26145156802342912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3AD0-4580-931E-863ED011BBCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="579628432"/>
+        <c:axId val="579623632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="579628432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579623632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="579623632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579628432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5950,7 +8230,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -6654,697 +8934,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>時間</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>/NPS</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>並列化効率</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'20230601_4'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>時間並列化効率et(p)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'20230601_4'!$A$2:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'20230601_4'!$H$2:$H$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.81080715974332995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.72777979871468412</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.64942653105388437</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.60802836520197545</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55861138256782539</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.52732384466701809</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.49685430463576158</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.457556699066133</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.4268847795163585</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.40009999166736104</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.36749938770511875</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.34161473007199977</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.31264487563484827</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.30130522088353412</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.28120314842578709</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.26701366876869864</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.24188933220489256</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.23278904704650352</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.22151688503413913</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.20812635995596124</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.20223734753015699</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.19301517880113195</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.18459740419511594</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2A7E-43D5-8FCD-A073E0C5C57D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'20230601_4'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nps並列化効率en(p)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'20230601_4'!$A$2:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'20230601_4'!$I$2:$I$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.84045387601021171</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.77431804872288756</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.71293811819827801</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.66139953730228906</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.62799196855621398</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.59720410053479545</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56786245359315646</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.53468651200424155</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.49564923092849994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.4600326009968036</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.43615597295087322</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.40345331803028306</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.38484937389388146</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.3585231321665841</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.34127073581103895</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.32772603513798026</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.29480780330180578</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.28624679056311725</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2756263303233818</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.25759771746963844</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.25144674631376024</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.24480559254951761</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.23567850187602199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2A7E-43D5-8FCD-A073E0C5C57D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="579628432"/>
-        <c:axId val="579623632"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="579628432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="579623632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="579623632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="579628432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -7433,7 +9022,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_3'!$E$1</c:f>
+              <c:f>'20230601_4'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7456,7 +9045,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_3'!$A$2:$A$25</c:f>
+              <c:f>'20230601_4'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7537,7 +9126,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_3'!$E$2:$E$25</c:f>
+              <c:f>'20230601_4'!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7545,73 +9134,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6184139421777897</c:v>
+                  <c:v>1.6216143194866599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1437902648532567</c:v>
+                  <c:v>2.1833393961440524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5803984921917071</c:v>
+                  <c:v>2.5977061242155375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9027138357160167</c:v>
+                  <c:v>3.0401418260098771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2359535386277689</c:v>
+                  <c:v>3.3516682954069523</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6356600910470411</c:v>
+                  <c:v>3.6912669126691267</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0031746031746032</c:v>
+                  <c:v>3.9748344370860926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1209150326797381</c:v>
+                  <c:v>4.1180102915951968</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1835166753972413</c:v>
+                  <c:v>4.2688477951635848</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.273813770959686</c:v>
+                  <c:v>4.4010999083409716</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3231685312161678</c:v>
+                  <c:v>4.4099926524614252</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4018004776777513</c:v>
+                  <c:v>4.4409914909359971</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5086563793752354</c:v>
+                  <c:v>4.3770282588878757</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4791549822396703</c:v>
+                  <c:v>4.5195783132530121</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.4583178265723857</c:v>
+                  <c:v>4.4992503748125934</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4417871709306631</c:v>
+                  <c:v>4.5392323690678769</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3545983278807707</c:v>
+                  <c:v>4.354007979688066</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3239487457137695</c:v>
+                  <c:v>4.4229918938835668</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.4245614035087719</c:v>
+                  <c:v>4.4303377006827827</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.3349013931608464</c:v>
+                  <c:v>4.370653559075186</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.4018004776777513</c:v>
+                  <c:v>4.4492216456634539</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.4583178265723857</c:v>
+                  <c:v>4.4393491124260347</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.4294694028471069</c:v>
+                  <c:v>4.4303377006827827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7619,7 +9208,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3C00-40B7-865C-53DC8CCF67ED}"/>
+              <c16:uniqueId val="{00000000-E781-4F84-887A-354EC1C5B279}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7628,7 +9217,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_3'!$F$1</c:f>
+              <c:f>'20230601_4'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7651,7 +9240,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_3'!$A$2:$A$25</c:f>
+              <c:f>'20230601_4'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7732,7 +9321,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_3'!$F$2:$F$25</c:f>
+              <c:f>'20230601_4'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7740,73 +9329,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.66618512039113</c:v>
+                  <c:v>1.6809077520204234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2846167443223364</c:v>
+                  <c:v>2.3229541461686627</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8184465878501777</c:v>
+                  <c:v>2.8517524727931121</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2702257010537394</c:v>
+                  <c:v>3.3069976865114454</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6437197184672061</c:v>
+                  <c:v>3.7679518113372836</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1257558562826517</c:v>
+                  <c:v>4.1804287037435683</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5349948007467686</c:v>
+                  <c:v>4.5428996287452517</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8674938133333701</c:v>
+                  <c:v>4.8121786080381739</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0023784909742934</c:v>
+                  <c:v>4.9564923092849993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1528912031215652</c:v>
+                  <c:v>5.0603586109648395</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2682564454075482</c:v>
+                  <c:v>5.2338716754104784</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2717260514010125</c:v>
+                  <c:v>5.2448931343936795</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3281176680095745</c:v>
+                  <c:v>5.3878912345143402</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3738512308874054</c:v>
+                  <c:v>5.3778469824987614</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5766624000112595</c:v>
+                  <c:v>5.4603317729766232</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3668536928479211</c:v>
+                  <c:v>5.5713425973456641</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4250088234342595</c:v>
+                  <c:v>5.3065404594325045</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.5277046550494138</c:v>
+                  <c:v>5.4386890206992273</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.5308631806176294</c:v>
+                  <c:v>5.5125266064676364</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.614438280773749</c:v>
+                  <c:v>5.4095520668624077</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.6628072184928628</c:v>
+                  <c:v>5.5318284189027258</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.6326084710637785</c:v>
+                  <c:v>5.6305286286389054</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.6668804636996928</c:v>
+                  <c:v>5.6562840450245275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7814,7 +9403,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3C00-40B7-865C-53DC8CCF67ED}"/>
+              <c16:uniqueId val="{00000001-E781-4F84-887A-354EC1C5B279}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7823,7 +9412,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_3'!$G$1</c:f>
+              <c:f>'20230601_4'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7846,7 +9435,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_3'!$A$2:$A$25</c:f>
+              <c:f>'20230601_4'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7927,7 +9516,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_3'!$G$2:$G$25</c:f>
+              <c:f>'20230601_4'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8009,7 +9598,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3C00-40B7-865C-53DC8CCF67ED}"/>
+              <c16:uniqueId val="{00000002-E781-4F84-887A-354EC1C5B279}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8319,7 +9908,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_3'!$H$1</c:f>
+              <c:f>'20230601_4'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8342,7 +9931,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_3'!$A$2:$A$25</c:f>
+              <c:f>'20230601_4'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8423,7 +10012,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_3'!$H$2:$H$25</c:f>
+              <c:f>'20230601_4'!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8431,73 +10020,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80920697108889483</c:v>
+                  <c:v>0.81080715974332995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71459675495108554</c:v>
+                  <c:v>0.72777979871468412</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64509962304792678</c:v>
+                  <c:v>0.64942653105388437</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5805427671432033</c:v>
+                  <c:v>0.60802836520197545</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53932558977129486</c:v>
+                  <c:v>0.55861138256782539</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51938001300672021</c:v>
+                  <c:v>0.52732384466701809</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5003968253968254</c:v>
+                  <c:v>0.49685430463576158</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.45787944807552644</c:v>
+                  <c:v>0.457556699066133</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41835166753972414</c:v>
+                  <c:v>0.4268847795163585</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38852852463269871</c:v>
+                  <c:v>0.40009999166736104</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36026404426801401</c:v>
+                  <c:v>0.36749938770511875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.33860003674444239</c:v>
+                  <c:v>0.34161473007199977</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.32204688424108824</c:v>
+                  <c:v>0.31264487563484827</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29861033214931137</c:v>
+                  <c:v>0.30130522088353412</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.27864486416077411</c:v>
+                  <c:v>0.28120314842578709</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.261281598290039</c:v>
+                  <c:v>0.26701366876869864</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.24192212932670948</c:v>
+                  <c:v>0.24188933220489256</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.22757624977440893</c:v>
+                  <c:v>0.23278904704650352</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.22122807017543861</c:v>
+                  <c:v>0.22151688503413913</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.20642387586480221</c:v>
+                  <c:v>0.20812635995596124</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20008183989444325</c:v>
+                  <c:v>0.20223734753015699</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1938399055031472</c:v>
+                  <c:v>0.19301517880113195</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18456122511862946</c:v>
+                  <c:v>0.18459740419511594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8505,7 +10094,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-014A-413F-B4F0-175B105BB3FD}"/>
+              <c16:uniqueId val="{00000000-2A7E-43D5-8FCD-A073E0C5C57D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8514,7 +10103,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_3'!$I$1</c:f>
+              <c:f>'20230601_4'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8537,7 +10126,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_3'!$A$2:$A$25</c:f>
+              <c:f>'20230601_4'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8618,7 +10207,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_3'!$I$2:$I$25</c:f>
+              <c:f>'20230601_4'!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8626,73 +10215,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83309256019556499</c:v>
+                  <c:v>0.84045387601021171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76153891477411217</c:v>
+                  <c:v>0.77431804872288756</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70461164696254441</c:v>
+                  <c:v>0.71293811819827801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65404514021074789</c:v>
+                  <c:v>0.66139953730228906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60728661974453435</c:v>
+                  <c:v>0.62799196855621398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58939369375466455</c:v>
+                  <c:v>0.59720410053479545</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56687435009334608</c:v>
+                  <c:v>0.56786245359315646</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54083264592593006</c:v>
+                  <c:v>0.53468651200424155</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5002378490974293</c:v>
+                  <c:v>0.49564923092849994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4684446548292332</c:v>
+                  <c:v>0.4600326009968036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.439021370450629</c:v>
+                  <c:v>0.43615597295087322</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40551738856930863</c:v>
+                  <c:v>0.40345331803028306</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.38057983342925533</c:v>
+                  <c:v>0.38484937389388146</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.35825674872582702</c:v>
+                  <c:v>0.3585231321665841</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.34854140000070372</c:v>
+                  <c:v>0.34127073581103895</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.31569727604987774</c:v>
+                  <c:v>0.32772603513798026</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.30138937907968111</c:v>
+                  <c:v>0.29480780330180578</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.29093182394996914</c:v>
+                  <c:v>0.28624679056311725</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.27654315903088145</c:v>
+                  <c:v>0.2756263303233818</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.26735420384636899</c:v>
+                  <c:v>0.25759771746963844</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.25740032811331193</c:v>
+                  <c:v>0.25144674631376024</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.24489602048103384</c:v>
+                  <c:v>0.24480559254951761</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.23612001932082052</c:v>
+                  <c:v>0.23567850187602199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8700,7 +10289,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-014A-413F-B4F0-175B105BB3FD}"/>
+              <c16:uniqueId val="{00000001-2A7E-43D5-8FCD-A073E0C5C57D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9010,7 +10599,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_2'!$E$1</c:f>
+              <c:f>'20230601_3'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9033,7 +10622,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_2'!$A$2:$A$25</c:f>
+              <c:f>'20230601_3'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9114,7 +10703,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_2'!$E$2:$E$25</c:f>
+              <c:f>'20230601_3'!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9122,73 +10711,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6523937963587323</c:v>
+                  <c:v>1.6184139421777897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2122415816556829</c:v>
+                  <c:v>2.1437902648532567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6540669338243257</c:v>
+                  <c:v>2.5803984921917071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0078556523873816</c:v>
+                  <c:v>2.9027138357160167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.377670572019297</c:v>
+                  <c:v>3.2359535386277689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.754404780144017</c:v>
+                  <c:v>3.6356600910470411</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0410620052770447</c:v>
+                  <c:v>4.0031746031746032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1910381392166922</c:v>
+                  <c:v>4.1209150326797381</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.302141853932584</c:v>
+                  <c:v>4.1835166753972413</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3907901809711518</c:v>
+                  <c:v>4.273813770959686</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4184998196898659</c:v>
+                  <c:v>4.3231685312161678</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5354432722561544</c:v>
+                  <c:v>4.4018004776777513</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.511229749631811</c:v>
+                  <c:v>4.5086563793752354</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6105362182502345</c:v>
+                  <c:v>4.4791549822396703</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.6096689240030093</c:v>
+                  <c:v>4.4583178265723857</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.6490229557958642</c:v>
+                  <c:v>4.4417871709306631</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4042056074766354</c:v>
+                  <c:v>4.3545983278807707</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.4457547169811322</c:v>
+                  <c:v>4.3239487457137695</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.5228866740494649</c:v>
+                  <c:v>4.4245614035087719</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5778068372875023</c:v>
+                  <c:v>4.3349013931608464</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.4889173841362888</c:v>
+                  <c:v>4.4018004776777513</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.4856306058941975</c:v>
+                  <c:v>4.4583178265723857</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.5228866740494649</c:v>
+                  <c:v>4.4294694028471069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9196,7 +10785,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D9D7-4605-AA4F-5223E05BFBD9}"/>
+              <c16:uniqueId val="{00000000-3C00-40B7-865C-53DC8CCF67ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9205,7 +10794,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_2'!$F$1</c:f>
+              <c:f>'20230601_3'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9228,7 +10817,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_2'!$A$2:$A$25</c:f>
+              <c:f>'20230601_3'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9309,7 +10898,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_2'!$F$2:$F$25</c:f>
+              <c:f>'20230601_3'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9317,73 +10906,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7056442229922395</c:v>
+                  <c:v>1.66618512039113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3285788164815111</c:v>
+                  <c:v>2.2846167443223364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8962873772134823</c:v>
+                  <c:v>2.8184465878501777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3574494288129415</c:v>
+                  <c:v>3.2702257010537394</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8572990411251031</c:v>
+                  <c:v>3.6437197184672061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2782003780797702</c:v>
+                  <c:v>4.1257558562826517</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6580182479058374</c:v>
+                  <c:v>4.5349948007467686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9311848682920001</c:v>
+                  <c:v>4.8674938133333701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1080816506552615</c:v>
+                  <c:v>5.0023784909742934</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2309922895788841</c:v>
+                  <c:v>5.1528912031215652</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4244711545418367</c:v>
+                  <c:v>5.2682564454075482</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4053593598460354</c:v>
+                  <c:v>5.2717260514010125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.451695087294711</c:v>
+                  <c:v>5.3281176680095745</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5517164577162932</c:v>
+                  <c:v>5.3738512308874054</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.6271419249159198</c:v>
+                  <c:v>5.5766624000112595</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.6477837628231589</c:v>
+                  <c:v>5.3668536928479211</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4003289010597468</c:v>
+                  <c:v>5.4250088234342595</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.509548274872655</c:v>
+                  <c:v>5.5277046550494138</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.6375386812503026</c:v>
+                  <c:v>5.5308631806176294</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.5978026428196319</c:v>
+                  <c:v>5.614438280773749</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7852487559807999</c:v>
+                  <c:v>5.6628072184928628</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.7595475688565054</c:v>
+                  <c:v>5.6326084710637785</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.7134198725027305</c:v>
+                  <c:v>5.6668804636996928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9391,7 +10980,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D9D7-4605-AA4F-5223E05BFBD9}"/>
+              <c16:uniqueId val="{00000001-3C00-40B7-865C-53DC8CCF67ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9400,7 +10989,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_2'!$G$1</c:f>
+              <c:f>'20230601_3'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9423,7 +11012,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_2'!$A$2:$A$25</c:f>
+              <c:f>'20230601_3'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9504,7 +11093,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_2'!$G$2:$G$25</c:f>
+              <c:f>'20230601_3'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -9586,7 +11175,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D9D7-4605-AA4F-5223E05BFBD9}"/>
+              <c16:uniqueId val="{00000002-3C00-40B7-865C-53DC8CCF67ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9896,7 +11485,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_2'!$H$1</c:f>
+              <c:f>'20230601_3'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9919,7 +11508,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_2'!$A$2:$A$25</c:f>
+              <c:f>'20230601_3'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10000,7 +11589,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_2'!$H$2:$H$25</c:f>
+              <c:f>'20230601_3'!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10008,73 +11597,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82619689817936615</c:v>
+                  <c:v>0.80920697108889483</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73741386055189428</c:v>
+                  <c:v>0.71459675495108554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66351673345608142</c:v>
+                  <c:v>0.64509962304792678</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60157113047747635</c:v>
+                  <c:v>0.5805427671432033</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56294509533654946</c:v>
+                  <c:v>0.53932558977129486</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53634354002057383</c:v>
+                  <c:v>0.51938001300672021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50513275065963059</c:v>
+                  <c:v>0.5003968253968254</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46567090435741026</c:v>
+                  <c:v>0.45787944807552644</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4302141853932584</c:v>
+                  <c:v>0.41835166753972414</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39916274372465016</c:v>
+                  <c:v>0.38852852463269871</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36820831830748885</c:v>
+                  <c:v>0.36026404426801401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34888025171201187</c:v>
+                  <c:v>0.33860003674444239</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3222306964022722</c:v>
+                  <c:v>0.32204688424108824</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.30736908121668233</c:v>
+                  <c:v>0.29861033214931137</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.28810430775018808</c:v>
+                  <c:v>0.27864486416077411</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27347193857622731</c:v>
+                  <c:v>0.261281598290039</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.24467808930425752</c:v>
+                  <c:v>0.24192212932670948</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.23398709036742801</c:v>
+                  <c:v>0.22757624977440893</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.22614433370247325</c:v>
+                  <c:v>0.22122807017543861</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.21799080177559535</c:v>
+                  <c:v>0.20642387586480221</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20404169927892221</c:v>
+                  <c:v>0.20008183989444325</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19502741764757381</c:v>
+                  <c:v>0.1938399055031472</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18845361141872771</c:v>
+                  <c:v>0.18456122511862946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10082,7 +11671,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3128-4D2E-A090-B7514F272744}"/>
+              <c16:uniqueId val="{00000000-014A-413F-B4F0-175B105BB3FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10091,7 +11680,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601_2'!$I$1</c:f>
+              <c:f>'20230601_3'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10114,7 +11703,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601_2'!$A$2:$A$25</c:f>
+              <c:f>'20230601_3'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10195,7 +11784,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601_2'!$I$2:$I$25</c:f>
+              <c:f>'20230601_3'!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10203,73 +11792,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85282211149611975</c:v>
+                  <c:v>0.83309256019556499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77619293882717033</c:v>
+                  <c:v>0.76153891477411217</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72407184430337057</c:v>
+                  <c:v>0.70461164696254441</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67148988576258828</c:v>
+                  <c:v>0.65404514021074789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64288317352085056</c:v>
+                  <c:v>0.60728661974453435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61117148258282428</c:v>
+                  <c:v>0.58939369375466455</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58225228098822968</c:v>
+                  <c:v>0.56687435009334608</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54790942981022228</c:v>
+                  <c:v>0.54083264592593006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51080816506552618</c:v>
+                  <c:v>0.5002378490974293</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47554475359808035</c:v>
+                  <c:v>0.4684446548292332</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45203926287848639</c:v>
+                  <c:v>0.439021370450629</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.41579687383431041</c:v>
+                  <c:v>0.40551738856930863</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.38940679194962219</c:v>
+                  <c:v>0.38057983342925533</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37011443051441956</c:v>
+                  <c:v>0.35825674872582702</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.35169637030724499</c:v>
+                  <c:v>0.34854140000070372</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33222257428371521</c:v>
+                  <c:v>0.31569727604987774</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.30001827228109706</c:v>
+                  <c:v>0.30138937907968111</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28997622499329762</c:v>
+                  <c:v>0.29093182394996914</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28187693406251513</c:v>
+                  <c:v>0.27654315903088145</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.26656203061045869</c:v>
+                  <c:v>0.26735420384636899</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.26296585254458182</c:v>
+                  <c:v>0.25740032811331193</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.25041511168941327</c:v>
+                  <c:v>0.24489602048103384</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.23805916135428043</c:v>
+                  <c:v>0.23612001932082052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10277,7 +11866,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3128-4D2E-A090-B7514F272744}"/>
+              <c16:uniqueId val="{00000001-014A-413F-B4F0-175B105BB3FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10587,7 +12176,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$E$1</c:f>
+              <c:f>'20230601_2'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10610,7 +12199,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10691,7 +12280,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$E$2:$E$25</c:f>
+              <c:f>'20230601_2'!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10699,73 +12288,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6338953212810616</c:v>
+                  <c:v>1.6523937963587323</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1853830827748597</c:v>
+                  <c:v>2.2122415816556829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6132770197097681</c:v>
+                  <c:v>2.6540669338243257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9950353729676058</c:v>
+                  <c:v>3.0078556523873816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3464151990015254</c:v>
+                  <c:v>3.377670572019297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7033456108041745</c:v>
+                  <c:v>3.754404780144017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0325868983957216</c:v>
+                  <c:v>4.0410620052770447</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1526415419032867</c:v>
+                  <c:v>4.1910381392166922</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2785460992907804</c:v>
+                  <c:v>4.302141853932584</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4082937522835222</c:v>
+                  <c:v>4.3907901809711518</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4042708523453182</c:v>
+                  <c:v>4.4184998196898659</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4687037037037038</c:v>
+                  <c:v>4.5354432722561544</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4530356154272006</c:v>
+                  <c:v>4.511229749631811</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4662224689987049</c:v>
+                  <c:v>4.6105362182502345</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5206069689022108</c:v>
+                  <c:v>4.6096689240030093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4794876554668654</c:v>
+                  <c:v>4.6490229557958642</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3723500634172856</c:v>
+                  <c:v>4.4042056074766354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3573492235464064</c:v>
+                  <c:v>4.4457547169811322</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3858596873864055</c:v>
+                  <c:v>4.5228866740494649</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5045734552921406</c:v>
+                  <c:v>4.5778068372875023</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.4803193464537694</c:v>
+                  <c:v>4.4889173841362888</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.4382931763840352</c:v>
+                  <c:v>4.4856306058941975</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.4695313947027229</c:v>
+                  <c:v>4.5228866740494649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10773,7 +12362,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F8C8-4FE5-A128-296D20C91D65}"/>
+              <c16:uniqueId val="{00000000-D9D7-4605-AA4F-5223E05BFBD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10782,7 +12371,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$F$1</c:f>
+              <c:f>'20230601_2'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10805,7 +12394,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10886,7 +12475,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$F$2:$F$25</c:f>
+              <c:f>'20230601_2'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -10894,73 +12483,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6849697603479148</c:v>
+                  <c:v>1.7056442229922395</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.291157713491097</c:v>
+                  <c:v>2.3285788164815111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8532476383224008</c:v>
+                  <c:v>2.8962873772134823</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2850813089644175</c:v>
+                  <c:v>3.3574494288129415</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7887617537531435</c:v>
+                  <c:v>3.8572990411251031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1859855009932225</c:v>
+                  <c:v>4.2782003780797702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5685306601435611</c:v>
+                  <c:v>4.6580182479058374</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8062917642833964</c:v>
+                  <c:v>4.9311848682920001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0634161489399219</c:v>
+                  <c:v>5.1080816506552615</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1843061683928822</c:v>
+                  <c:v>5.2309922895788841</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2883181532120718</c:v>
+                  <c:v>5.4244711545418367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3238114631006548</c:v>
+                  <c:v>5.4053593598460354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4607191905457881</c:v>
+                  <c:v>5.451695087294711</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5587366246746148</c:v>
+                  <c:v>5.5517164577162932</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.6256372712460907</c:v>
+                  <c:v>5.6271419249159198</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.5466596645459481</c:v>
+                  <c:v>5.6477837628231589</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4138122663806358</c:v>
+                  <c:v>5.4003289010597468</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3348567597240928</c:v>
+                  <c:v>5.509548274872655</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.6096367904593967</c:v>
+                  <c:v>5.6375386812503026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.6094191616336158</c:v>
+                  <c:v>5.5978026428196319</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7194479694588223</c:v>
+                  <c:v>5.7852487559807999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.6927278600631146</c:v>
+                  <c:v>5.7595475688565054</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.7234046894028374</c:v>
+                  <c:v>5.7134198725027305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10968,7 +12557,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F8C8-4FE5-A128-296D20C91D65}"/>
+              <c16:uniqueId val="{00000001-D9D7-4605-AA4F-5223E05BFBD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10977,7 +12566,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$G$1</c:f>
+              <c:f>'20230601_2'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11000,7 +12589,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -11081,7 +12670,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$G$2:$G$25</c:f>
+              <c:f>'20230601_2'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -11163,7 +12752,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F8C8-4FE5-A128-296D20C91D65}"/>
+              <c16:uniqueId val="{00000002-D9D7-4605-AA4F-5223E05BFBD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11473,7 +13062,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$H$1</c:f>
+              <c:f>'20230601_2'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11496,7 +13085,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -11577,7 +13166,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$H$2:$H$25</c:f>
+              <c:f>'20230601_2'!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -11585,73 +13174,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81694766064053082</c:v>
+                  <c:v>0.82619689817936615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7284610275916199</c:v>
+                  <c:v>0.73741386055189428</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65331925492744203</c:v>
+                  <c:v>0.66351673345608142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5990070745935212</c:v>
+                  <c:v>0.60157113047747635</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5577358665002542</c:v>
+                  <c:v>0.56294509533654946</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52904937297202492</c:v>
+                  <c:v>0.53634354002057383</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5040733622994652</c:v>
+                  <c:v>0.50513275065963059</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46140461576703184</c:v>
+                  <c:v>0.46567090435741026</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42785460992907803</c:v>
+                  <c:v>0.4302141853932584</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.40075397748032021</c:v>
+                  <c:v>0.39916274372465016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3670225710287765</c:v>
+                  <c:v>0.36820831830748885</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34374643874643873</c:v>
+                  <c:v>0.34888025171201187</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.31807397253051434</c:v>
+                  <c:v>0.3222306964022722</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29774816459991366</c:v>
+                  <c:v>0.30736908121668233</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.28253793555638818</c:v>
+                  <c:v>0.28810430775018808</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.26349927385099209</c:v>
+                  <c:v>0.27347193857622731</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.24290833685651586</c:v>
+                  <c:v>0.24467808930425752</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.22933416966033718</c:v>
+                  <c:v>0.23398709036742801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.21929298436932027</c:v>
+                  <c:v>0.22614433370247325</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.21450349787105433</c:v>
+                  <c:v>0.21799080177559535</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20365087938426224</c:v>
+                  <c:v>0.20404169927892221</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19296926853843632</c:v>
+                  <c:v>0.19502741764757381</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18623047477928012</c:v>
+                  <c:v>0.18845361141872771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11659,7 +13248,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A041-4DA6-B6C6-E6F68ABF0162}"/>
+              <c16:uniqueId val="{00000000-3128-4D2E-A090-B7514F272744}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11668,7 +13257,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230601'!$I$1</c:f>
+              <c:f>'20230601_2'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11691,7 +13280,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230601'!$A$2:$A$25</c:f>
+              <c:f>'20230601_2'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -11772,7 +13361,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230601'!$I$2:$I$25</c:f>
+              <c:f>'20230601_2'!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -11780,73 +13369,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8424848801739574</c:v>
+                  <c:v>0.85282211149611975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76371923783036566</c:v>
+                  <c:v>0.77619293882717033</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7133119095806002</c:v>
+                  <c:v>0.72407184430337057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65701626179288353</c:v>
+                  <c:v>0.67148988576258828</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63146029229219058</c:v>
+                  <c:v>0.64288317352085056</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59799792871331747</c:v>
+                  <c:v>0.61117148258282428</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57106633251794514</c:v>
+                  <c:v>0.58225228098822968</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53403241825371073</c:v>
+                  <c:v>0.54790942981022228</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50634161489399221</c:v>
+                  <c:v>0.51080816506552618</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47130056076298926</c:v>
+                  <c:v>0.47554475359808035</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.44069317943433933</c:v>
+                  <c:v>0.45203926287848639</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40952395870005037</c:v>
+                  <c:v>0.41579687383431041</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39005137075327057</c:v>
+                  <c:v>0.38940679194962219</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.37058244164497434</c:v>
+                  <c:v>0.37011443051441956</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.35160232945288067</c:v>
+                  <c:v>0.35169637030724499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.32627409791446754</c:v>
+                  <c:v>0.33222257428371521</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.30076734813225753</c:v>
+                  <c:v>0.30001827228109706</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28078193472232066</c:v>
+                  <c:v>0.28997622499329762</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28048183952296984</c:v>
+                  <c:v>0.28187693406251513</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.26711519817302931</c:v>
+                  <c:v>0.26656203061045869</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.25997490770267373</c:v>
+                  <c:v>0.26296585254458182</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.24750990695926586</c:v>
+                  <c:v>0.25041511168941327</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.23847519539178488</c:v>
+                  <c:v>0.23805916135428043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11854,7 +13443,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A041-4DA6-B6C6-E6F68ABF0162}"/>
+              <c16:uniqueId val="{00000001-3128-4D2E-A090-B7514F272744}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12164,7 +13753,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$E$1</c:f>
+              <c:f>'20230601'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12187,7 +13776,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -12268,7 +13857,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$E$2:$E$25</c:f>
+              <c:f>'20230601'!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -12276,73 +13865,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.113042236083996</c:v>
+                  <c:v>1.6338953212810616</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5991653554080865</c:v>
+                  <c:v>2.1853830827748597</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1197968622472114</c:v>
+                  <c:v>2.6132770197097681</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.570093457943925</c:v>
+                  <c:v>2.9950353729676058</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7757985987412424</c:v>
+                  <c:v>3.3464151990015254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0768724496511779</c:v>
+                  <c:v>3.7033456108041745</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3326204733390359</c:v>
+                  <c:v>4.0325868983957216</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6128284389489953</c:v>
+                  <c:v>4.1526415419032867</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9305532201109803</c:v>
+                  <c:v>4.2785460992907804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1592526690391463</c:v>
+                  <c:v>4.4082937522835222</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.389671361502347</c:v>
+                  <c:v>4.4042708523453182</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4642857142857144</c:v>
+                  <c:v>4.4687037037037038</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5770511063246522</c:v>
+                  <c:v>4.4530356154272006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6918908069048575</c:v>
+                  <c:v>4.4662224689987049</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7743055555555554</c:v>
+                  <c:v>4.5206069689022108</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7461928934010151</c:v>
+                  <c:v>4.4794876554668654</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.8819966583124472</c:v>
+                  <c:v>4.3723500634172856</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8647242455775235</c:v>
+                  <c:v>4.3573492235464064</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.010718113612004</c:v>
+                  <c:v>4.3858596873864055</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8536129568106317</c:v>
+                  <c:v>4.5045734552921406</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.8017666392769103</c:v>
+                  <c:v>4.4803193464537694</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.7597230706577074</c:v>
+                  <c:v>4.4382931763840352</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.8067036808554384</c:v>
+                  <c:v>4.4695313947027229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12350,7 +13939,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-75E1-40E3-BD0C-BA7F77C303A8}"/>
+              <c16:uniqueId val="{00000000-F8C8-4FE5-A128-296D20C91D65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12359,7 +13948,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$F$1</c:f>
+              <c:f>'20230601'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12382,7 +13971,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -12463,7 +14052,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$F$2:$F$25</c:f>
+              <c:f>'20230601'!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -12471,73 +14060,73 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1162082083449918</c:v>
+                  <c:v>1.6849697603479148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6613317779316894</c:v>
+                  <c:v>2.291157713491097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2438468498980595</c:v>
+                  <c:v>2.8532476383224008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7857582674795132</c:v>
+                  <c:v>3.2850813089644175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0609617541932517</c:v>
+                  <c:v>3.7887617537531435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.403457920658544</c:v>
+                  <c:v>4.1859855009932225</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7569881446554998</c:v>
+                  <c:v>4.5685306601435611</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1319703098955962</c:v>
+                  <c:v>4.8062917642833964</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5184290850253834</c:v>
+                  <c:v>5.0634161489399219</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8599496767143577</c:v>
+                  <c:v>5.1843061683928822</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1988288287150013</c:v>
+                  <c:v>5.2883181532120718</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2719421781171212</c:v>
+                  <c:v>5.3238114631006548</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4654682693368315</c:v>
+                  <c:v>5.4607191905457881</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6355195850516191</c:v>
+                  <c:v>5.5587366246746148</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.8166107035640842</c:v>
+                  <c:v>5.6256372712460907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0035319320812297</c:v>
+                  <c:v>5.5466596645459481</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.0662577213335718</c:v>
+                  <c:v>5.4138122663806358</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.2447032044447663</c:v>
+                  <c:v>5.3348567597240928</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.2141290442530668</c:v>
+                  <c:v>5.6096367904593967</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.131415403020041</c:v>
+                  <c:v>5.6094191616336158</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.1323287334413266</c:v>
+                  <c:v>5.7194479694588223</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.2212522682179108</c:v>
+                  <c:v>5.6927278600631146</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.2245083321733539</c:v>
+                  <c:v>5.7234046894028374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12545,7 +14134,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-75E1-40E3-BD0C-BA7F77C303A8}"/>
+              <c16:uniqueId val="{00000001-F8C8-4FE5-A128-296D20C91D65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12554,7 +14143,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'20230526'!$G$1</c:f>
+              <c:f>'20230601'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12577,7 +14166,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'20230526'!$A$2:$A$25</c:f>
+              <c:f>'20230601'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -12658,7 +14247,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20230526'!$G$2:$G$25</c:f>
+              <c:f>'20230601'!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -12740,7 +14329,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-75E1-40E3-BD0C-BA7F77C303A8}"/>
+              <c16:uniqueId val="{00000002-F8C8-4FE5-A128-296D20C91D65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13442,6 +15031,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -19914,7 +21583,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20430,7 +22099,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20946,7 +22615,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21462,7 +23131,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21978,7 +23647,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22494,7 +24163,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23010,7 +24679,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23526,7 +25195,1120 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E542DE-0345-41B7-B6C1-C923EC53C267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0CD563-B3C7-4487-9863-90228DE39DAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23607,7 +26389,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23688,7 +26470,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23769,7 +26551,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23850,7 +26632,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23927,7 +26709,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -24046,7 +26828,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -24165,7 +26947,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -24574,11 +27356,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2E351A-CD2B-4321-8C02-7EF304A99371}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEE30F8-1FD5-4B4B-940B-BB1BA5C0BE4B}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -24624,7 +27406,7 @@
         <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P1" t="s">
         <v>4</v>
@@ -24641,10 +27423,10 @@
         <v>978640876</v>
       </c>
       <c r="C2">
-        <v>24.007999999999999</v>
+        <v>25.672000000000001</v>
       </c>
       <c r="D2">
-        <v>40763115</v>
+        <v>38120944</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E25" si="0">C$2/C2</f>
@@ -24678,21 +27460,21 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1014424342</v>
+        <v>1012717288</v>
       </c>
       <c r="C3">
-        <v>14.805</v>
+        <v>14.920999999999999</v>
       </c>
       <c r="D3">
-        <v>68519036</v>
+        <v>67871944</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>1.6216143194866599</v>
+        <v>1.7205281147376181</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>1.6809077520204234</v>
+        <v>1.7804371266356889</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G25" si="4">A3</f>
@@ -24700,11 +27482,18 @@
       </c>
       <c r="H3">
         <f t="shared" si="2"/>
-        <v>0.81080715974332995</v>
+        <v>0.86026405736880907</v>
       </c>
       <c r="I3">
         <f t="shared" si="3"/>
-        <v>0.84045387601021171</v>
+        <v>0.89021856331784444</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3">
+        <f>MIN(C:C)</f>
+        <v>5.1429999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
@@ -24712,21 +27501,21 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1041220561</v>
+        <v>1016548799</v>
       </c>
       <c r="C4">
-        <v>10.996</v>
+        <v>10.635999999999999</v>
       </c>
       <c r="D4">
-        <v>94690847</v>
+        <v>95576231</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>2.1833393961440524</v>
+        <v>2.4136893569010907</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>2.3229541461686627</v>
+        <v>2.5071842659510217</v>
       </c>
       <c r="G4">
         <f t="shared" si="4"/>
@@ -24734,11 +27523,11 @@
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>0.72777979871468412</v>
+        <v>0.80456311896703026</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>0.77431804872288756</v>
+        <v>0.83572808865034054</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
@@ -24746,21 +27535,21 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1074348439</v>
+        <v>1067224077</v>
       </c>
       <c r="C5">
-        <v>9.2420000000000009</v>
+        <v>8.9420000000000002</v>
       </c>
       <c r="D5">
-        <v>116246314</v>
+        <v>119349594</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>2.5977061242155375</v>
+        <v>2.8709460970700067</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>2.8517524727931121</v>
+        <v>3.1308142316727521</v>
       </c>
       <c r="G5">
         <f t="shared" si="4"/>
@@ -24768,11 +27557,11 @@
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>0.64942653105388437</v>
+        <v>0.71773652426750167</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>0.71293811819827801</v>
+        <v>0.78270355791818802</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
@@ -24780,21 +27569,21 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1064543456</v>
+        <v>1103879211</v>
       </c>
       <c r="C6">
-        <v>7.8970000000000002</v>
+        <v>7.718</v>
       </c>
       <c r="D6">
-        <v>134803527</v>
+        <v>143026588</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>3.0401418260098771</v>
+        <v>3.3262503239181136</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>3.3069976865114454</v>
+        <v>3.7519162169751095</v>
       </c>
       <c r="G6">
         <f t="shared" si="4"/>
@@ -24802,11 +27591,11 @@
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>0.60802836520197545</v>
+        <v>0.6652500647836227</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>0.66139953730228906</v>
+        <v>0.75038324339502194</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
@@ -24814,21 +27603,21 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1100189910</v>
+        <v>1108889564</v>
       </c>
       <c r="C7">
-        <v>7.1630000000000003</v>
+        <v>6.8869999999999996</v>
       </c>
       <c r="D7">
-        <v>153593453</v>
+        <v>161011988</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>3.3516682954069523</v>
+        <v>3.7276027297807466</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>3.7679518113372836</v>
+        <v>4.2237146068575848</v>
       </c>
       <c r="G7">
         <f t="shared" si="4"/>
@@ -24836,11 +27625,11 @@
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0.55861138256782539</v>
+        <v>0.62126712163012443</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>0.62799196855621398</v>
+        <v>0.7039524344762641</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
@@ -24848,21 +27637,21 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1108329056</v>
+        <v>1135418016</v>
       </c>
       <c r="C8">
-        <v>6.5039999999999996</v>
+        <v>6.383</v>
       </c>
       <c r="D8">
-        <v>170407296</v>
+        <v>177881562</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>3.6912669126691267</v>
+        <v>4.0219332602224664</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>4.1804287037435683</v>
+        <v>4.6662423155103401</v>
       </c>
       <c r="G8">
         <f t="shared" si="4"/>
@@ -24870,11 +27659,11 @@
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>0.52732384466701809</v>
+        <v>0.57456189431749516</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>0.59720410053479545</v>
+        <v>0.66660604507290577</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
@@ -24882,21 +27671,21 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1118503751</v>
+        <v>1127187762</v>
       </c>
       <c r="C9">
-        <v>6.04</v>
+        <v>5.8010000000000002</v>
       </c>
       <c r="D9">
-        <v>185182740</v>
+        <v>194309215</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>3.9748344370860926</v>
+        <v>4.4254438889846579</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>4.5428996287452517</v>
+        <v>5.0971774203702829</v>
       </c>
       <c r="G9">
         <f t="shared" si="4"/>
@@ -24904,11 +27693,11 @@
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>0.49685430463576158</v>
+        <v>0.55318048612308224</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>0.56786245359315646</v>
+        <v>0.63714717754628536</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
@@ -24916,21 +27705,21 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1143609245</v>
+        <v>1150691284</v>
       </c>
       <c r="C10">
-        <v>5.83</v>
+        <v>5.6210000000000004</v>
       </c>
       <c r="D10">
-        <v>196159390</v>
+        <v>204712913</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>4.1180102915951968</v>
+        <v>4.5671588685287317</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>4.8121786080381739</v>
+        <v>5.3700903366926065</v>
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
@@ -24938,11 +27727,11 @@
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0.457556699066133</v>
+        <v>0.50746209650319241</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>0.53468651200424155</v>
+        <v>0.59667670407695628</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
@@ -24950,21 +27739,21 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1136284582</v>
+        <v>1163644697</v>
       </c>
       <c r="C11">
-        <v>5.6239999999999997</v>
+        <v>5.4930000000000003</v>
       </c>
       <c r="D11">
-        <v>202042066</v>
+        <v>211841379</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>4.2688477951635848</v>
+        <v>4.673584562170034</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>4.9564923092849993</v>
+        <v>5.5570863879971073</v>
       </c>
       <c r="G11">
         <f t="shared" si="4"/>
@@ -24972,11 +27761,11 @@
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>0.4268847795163585</v>
+        <v>0.46735845621700339</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>0.49564923092849994</v>
+        <v>0.55570863879971077</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
@@ -24984,21 +27773,21 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1125235471</v>
+        <v>1172021683</v>
       </c>
       <c r="C12">
-        <v>5.4550000000000001</v>
+        <v>5.415</v>
       </c>
       <c r="D12">
-        <v>206275980</v>
+        <v>216439830</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>4.4010999083409716</v>
+        <v>4.7409048938134815</v>
       </c>
       <c r="F12">
         <f>D12/D$2</f>
-        <v>5.0603586109648395</v>
+        <v>5.6777143294247905</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
@@ -25006,11 +27795,11 @@
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>0.40009999166736104</v>
+        <v>0.43099135398304378</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>0.4600326009968036</v>
+        <v>0.51615584812952642</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
@@ -25018,21 +27807,21 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1161471487</v>
+        <v>1194512881</v>
       </c>
       <c r="C13">
-        <v>5.444</v>
+        <v>5.3769999999999998</v>
       </c>
       <c r="D13">
-        <v>213348913</v>
+        <v>222152293</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>4.4099926524614252</v>
+        <v>4.7744095220383116</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>5.2338716754104784</v>
+        <v>5.8275653666918634</v>
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
@@ -25040,11 +27829,11 @@
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>0.36749938770511875</v>
+        <v>0.3978674601698593</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>0.43615597295087322</v>
+        <v>0.48563044722432197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
@@ -25052,21 +27841,21 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1155792976</v>
+        <v>1164318073</v>
       </c>
       <c r="C14">
-        <v>5.4059999999999997</v>
+        <v>5.2030000000000003</v>
       </c>
       <c r="D14">
-        <v>213798182</v>
+        <v>223778218</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>4.4409914909359971</v>
+        <v>4.9340764943301938</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>5.2448931343936795</v>
+        <v>5.8702171173935254</v>
       </c>
       <c r="G14">
         <f t="shared" si="4"/>
@@ -25074,11 +27863,11 @@
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0.34161473007199977</v>
+        <v>0.37954434571770723</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>0.40345331803028306</v>
+        <v>0.45155516287642505</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
@@ -25086,21 +27875,21 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1204655358</v>
+        <v>1193100884</v>
       </c>
       <c r="C15">
-        <v>5.4850000000000003</v>
+        <v>5.234</v>
       </c>
       <c r="D15">
-        <v>219627230</v>
+        <v>227952022</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>4.3770282588878757</v>
+        <v>4.9048528849828053</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>5.3878912345143402</v>
+        <v>5.9797055917607915</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
@@ -25108,11 +27897,11 @@
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>0.31264487563484827</v>
+        <v>0.35034663464162896</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>0.38484937389388146</v>
+        <v>0.4271218279829137</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
@@ -25120,21 +27909,21 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1164484928</v>
+        <v>1213207922</v>
       </c>
       <c r="C16">
-        <v>5.3120000000000003</v>
+        <v>5.2110000000000003</v>
       </c>
       <c r="D16">
-        <v>219217795</v>
+        <v>232816718</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>4.5195783132530121</v>
+        <v>4.9265016311648431</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>5.3778469824987614</v>
+        <v>6.1073177516275567</v>
       </c>
       <c r="G16">
         <f t="shared" si="4"/>
@@ -25142,11 +27931,11 @@
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0.30130522088353412</v>
+        <v>0.32843344207765618</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>0.3585231321665841</v>
+        <v>0.40715451677517045</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -25154,21 +27943,21 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1187687589</v>
+        <v>1212839228</v>
       </c>
       <c r="C17">
-        <v>5.3360000000000003</v>
+        <v>5.1429999999999998</v>
       </c>
       <c r="D17">
-        <v>222580132</v>
+        <v>235823299</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>4.4992503748125934</v>
+        <v>4.991639121135524</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>5.4603317729766232</v>
+        <v>6.186187283294978</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
@@ -25176,11 +27965,11 @@
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0.28120314842578709</v>
+        <v>0.31197744507097025</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>0.34127073581103895</v>
+        <v>0.38663670520593613</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
@@ -25188,21 +27977,21 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1201159824</v>
+        <v>1228215752</v>
       </c>
       <c r="C18">
-        <v>5.2889999999999997</v>
+        <v>5.1890000000000001</v>
       </c>
       <c r="D18">
-        <v>227105279</v>
+        <v>236696040</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>4.5392323690678769</v>
+        <v>4.9473887068799387</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>5.5713425973456641</v>
+        <v>6.2090812861297451</v>
       </c>
       <c r="G18">
         <f t="shared" si="4"/>
@@ -25210,11 +27999,11 @@
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>0.26701366876869864</v>
+        <v>0.29102286511058462</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>0.32772603513798026</v>
+        <v>0.36524007565469091</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
@@ -25222,21 +28011,21 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1192739515</v>
+        <v>1214358339</v>
       </c>
       <c r="C19">
-        <v>5.5140000000000002</v>
+        <v>5.3120000000000003</v>
       </c>
       <c r="D19">
-        <v>216311119</v>
+        <v>228606615</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>4.354007979688066</v>
+        <v>4.8328313253012043</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>5.3065404594325045</v>
+        <v>5.9968770710400037</v>
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
@@ -25244,11 +28033,11 @@
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>0.24188933220489256</v>
+        <v>0.26849062918340022</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>0.29480780330180578</v>
+        <v>0.3331598372800002</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -25256,21 +28045,21 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1203376234</v>
+        <v>1220869431</v>
       </c>
       <c r="C20">
-        <v>5.4279999999999999</v>
+        <v>5.2629999999999999</v>
       </c>
       <c r="D20">
-        <v>221697906</v>
+        <v>231972151</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>4.4229918938835668</v>
+        <v>4.8778263347900443</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>5.4386890206992273</v>
+        <v>6.0851628175839503</v>
       </c>
       <c r="G20">
         <f t="shared" si="4"/>
@@ -25278,11 +28067,11 @@
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>0.23278904704650352</v>
+        <v>0.25672770183105498</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>0.28624679056311725</v>
+        <v>0.32027172724126052</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -25290,21 +28079,21 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1217691330</v>
+        <v>1253614402</v>
       </c>
       <c r="C21">
-        <v>5.4189999999999996</v>
+        <v>5.351</v>
       </c>
       <c r="D21">
-        <v>224707756</v>
+        <v>234276658</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>4.4303377006827827</v>
+        <v>4.7976079237525697</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>5.5125266064676364</v>
+        <v>6.1456153341847992</v>
       </c>
       <c r="G21">
         <f t="shared" si="4"/>
@@ -25312,11 +28101,11 @@
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>0.22151688503413913</v>
+        <v>0.23988039618762849</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>0.2756263303233818</v>
+        <v>0.30728076670923998</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
@@ -25324,21 +28113,21 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1211262495</v>
+        <v>1260646886</v>
       </c>
       <c r="C22">
-        <v>5.4930000000000003</v>
+        <v>5.3120000000000003</v>
       </c>
       <c r="D22">
-        <v>220510193</v>
+        <v>237320573</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>4.370653559075186</v>
+        <v>4.8328313253012043</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>5.4095520668624077</v>
+        <v>6.2254642225019401</v>
       </c>
       <c r="G22">
         <f t="shared" si="4"/>
@@ -25346,11 +28135,11 @@
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>0.20812635995596124</v>
+        <v>0.23013482501434307</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>0.25759771746963844</v>
+        <v>0.29645067726199714</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
@@ -25358,21 +28147,21 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1216768639</v>
+        <v>1262702789</v>
       </c>
       <c r="C23">
-        <v>5.3959999999999999</v>
+        <v>5.3250000000000002</v>
       </c>
       <c r="D23">
-        <v>225494558</v>
+        <v>237127284</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>4.4492216456634539</v>
+        <v>4.8210328638497648</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>5.5318284189027258</v>
+        <v>6.2203938076664631</v>
       </c>
       <c r="G23">
         <f t="shared" si="4"/>
@@ -25380,11 +28169,11 @@
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>0.20223734753015699</v>
+        <v>0.21913785744771658</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>0.25144674631376024</v>
+        <v>0.28274517307574831</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
@@ -25392,21 +28181,21 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1241232728</v>
+        <v>1272045524</v>
       </c>
       <c r="C24">
-        <v>5.4080000000000004</v>
+        <v>5.3380000000000001</v>
       </c>
       <c r="D24">
-        <v>229517886</v>
+        <v>238300023</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>4.4393491124260347</v>
+        <v>4.8092918696140874</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>5.6305286286389054</v>
+        <v>6.2511574477274223</v>
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
@@ -25414,11 +28203,11 @@
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0.19301517880113195</v>
+        <v>0.20909964650496032</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>0.24480559254951761</v>
+        <v>0.27178945424901835</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
@@ -25426,21 +28215,21 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1249446679</v>
+        <v>1273993764</v>
       </c>
       <c r="C25">
-        <v>5.4189999999999996</v>
+        <v>5.3259999999999996</v>
       </c>
       <c r="D25">
-        <v>230567757</v>
+        <v>239202734</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>4.4303377006827827</v>
+        <v>4.8201276755538869</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>5.6562840450245275</v>
+        <v>6.2748376325622992</v>
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
@@ -25448,11 +28237,11 @@
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>0.18459740419511594</v>
+        <v>0.20083865314807861</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>0.23567850187602199</v>
+        <v>0.26145156802342912</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.45">
@@ -25468,6 +28257,907 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2E351A-CD2B-4321-8C02-7EF304A99371}">
+  <dimension ref="A1:Q52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>978640876</v>
+      </c>
+      <c r="C2">
+        <v>24.007999999999999</v>
+      </c>
+      <c r="D2">
+        <v>40763115</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E25" si="0">C$2/C2</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F25" si="1">D2/D$2</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H25" si="2">E2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I25" si="3">F2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1014424342</v>
+      </c>
+      <c r="C3">
+        <v>14.805</v>
+      </c>
+      <c r="D3">
+        <v>68519036</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>1.6216143194866599</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>1.6809077520204234</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G25" si="4">A3</f>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="2"/>
+        <v>0.81080715974332995</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="3"/>
+        <v>0.84045387601021171</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3">
+        <f>MIN(C:C)</f>
+        <v>5.2889999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1041220561</v>
+      </c>
+      <c r="C4">
+        <v>10.996</v>
+      </c>
+      <c r="D4">
+        <v>94690847</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.1833393961440524</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>2.3229541461686627</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.72777979871468412</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0.77431804872288756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1074348439</v>
+      </c>
+      <c r="C5">
+        <v>9.2420000000000009</v>
+      </c>
+      <c r="D5">
+        <v>116246314</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2.5977061242155375</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2.8517524727931121</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.64942653105388437</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.71293811819827801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1064543456</v>
+      </c>
+      <c r="C6">
+        <v>7.8970000000000002</v>
+      </c>
+      <c r="D6">
+        <v>134803527</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3.0401418260098771</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3.3069976865114454</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.60802836520197545</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.66139953730228906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1100189910</v>
+      </c>
+      <c r="C7">
+        <v>7.1630000000000003</v>
+      </c>
+      <c r="D7">
+        <v>153593453</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>3.3516682954069523</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3.7679518113372836</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.55861138256782539</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.62799196855621398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1108329056</v>
+      </c>
+      <c r="C8">
+        <v>6.5039999999999996</v>
+      </c>
+      <c r="D8">
+        <v>170407296</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3.6912669126691267</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4.1804287037435683</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.52732384466701809</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.59720410053479545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1118503751</v>
+      </c>
+      <c r="C9">
+        <v>6.04</v>
+      </c>
+      <c r="D9">
+        <v>185182740</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3.9748344370860926</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>4.5428996287452517</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.49685430463576158</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.56786245359315646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1143609245</v>
+      </c>
+      <c r="C10">
+        <v>5.83</v>
+      </c>
+      <c r="D10">
+        <v>196159390</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4.1180102915951968</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>4.8121786080381739</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.457556699066133</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0.53468651200424155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1136284582</v>
+      </c>
+      <c r="C11">
+        <v>5.6239999999999997</v>
+      </c>
+      <c r="D11">
+        <v>202042066</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4.2688477951635848</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>4.9564923092849993</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.4268847795163585</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0.49564923092849994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1125235471</v>
+      </c>
+      <c r="C12">
+        <v>5.4550000000000001</v>
+      </c>
+      <c r="D12">
+        <v>206275980</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4.4010999083409716</v>
+      </c>
+      <c r="F12">
+        <f>D12/D$2</f>
+        <v>5.0603586109648395</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.40009999166736104</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0.4600326009968036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1161471487</v>
+      </c>
+      <c r="C13">
+        <v>5.444</v>
+      </c>
+      <c r="D13">
+        <v>213348913</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>4.4099926524614252</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>5.2338716754104784</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.36749938770511875</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0.43615597295087322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1155792976</v>
+      </c>
+      <c r="C14">
+        <v>5.4059999999999997</v>
+      </c>
+      <c r="D14">
+        <v>213798182</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4.4409914909359971</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>5.2448931343936795</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.34161473007199977</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0.40345331803028306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1204655358</v>
+      </c>
+      <c r="C15">
+        <v>5.4850000000000003</v>
+      </c>
+      <c r="D15">
+        <v>219627230</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4.3770282588878757</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>5.3878912345143402</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.31264487563484827</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0.38484937389388146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1164484928</v>
+      </c>
+      <c r="C16">
+        <v>5.3120000000000003</v>
+      </c>
+      <c r="D16">
+        <v>219217795</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>4.5195783132530121</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>5.3778469824987614</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.30130522088353412</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.3585231321665841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1187687589</v>
+      </c>
+      <c r="C17">
+        <v>5.3360000000000003</v>
+      </c>
+      <c r="D17">
+        <v>222580132</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>4.4992503748125934</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>5.4603317729766232</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.28120314842578709</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0.34127073581103895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1201159824</v>
+      </c>
+      <c r="C18">
+        <v>5.2889999999999997</v>
+      </c>
+      <c r="D18">
+        <v>227105279</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>4.5392323690678769</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>5.5713425973456641</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.26701366876869864</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.32772603513798026</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1192739515</v>
+      </c>
+      <c r="C19">
+        <v>5.5140000000000002</v>
+      </c>
+      <c r="D19">
+        <v>216311119</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>4.354007979688066</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>5.3065404594325045</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.24188933220489256</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.29480780330180578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1203376234</v>
+      </c>
+      <c r="C20">
+        <v>5.4279999999999999</v>
+      </c>
+      <c r="D20">
+        <v>221697906</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4.4229918938835668</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>5.4386890206992273</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.23278904704650352</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0.28624679056311725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1217691330</v>
+      </c>
+      <c r="C21">
+        <v>5.4189999999999996</v>
+      </c>
+      <c r="D21">
+        <v>224707756</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>4.4303377006827827</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>5.5125266064676364</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0.22151688503413913</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0.2756263303233818</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1211262495</v>
+      </c>
+      <c r="C22">
+        <v>5.4930000000000003</v>
+      </c>
+      <c r="D22">
+        <v>220510193</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>4.370653559075186</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>5.4095520668624077</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0.20812635995596124</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0.25759771746963844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1216768639</v>
+      </c>
+      <c r="C23">
+        <v>5.3959999999999999</v>
+      </c>
+      <c r="D23">
+        <v>225494558</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>4.4492216456634539</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>5.5318284189027258</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0.20223734753015699</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0.25144674631376024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1241232728</v>
+      </c>
+      <c r="C24">
+        <v>5.4080000000000004</v>
+      </c>
+      <c r="D24">
+        <v>229517886</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>4.4393491124260347</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>5.6305286286389054</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0.19301517880113195</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>0.24480559254951761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1249446679</v>
+      </c>
+      <c r="C25">
+        <v>5.4189999999999996</v>
+      </c>
+      <c r="D25">
+        <v>230567757</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>4.4303377006827827</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>5.6562840450245275</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.18459740419511594</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0.23567850187602199</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC2CD64-95BE-4BE4-9B8B-87FFABEE640E}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
@@ -26361,7 +30051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DE268C-975E-4488-A318-D18B0F641550}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -27253,7 +30943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40D577C-1FC9-441B-9BD6-25BD6679A0C9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -28142,7 +31832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A698478-68FD-4AB6-BD61-F7BA433B8993}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -29028,7 +32718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76021593-133C-486A-80A9-D15B80E47575}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -29742,11 +33432,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1584DABB-DA59-4F6D-AEA3-5CC171009C00}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -30468,7 +34158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A6F068-9D13-45DA-910B-7CFD747A89D6}">
   <dimension ref="A1:K24"/>
   <sheetViews>

--- a/benchmark/parallel_benchmark.xlsx
+++ b/benchmark/parallel_benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\egaroucid\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41AABCC-3747-49B1-82FF-1AD24F799BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34F12AE-34AA-4E73-BF44-89EAAC6C1613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49800" yWindow="1524" windowWidth="34560" windowHeight="18600" activeTab="1" xr2:uid="{75C047C0-BFEA-499F-BA8B-EB1F29873334}"/>
+    <workbookView xWindow="45984" yWindow="-216" windowWidth="23232" windowHeight="25296" xr2:uid="{75C047C0-BFEA-499F-BA8B-EB1F29873334}"/>
   </bookViews>
   <sheets>
     <sheet name="20230601_5" sheetId="11" r:id="rId1"/>
@@ -27359,8 +27359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEE30F8-1FD5-4B4B-940B-BB1BA5C0BE4B}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -28260,7 +28260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2E351A-CD2B-4321-8C02-7EF304A99371}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -29161,7 +29161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC2CD64-95BE-4BE4-9B8B-87FFABEE640E}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>

--- a/benchmark/parallel_benchmark.xlsx
+++ b/benchmark/parallel_benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\egaroucid\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D2C165-2263-45AE-BB68-E87801D2F3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CCA293-4546-4A8F-B3C8-DE50B6973DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50784" yWindow="5340" windowWidth="34560" windowHeight="18600" xr2:uid="{75C047C0-BFEA-499F-BA8B-EB1F29873334}"/>
+    <workbookView xWindow="50496" yWindow="2220" windowWidth="34560" windowHeight="18600" activeTab="3" xr2:uid="{75C047C0-BFEA-499F-BA8B-EB1F29873334}"/>
   </bookViews>
   <sheets>
     <sheet name="20230602" sheetId="16" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="39">
   <si>
     <t>スレッド数 p(個)</t>
     <rPh sb="4" eb="5">
@@ -41258,8 +41258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A0E446-DB5D-473F-AE24-C5B4318489FE}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -47948,8 +47948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F58585-9DDD-4F71-B3A8-D5BE3FB1AB35}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -48117,6 +48117,13 @@
       <c r="I4">
         <f t="shared" si="3"/>
         <v>0.9130324607173258</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4">
+        <f>MAX(E:E)</f>
+        <v>6.2726226993865035</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
